--- a/raw_data/Hypophysenpatienten.xlsx
+++ b/raw_data/Hypophysenpatienten.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27021"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30FE6AF-F198-48FA-8DFC-EA61064E722E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F007C722-5E58-4DF3-BA96-42AE98AF9939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="w duplicates" sheetId="1" r:id="rId1"/>
     <sheet name="no duplicate PID" sheetId="3" r:id="rId2"/>
+    <sheet name="Mapping" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20236" uniqueCount="2498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20893" uniqueCount="2633">
   <si>
     <t>%ID</t>
   </si>
@@ -7506,21 +7507,18 @@
     <t xml:space="preserve">morbus cushing, cortico, </t>
   </si>
   <si>
+    <t>hyperprolakin stressinduziert</t>
+  </si>
+  <si>
     <t>kein mikroadenom</t>
   </si>
   <si>
-    <t>hyperprolakin stressinduziert</t>
-  </si>
-  <si>
     <t xml:space="preserve">hyperprolaktin stressbedingt, </t>
   </si>
   <si>
     <t>gondao, thyreo, cortico, SIADH</t>
   </si>
   <si>
-    <t>inaktiv (gonado), apoplex</t>
-  </si>
-  <si>
     <t>apoplex, DD: rathke oder kraniopharyngeom</t>
   </si>
   <si>
@@ -7531,6 +7529,414 @@
   </si>
   <si>
     <t>hyperprolaktin, hypogonado, hypothyreo</t>
+  </si>
+  <si>
+    <t>hyperprolaktin, hypogonado</t>
+  </si>
+  <si>
+    <t>hyperprolaktin, hypogonad</t>
+  </si>
+  <si>
+    <t>giant</t>
+  </si>
+  <si>
+    <t>chiasma, thyreo, gonado</t>
+  </si>
+  <si>
+    <t>inaktives, apoplektiformes gondaotropes hypophysen giant adenom</t>
+  </si>
+  <si>
+    <t>kein Adenom, Rathke Zyste</t>
+  </si>
+  <si>
+    <t>inaktiv, somatotrop</t>
+  </si>
+  <si>
+    <t>whrsch. kein Adenom</t>
+  </si>
+  <si>
+    <t>Rathkezyste</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>supprimiertes prolaktin</t>
+  </si>
+  <si>
+    <t>somato, thyreo, cortico</t>
+  </si>
+  <si>
+    <t>keine weiteren Angaben</t>
+  </si>
+  <si>
+    <t>thyreo, cortico</t>
+  </si>
+  <si>
+    <t>inakiv</t>
+  </si>
+  <si>
+    <t>inaktiv, rathke</t>
+  </si>
+  <si>
+    <t>somato, gonado</t>
+  </si>
+  <si>
+    <t>Vd.a. Mirkoadenom</t>
+  </si>
+  <si>
+    <t>kein Adenom, proteinreiche Rathke</t>
+  </si>
+  <si>
+    <t>prolaktin</t>
+  </si>
+  <si>
+    <t>inaktiv, supprimiert</t>
+  </si>
+  <si>
+    <t>prolaktin, gonado</t>
+  </si>
+  <si>
+    <t>269ug/l</t>
+  </si>
+  <si>
+    <t>22.7nmol</t>
+  </si>
+  <si>
+    <t>7ug/l</t>
+  </si>
+  <si>
+    <t>32.5nmol/l</t>
+  </si>
+  <si>
+    <t>38ug/l</t>
+  </si>
+  <si>
+    <t>13.5ug/L</t>
+  </si>
+  <si>
+    <t>16.6nmol</t>
+  </si>
+  <si>
+    <t>cortico, thyreo, ADH</t>
+  </si>
+  <si>
+    <t>extern Diamon</t>
+  </si>
+  <si>
+    <t>52.8ug/l</t>
+  </si>
+  <si>
+    <t>normalbefund</t>
+  </si>
+  <si>
+    <t>80ug/l</t>
+  </si>
+  <si>
+    <t>77.7nmol</t>
+  </si>
+  <si>
+    <t>381ug/l</t>
+  </si>
+  <si>
+    <t>15.9nmol</t>
+  </si>
+  <si>
+    <t>Testo 3.8nmol</t>
+  </si>
+  <si>
+    <t>366ug/l</t>
+  </si>
+  <si>
+    <t>14.9nmol</t>
+  </si>
+  <si>
+    <t>FSH 0.4U/L</t>
+  </si>
+  <si>
+    <t>9.9ug/l</t>
+  </si>
+  <si>
+    <t>Testo 1.7nmol</t>
+  </si>
+  <si>
+    <t>954ug/l</t>
+  </si>
+  <si>
+    <t>22nmol</t>
+  </si>
+  <si>
+    <t>FSH 0.7U/L</t>
+  </si>
+  <si>
+    <t>gonado, somato, cortico</t>
+  </si>
+  <si>
+    <t>2.7ug/l</t>
+  </si>
+  <si>
+    <t>Testo 5.7</t>
+  </si>
+  <si>
+    <t>thyreo, cortico, somato</t>
+  </si>
+  <si>
+    <t>gonado, somato, thyreo, cortico, ADH</t>
+  </si>
+  <si>
+    <t>1.5ug/l</t>
+  </si>
+  <si>
+    <t>6.5nmol</t>
+  </si>
+  <si>
+    <t>Test 0.7</t>
+  </si>
+  <si>
+    <t>gonado, somato, thyreo, cortico</t>
+  </si>
+  <si>
+    <t>gonado, somato, thyreo</t>
+  </si>
+  <si>
+    <t>53.3ug/l</t>
+  </si>
+  <si>
+    <t>rest fehlt</t>
+  </si>
+  <si>
+    <t>750ug/l</t>
+  </si>
+  <si>
+    <t>88.2ug/l</t>
+  </si>
+  <si>
+    <t>22.1nmol</t>
+  </si>
+  <si>
+    <t>18.7ug/l</t>
+  </si>
+  <si>
+    <t>15.4nmol</t>
+  </si>
+  <si>
+    <t>11.3ug/l</t>
+  </si>
+  <si>
+    <t>22.3nmol</t>
+  </si>
+  <si>
+    <t>Testo 31.7nmol</t>
+  </si>
+  <si>
+    <t>5.2ug/l</t>
+  </si>
+  <si>
+    <t>43.1nmol</t>
+  </si>
+  <si>
+    <t>Testo 11.1nmol</t>
+  </si>
+  <si>
+    <t>100ug/l</t>
+  </si>
+  <si>
+    <t>extern Lareida, Prolaktin funktionell interpretiert</t>
+  </si>
+  <si>
+    <t>thyreo, gonado</t>
+  </si>
+  <si>
+    <t>thyreo, gonado, somato</t>
+  </si>
+  <si>
+    <t>null-zell</t>
+  </si>
+  <si>
+    <t>57ug/l</t>
+  </si>
+  <si>
+    <t>998ug/l</t>
+  </si>
+  <si>
+    <t>19.9nmol</t>
+  </si>
+  <si>
+    <t>Testo 3.9nmol</t>
+  </si>
+  <si>
+    <t>463ug/l</t>
+  </si>
+  <si>
+    <t>31.2nnol</t>
+  </si>
+  <si>
+    <t>10520mu/L</t>
+  </si>
+  <si>
+    <t>15nmol</t>
+  </si>
+  <si>
+    <t>19.6ug/l</t>
+  </si>
+  <si>
+    <t>16.2nmol/l</t>
+  </si>
+  <si>
+    <t>cortico, somato, gonado</t>
+  </si>
+  <si>
+    <t>0.6ug/l</t>
+  </si>
+  <si>
+    <t>extern Olten</t>
+  </si>
+  <si>
+    <t>11,2nmol</t>
+  </si>
+  <si>
+    <t>17,6nmol</t>
+  </si>
+  <si>
+    <t>Testo 8,3nmol/l</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>25.4nmol/l</t>
+  </si>
+  <si>
+    <t>FSH 123U/L, LH 35U/L</t>
+  </si>
+  <si>
+    <t>extern Zug, postmenopausal</t>
+  </si>
+  <si>
+    <t>kein Labor (extern wie intern)</t>
+  </si>
+  <si>
+    <t>extern (Lareida), kein präop Labor</t>
+  </si>
+  <si>
+    <t>gonado, cortico, thyreo, somato</t>
+  </si>
+  <si>
+    <t>gonado, cortico, thyreo</t>
+  </si>
+  <si>
+    <t>extern, kein Labor mehr (Endokrinologe in Pension)</t>
+  </si>
+  <si>
+    <t>Einblutung</t>
+  </si>
+  <si>
+    <t>Begrifferklärung</t>
+  </si>
+  <si>
+    <t>Gonado</t>
+  </si>
+  <si>
+    <t>Ausfall der gonadotropen Achse (LH, FSH), sprich Pat. hat zu wenige Geschlechtshormone</t>
+  </si>
+  <si>
+    <t>Ausfall der thyreotropen Achse (TSH), sprich Pat. hat zu wenige Schilddrüsenhormone</t>
+  </si>
+  <si>
+    <t>Ausfall der somatotropen Achse (GH), sprich Pat. hat zu wenige Wachstumshormone, sprich Leber produziert zuwenig IGF-1</t>
+  </si>
+  <si>
+    <t>Cortico</t>
+  </si>
+  <si>
+    <t>Ausfall der corticotropen Achse (ACTH), sprich Pat. hat zu wenige Cortisol/Stress-hormone</t>
+  </si>
+  <si>
+    <t>Ausfall der ADH Produktion im Hypophysen-Hinterlappen (sehr selten), sprich Pat. kann Urin nicht mehr genügend konzentrieren</t>
+  </si>
+  <si>
+    <t>Prä und Post</t>
+  </si>
+  <si>
+    <t>Mapping via Laborentnahmedatum und Operationsdatum möglich, prinzipiell würde ich diese Spalten mal ignorieren, mehr klinisch orientiert, um zu sehen, ob eine allfällige Operation bezgl. Hormonsituation erfolgreich war oder nicht</t>
+  </si>
+  <si>
+    <t>Labor-Einheiten</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/amamanualofstyle/si-conversion-calculator</t>
+  </si>
+  <si>
+    <t>Testosteron</t>
+  </si>
+  <si>
+    <t>100ng/dl</t>
+  </si>
+  <si>
+    <t>0.0347</t>
+  </si>
+  <si>
+    <t>3.47nmol/l</t>
+  </si>
+  <si>
+    <t>sollte immer in nmol/l sein in CH</t>
+  </si>
+  <si>
+    <t>128.71pmol/l</t>
+  </si>
+  <si>
+    <t>sollte immer in pmol/l sein in CH</t>
+  </si>
+  <si>
+    <t>IGF-1</t>
+  </si>
+  <si>
+    <t>100ng/ml</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>13.1nmol/l</t>
+  </si>
+  <si>
+    <t>Labor-Normwerte</t>
+  </si>
+  <si>
+    <t>Geschlechtshormone</t>
+  </si>
+  <si>
+    <t>vorerst ignorieren, da zu komplex (F: Zyklus, M: grosse individuelle Streuung)</t>
+  </si>
+  <si>
+    <t>siehe Tabelle 3</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5794073/</t>
+  </si>
+  <si>
+    <t>Tabelle 1, Median</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9206165/</t>
+  </si>
+  <si>
+    <t>im Stimulationstest (Cor30 oder Cor60) im Export sollte &gt;500nmol/l erreichen</t>
+  </si>
+  <si>
+    <t>Tabelle 2, Median</t>
+  </si>
+  <si>
+    <t>https://labosud.fr/wp-content/uploads/sites/7/2023/08/Verification_of_Roche_reference_ranges_for_serum_prolactin_in_children_adolescents_adults_and_the_elderly-2023-07-11-05-21.pdf</t>
+  </si>
+  <si>
+    <t>Beispiel-Patienten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prolaktinom PID </t>
+  </si>
+  <si>
+    <t>Non-Prolaktinom PID</t>
   </si>
 </sst>
 </file>
@@ -7540,7 +7946,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7569,8 +7975,25 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7586,6 +8009,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE95CFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7625,10 +8054,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7646,8 +8076,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -7989,14 +8425,18 @@
   <dimension ref="A1:W1199"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="24" width="19.42578125" customWidth="1"/>
+    <col min="1" max="20" width="19.42578125" customWidth="1"/>
+    <col min="21" max="21" width="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -65499,8 +65939,8 @@
   <dimension ref="A1:AB527"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="I198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <pane ySplit="1" topLeftCell="I232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M258" sqref="M258"/>
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -65891,7 +66331,7 @@
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S6" s="3">
         <v>44470</v>
@@ -66845,7 +67285,7 @@
         <v>32</v>
       </c>
       <c r="S22" s="3">
-        <v>45171</v>
+        <v>39845</v>
       </c>
       <c r="T22" s="3">
         <v>39862</v>
@@ -79198,10 +79638,10 @@
       <c r="J216" s="11">
         <v>300151985</v>
       </c>
-      <c r="K216" t="s">
+      <c r="L216" t="s">
         <v>2489</v>
       </c>
-      <c r="L216" t="s">
+      <c r="R216" t="s">
         <v>2490</v>
       </c>
       <c r="S216" s="3">
@@ -79335,7 +79775,7 @@
         <v>31</v>
       </c>
       <c r="V218" t="s">
-        <v>2493</v>
+        <v>33</v>
       </c>
       <c r="W218" t="s">
         <v>34</v>
@@ -79403,7 +79843,7 @@
         <v>40</v>
       </c>
       <c r="V219" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="W219" t="s">
         <v>34</v>
@@ -79509,7 +79949,7 @@
         <v>30</v>
       </c>
       <c r="L221" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="S221" s="3">
         <v>42767</v>
@@ -79521,7 +79961,7 @@
         <v>2442</v>
       </c>
       <c r="V221" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="W221" t="s">
         <v>34</v>
@@ -79577,10 +80017,10 @@
         <v>30</v>
       </c>
       <c r="L222" t="s">
-        <v>2497</v>
-      </c>
-      <c r="U222" t="s">
-        <v>40</v>
+        <v>2496</v>
+      </c>
+      <c r="S222" s="3">
+        <v>43922</v>
       </c>
       <c r="V222" t="s">
         <v>157</v>
@@ -79632,8 +80072,11 @@
       <c r="I223" t="s">
         <v>29</v>
       </c>
-      <c r="J223" s="12">
+      <c r="J223">
         <v>300043953</v>
+      </c>
+      <c r="R223" t="s">
+        <v>2484</v>
       </c>
       <c r="X223">
         <v>18</v>
@@ -79679,8 +80122,29 @@
       <c r="I224" t="s">
         <v>29</v>
       </c>
-      <c r="J224" s="12">
+      <c r="J224">
         <v>300116322</v>
+      </c>
+      <c r="K224" t="s">
+        <v>30</v>
+      </c>
+      <c r="L224" t="s">
+        <v>2497</v>
+      </c>
+      <c r="S224" s="3">
+        <v>41638</v>
+      </c>
+      <c r="T224" s="3">
+        <v>43339</v>
+      </c>
+      <c r="U224" t="s">
+        <v>2498</v>
+      </c>
+      <c r="V224" t="s">
+        <v>60</v>
+      </c>
+      <c r="W224" t="s">
+        <v>157</v>
       </c>
       <c r="X224">
         <v>64</v>
@@ -79726,8 +80190,29 @@
       <c r="I225" t="s">
         <v>29</v>
       </c>
-      <c r="J225" s="12">
+      <c r="J225">
         <v>743011</v>
+      </c>
+      <c r="K225" t="s">
+        <v>2499</v>
+      </c>
+      <c r="L225" t="s">
+        <v>2500</v>
+      </c>
+      <c r="S225" s="3">
+        <v>41924</v>
+      </c>
+      <c r="T225" s="3">
+        <v>41925</v>
+      </c>
+      <c r="U225" t="s">
+        <v>40</v>
+      </c>
+      <c r="V225" t="s">
+        <v>2501</v>
+      </c>
+      <c r="W225" t="s">
+        <v>34</v>
       </c>
       <c r="X225">
         <v>62</v>
@@ -79773,8 +80258,11 @@
       <c r="I226" t="s">
         <v>29</v>
       </c>
-      <c r="J226" s="12">
+      <c r="J226">
         <v>300191364</v>
+      </c>
+      <c r="R226" t="s">
+        <v>2502</v>
       </c>
       <c r="X226">
         <v>28</v>
@@ -79820,8 +80308,29 @@
       <c r="I227" t="s">
         <v>29</v>
       </c>
-      <c r="J227" s="12">
+      <c r="J227">
         <v>430419</v>
+      </c>
+      <c r="K227" t="s">
+        <v>30</v>
+      </c>
+      <c r="L227" t="s">
+        <v>2503</v>
+      </c>
+      <c r="S227" s="3">
+        <v>41393</v>
+      </c>
+      <c r="T227" s="3">
+        <v>41509</v>
+      </c>
+      <c r="U227" t="s">
+        <v>40</v>
+      </c>
+      <c r="V227" t="s">
+        <v>60</v>
+      </c>
+      <c r="W227" t="s">
+        <v>34</v>
       </c>
       <c r="X227">
         <v>67</v>
@@ -79867,8 +80376,11 @@
       <c r="I228" t="s">
         <v>29</v>
       </c>
-      <c r="J228" s="12">
+      <c r="J228">
         <v>300090571</v>
+      </c>
+      <c r="R228" t="s">
+        <v>2504</v>
       </c>
       <c r="X228">
         <v>25</v>
@@ -79914,8 +80426,23 @@
       <c r="I229" t="s">
         <v>29</v>
       </c>
-      <c r="J229" s="12">
+      <c r="J229">
         <v>743647</v>
+      </c>
+      <c r="L229" t="s">
+        <v>60</v>
+      </c>
+      <c r="R229" t="s">
+        <v>2505</v>
+      </c>
+      <c r="S229" s="3">
+        <v>43941</v>
+      </c>
+      <c r="V229" t="s">
+        <v>96</v>
+      </c>
+      <c r="W229" t="s">
+        <v>34</v>
       </c>
       <c r="X229">
         <v>49</v>
@@ -79961,8 +80488,11 @@
       <c r="I230" t="s">
         <v>29</v>
       </c>
-      <c r="J230" s="12">
+      <c r="J230">
         <v>733215</v>
+      </c>
+      <c r="R230" s="17" t="s">
+        <v>2506</v>
       </c>
       <c r="X230">
         <v>6</v>
@@ -80008,8 +80538,23 @@
       <c r="I231" t="s">
         <v>29</v>
       </c>
-      <c r="J231" s="12">
+      <c r="J231">
         <v>74960</v>
+      </c>
+      <c r="K231" t="s">
+        <v>30</v>
+      </c>
+      <c r="L231" t="s">
+        <v>32</v>
+      </c>
+      <c r="S231" s="3">
+        <v>43951</v>
+      </c>
+      <c r="V231" t="s">
+        <v>2507</v>
+      </c>
+      <c r="W231" t="s">
+        <v>157</v>
       </c>
       <c r="X231">
         <v>72</v>
@@ -80055,8 +80600,29 @@
       <c r="I232" t="s">
         <v>29</v>
       </c>
-      <c r="J232" s="12">
+      <c r="J232">
         <v>443533</v>
+      </c>
+      <c r="K232" t="s">
+        <v>30</v>
+      </c>
+      <c r="L232" t="s">
+        <v>2508</v>
+      </c>
+      <c r="S232" s="3">
+        <v>42591</v>
+      </c>
+      <c r="T232" s="3">
+        <v>42601</v>
+      </c>
+      <c r="U232" t="s">
+        <v>40</v>
+      </c>
+      <c r="V232" t="s">
+        <v>60</v>
+      </c>
+      <c r="W232" t="s">
+        <v>34</v>
       </c>
       <c r="X232">
         <v>84</v>
@@ -80102,8 +80668,17 @@
       <c r="I233" t="s">
         <v>29</v>
       </c>
-      <c r="J233" s="12">
+      <c r="J233">
         <v>300189422</v>
+      </c>
+      <c r="K233" t="s">
+        <v>53</v>
+      </c>
+      <c r="R233" t="s">
+        <v>2509</v>
+      </c>
+      <c r="S233" s="3">
+        <v>44296</v>
       </c>
       <c r="X233">
         <v>26</v>
@@ -80149,8 +80724,29 @@
       <c r="I234" t="s">
         <v>29</v>
       </c>
-      <c r="J234" s="12">
+      <c r="J234">
         <v>615553</v>
+      </c>
+      <c r="K234" t="s">
+        <v>30</v>
+      </c>
+      <c r="L234" t="s">
+        <v>2510</v>
+      </c>
+      <c r="S234" s="3">
+        <v>40631</v>
+      </c>
+      <c r="T234" s="3">
+        <v>40632</v>
+      </c>
+      <c r="U234" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V234" t="s">
+        <v>60</v>
+      </c>
+      <c r="W234" t="s">
+        <v>34</v>
       </c>
       <c r="X234">
         <v>67</v>
@@ -80196,8 +80792,20 @@
       <c r="I235" t="s">
         <v>29</v>
       </c>
-      <c r="J235" s="12">
+      <c r="J235">
         <v>220057</v>
+      </c>
+      <c r="R235" t="s">
+        <v>2505</v>
+      </c>
+      <c r="S235" s="3">
+        <v>44292</v>
+      </c>
+      <c r="V235" t="s">
+        <v>96</v>
+      </c>
+      <c r="W235" t="s">
+        <v>34</v>
       </c>
       <c r="X235">
         <v>44</v>
@@ -80243,8 +80851,26 @@
       <c r="I236" t="s">
         <v>29</v>
       </c>
-      <c r="J236" s="12">
+      <c r="J236">
         <v>770245</v>
+      </c>
+      <c r="L236" t="s">
+        <v>60</v>
+      </c>
+      <c r="R236" t="s">
+        <v>2505</v>
+      </c>
+      <c r="S236" s="3">
+        <v>43361</v>
+      </c>
+      <c r="T236" s="3">
+        <v>44237</v>
+      </c>
+      <c r="V236" t="s">
+        <v>96</v>
+      </c>
+      <c r="W236" t="s">
+        <v>34</v>
       </c>
       <c r="X236">
         <v>40</v>
@@ -80290,8 +80916,23 @@
       <c r="I237" t="s">
         <v>29</v>
       </c>
-      <c r="J237" s="12">
+      <c r="J237">
         <v>7375</v>
+      </c>
+      <c r="K237" t="s">
+        <v>53</v>
+      </c>
+      <c r="L237" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S237" s="3">
+        <v>44282</v>
+      </c>
+      <c r="V237" t="s">
+        <v>60</v>
+      </c>
+      <c r="W237" t="s">
+        <v>34</v>
       </c>
       <c r="X237">
         <v>55</v>
@@ -80337,8 +80978,23 @@
       <c r="I238" t="s">
         <v>29</v>
       </c>
-      <c r="J238" s="12">
+      <c r="J238">
         <v>613086</v>
+      </c>
+      <c r="K238" t="s">
+        <v>53</v>
+      </c>
+      <c r="L238" t="s">
+        <v>60</v>
+      </c>
+      <c r="S238" s="3">
+        <v>40544</v>
+      </c>
+      <c r="V238" t="s">
+        <v>60</v>
+      </c>
+      <c r="W238" t="s">
+        <v>34</v>
       </c>
       <c r="X238">
         <v>34</v>
@@ -80384,8 +81040,23 @@
       <c r="I239" t="s">
         <v>29</v>
       </c>
-      <c r="J239" s="12">
+      <c r="J239">
         <v>300018685</v>
+      </c>
+      <c r="K239" t="s">
+        <v>53</v>
+      </c>
+      <c r="L239" t="s">
+        <v>60</v>
+      </c>
+      <c r="S239" s="3">
+        <v>42478</v>
+      </c>
+      <c r="V239" t="s">
+        <v>60</v>
+      </c>
+      <c r="W239" t="s">
+        <v>34</v>
       </c>
       <c r="X239">
         <v>38</v>
@@ -80431,8 +81102,23 @@
       <c r="I240" t="s">
         <v>29</v>
       </c>
-      <c r="J240" s="12">
+      <c r="J240">
         <v>20164</v>
+      </c>
+      <c r="L240" t="s">
+        <v>60</v>
+      </c>
+      <c r="R240" t="s">
+        <v>2505</v>
+      </c>
+      <c r="S240" s="3">
+        <v>43237</v>
+      </c>
+      <c r="V240" t="s">
+        <v>2512</v>
+      </c>
+      <c r="W240" t="s">
+        <v>34</v>
       </c>
       <c r="X240">
         <v>35</v>
@@ -80478,8 +81164,23 @@
       <c r="I241" t="s">
         <v>29</v>
       </c>
-      <c r="J241" s="12">
+      <c r="J241">
         <v>300101347</v>
+      </c>
+      <c r="K241" t="s">
+        <v>53</v>
+      </c>
+      <c r="L241" t="s">
+        <v>60</v>
+      </c>
+      <c r="S241" s="3">
+        <v>43277</v>
+      </c>
+      <c r="V241" t="s">
+        <v>60</v>
+      </c>
+      <c r="W241" t="s">
+        <v>34</v>
       </c>
       <c r="X241">
         <v>40</v>
@@ -80525,8 +81226,23 @@
       <c r="I242" t="s">
         <v>29</v>
       </c>
-      <c r="J242" s="12">
+      <c r="J242">
         <v>636550</v>
+      </c>
+      <c r="K242" t="s">
+        <v>30</v>
+      </c>
+      <c r="L242" t="s">
+        <v>2513</v>
+      </c>
+      <c r="S242" s="3">
+        <v>40848</v>
+      </c>
+      <c r="V242" t="s">
+        <v>60</v>
+      </c>
+      <c r="W242" t="s">
+        <v>157</v>
       </c>
       <c r="X242">
         <v>50</v>
@@ -80572,8 +81288,26 @@
       <c r="I243" t="s">
         <v>29</v>
       </c>
-      <c r="J243" s="12">
+      <c r="J243">
         <v>20374</v>
+      </c>
+      <c r="K243" t="s">
+        <v>53</v>
+      </c>
+      <c r="L243" t="s">
+        <v>60</v>
+      </c>
+      <c r="R243" t="s">
+        <v>2514</v>
+      </c>
+      <c r="S243" s="3">
+        <v>43864</v>
+      </c>
+      <c r="V243" t="s">
+        <v>60</v>
+      </c>
+      <c r="W243" t="s">
+        <v>34</v>
       </c>
       <c r="X243">
         <v>32</v>
@@ -80619,8 +81353,11 @@
       <c r="I244" t="s">
         <v>29</v>
       </c>
-      <c r="J244" s="12">
+      <c r="J244">
         <v>590059</v>
+      </c>
+      <c r="R244" t="s">
+        <v>2484</v>
       </c>
       <c r="X244">
         <v>30</v>
@@ -80666,8 +81403,11 @@
       <c r="I245" t="s">
         <v>29</v>
       </c>
-      <c r="J245" s="12">
+      <c r="J245">
         <v>300176139</v>
+      </c>
+      <c r="R245" t="s">
+        <v>2515</v>
       </c>
       <c r="X245">
         <v>29</v>
@@ -80713,8 +81453,14 @@
       <c r="I246" t="s">
         <v>29</v>
       </c>
-      <c r="J246" s="12">
+      <c r="J246">
         <v>300184337</v>
+      </c>
+      <c r="R246" t="s">
+        <v>2484</v>
+      </c>
+      <c r="S246" s="3">
+        <v>44250</v>
       </c>
       <c r="X246">
         <v>45</v>
@@ -80760,8 +81506,23 @@
       <c r="I247" t="s">
         <v>196</v>
       </c>
-      <c r="J247" s="12">
+      <c r="J247">
         <v>300241712</v>
+      </c>
+      <c r="K247" t="s">
+        <v>30</v>
+      </c>
+      <c r="L247" t="s">
+        <v>2516</v>
+      </c>
+      <c r="S247" s="3">
+        <v>44246</v>
+      </c>
+      <c r="V247" t="s">
+        <v>2517</v>
+      </c>
+      <c r="W247" t="s">
+        <v>157</v>
       </c>
       <c r="X247">
         <v>72</v>
@@ -80807,8 +81568,14 @@
       <c r="I248" t="s">
         <v>29</v>
       </c>
-      <c r="J248" s="12">
+      <c r="J248" s="11">
         <v>631002</v>
+      </c>
+      <c r="K248" t="s">
+        <v>53</v>
+      </c>
+      <c r="S248" s="3">
+        <v>44239</v>
       </c>
       <c r="X248">
         <v>34</v>
@@ -80854,8 +81621,23 @@
       <c r="I249" t="s">
         <v>29</v>
       </c>
-      <c r="J249" s="12">
+      <c r="J249">
         <v>717330</v>
+      </c>
+      <c r="K249" t="s">
+        <v>30</v>
+      </c>
+      <c r="L249" t="s">
+        <v>2518</v>
+      </c>
+      <c r="S249" s="3">
+        <v>41689</v>
+      </c>
+      <c r="V249" t="s">
+        <v>2517</v>
+      </c>
+      <c r="W249" t="s">
+        <v>157</v>
       </c>
       <c r="X249">
         <v>55</v>
@@ -88142,6 +88924,36 @@
       <c r="J404" s="12">
         <v>560863</v>
       </c>
+      <c r="K404" t="s">
+        <v>53</v>
+      </c>
+      <c r="L404" t="s">
+        <v>32</v>
+      </c>
+      <c r="M404" t="s">
+        <v>2519</v>
+      </c>
+      <c r="N404" t="s">
+        <v>2520</v>
+      </c>
+      <c r="O404">
+        <v>607</v>
+      </c>
+      <c r="P404">
+        <v>11.4</v>
+      </c>
+      <c r="S404" s="3">
+        <v>42795</v>
+      </c>
+      <c r="U404" t="s">
+        <v>40</v>
+      </c>
+      <c r="V404" t="s">
+        <v>157</v>
+      </c>
+      <c r="W404" t="s">
+        <v>157</v>
+      </c>
       <c r="X404">
         <v>23</v>
       </c>
@@ -88189,6 +89001,39 @@
       <c r="J405" s="12">
         <v>459429</v>
       </c>
+      <c r="K405" t="s">
+        <v>30</v>
+      </c>
+      <c r="L405" t="s">
+        <v>40</v>
+      </c>
+      <c r="M405" t="s">
+        <v>2521</v>
+      </c>
+      <c r="N405" t="s">
+        <v>2522</v>
+      </c>
+      <c r="O405">
+        <v>703</v>
+      </c>
+      <c r="P405">
+        <v>13.2</v>
+      </c>
+      <c r="S405" s="3">
+        <v>42887</v>
+      </c>
+      <c r="T405" s="3">
+        <v>42984</v>
+      </c>
+      <c r="U405" t="s">
+        <v>40</v>
+      </c>
+      <c r="V405" t="s">
+        <v>42</v>
+      </c>
+      <c r="W405" t="s">
+        <v>34</v>
+      </c>
       <c r="X405">
         <v>52</v>
       </c>
@@ -88236,6 +89081,9 @@
       <c r="J406" s="12">
         <v>300127746</v>
       </c>
+      <c r="R406" t="s">
+        <v>2484</v>
+      </c>
       <c r="X406">
         <v>68</v>
       </c>
@@ -88283,6 +89131,9 @@
       <c r="J407" s="12">
         <v>300022448</v>
       </c>
+      <c r="R407" t="s">
+        <v>2484</v>
+      </c>
       <c r="X407">
         <v>75</v>
       </c>
@@ -88330,6 +89181,33 @@
       <c r="J408" s="12">
         <v>580485</v>
       </c>
+      <c r="K408" t="s">
+        <v>30</v>
+      </c>
+      <c r="L408" t="s">
+        <v>40</v>
+      </c>
+      <c r="M408" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O408">
+        <v>524</v>
+      </c>
+      <c r="S408" s="3">
+        <v>40269</v>
+      </c>
+      <c r="T408" s="3">
+        <v>40299</v>
+      </c>
+      <c r="U408" t="s">
+        <v>40</v>
+      </c>
+      <c r="V408" t="s">
+        <v>60</v>
+      </c>
+      <c r="W408" t="s">
+        <v>34</v>
+      </c>
       <c r="X408">
         <v>62</v>
       </c>
@@ -88377,6 +89255,9 @@
       <c r="J409" s="12">
         <v>356919</v>
       </c>
+      <c r="R409" t="s">
+        <v>2484</v>
+      </c>
       <c r="X409">
         <v>69</v>
       </c>
@@ -88424,6 +89305,36 @@
       <c r="J410" s="12">
         <v>17081</v>
       </c>
+      <c r="K410" t="s">
+        <v>53</v>
+      </c>
+      <c r="L410" t="s">
+        <v>40</v>
+      </c>
+      <c r="M410" t="s">
+        <v>2524</v>
+      </c>
+      <c r="N410" t="s">
+        <v>2525</v>
+      </c>
+      <c r="O410">
+        <v>766</v>
+      </c>
+      <c r="P410">
+        <v>14.3</v>
+      </c>
+      <c r="S410" s="3">
+        <v>42309</v>
+      </c>
+      <c r="U410" t="s">
+        <v>40</v>
+      </c>
+      <c r="V410" t="s">
+        <v>60</v>
+      </c>
+      <c r="W410" t="s">
+        <v>34</v>
+      </c>
       <c r="X410">
         <v>59</v>
       </c>
@@ -88471,6 +89382,9 @@
       <c r="J411" s="12">
         <v>63087</v>
       </c>
+      <c r="R411" t="s">
+        <v>2484</v>
+      </c>
       <c r="X411">
         <v>58</v>
       </c>
@@ -88518,6 +89432,30 @@
       <c r="J412" s="12">
         <v>300081806</v>
       </c>
+      <c r="K412" t="s">
+        <v>30</v>
+      </c>
+      <c r="L412" s="7" t="s">
+        <v>2526</v>
+      </c>
+      <c r="R412" t="s">
+        <v>2527</v>
+      </c>
+      <c r="S412" s="3">
+        <v>43014</v>
+      </c>
+      <c r="T412" s="3">
+        <v>43025</v>
+      </c>
+      <c r="U412" t="s">
+        <v>2526</v>
+      </c>
+      <c r="V412" t="s">
+        <v>60</v>
+      </c>
+      <c r="W412" t="s">
+        <v>34</v>
+      </c>
       <c r="X412">
         <v>71</v>
       </c>
@@ -88565,6 +89503,30 @@
       <c r="J413" s="12">
         <v>591096</v>
       </c>
+      <c r="K413" t="s">
+        <v>30</v>
+      </c>
+      <c r="L413" t="s">
+        <v>182</v>
+      </c>
+      <c r="M413" t="s">
+        <v>2528</v>
+      </c>
+      <c r="S413" s="3">
+        <v>40330</v>
+      </c>
+      <c r="T413" s="3">
+        <v>40339</v>
+      </c>
+      <c r="U413" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="V413" t="s">
+        <v>33</v>
+      </c>
+      <c r="W413" t="s">
+        <v>34</v>
+      </c>
       <c r="X413">
         <v>56</v>
       </c>
@@ -88612,6 +89574,15 @@
       <c r="J414" s="12">
         <v>300120796</v>
       </c>
+      <c r="K414" t="s">
+        <v>2465</v>
+      </c>
+      <c r="V414" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W414" t="s">
+        <v>2529</v>
+      </c>
       <c r="X414">
         <v>19</v>
       </c>
@@ -88659,6 +89630,15 @@
       <c r="J415" s="12">
         <v>300057765</v>
       </c>
+      <c r="K415" t="s">
+        <v>2465</v>
+      </c>
+      <c r="V415" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W415" t="s">
+        <v>2529</v>
+      </c>
       <c r="X415">
         <v>62</v>
       </c>
@@ -88706,6 +89686,15 @@
       <c r="J416" s="12">
         <v>516450</v>
       </c>
+      <c r="K416" t="s">
+        <v>2465</v>
+      </c>
+      <c r="V416" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W416" t="s">
+        <v>2529</v>
+      </c>
       <c r="X416">
         <v>34</v>
       </c>
@@ -88753,6 +89742,9 @@
       <c r="J417" s="12">
         <v>239507</v>
       </c>
+      <c r="R417" t="s">
+        <v>2484</v>
+      </c>
       <c r="X417">
         <v>61</v>
       </c>
@@ -88800,6 +89792,30 @@
       <c r="J418" s="12">
         <v>277197</v>
       </c>
+      <c r="K418" t="s">
+        <v>53</v>
+      </c>
+      <c r="L418" t="s">
+        <v>117</v>
+      </c>
+      <c r="M418" t="s">
+        <v>2530</v>
+      </c>
+      <c r="S418" s="3">
+        <v>38777</v>
+      </c>
+      <c r="T418" s="3">
+        <v>39898</v>
+      </c>
+      <c r="U418" t="s">
+        <v>40</v>
+      </c>
+      <c r="V418" t="s">
+        <v>157</v>
+      </c>
+      <c r="W418" t="s">
+        <v>157</v>
+      </c>
       <c r="X418">
         <v>47</v>
       </c>
@@ -88847,6 +89863,33 @@
       <c r="J419" s="12">
         <v>300063047</v>
       </c>
+      <c r="K419" t="s">
+        <v>53</v>
+      </c>
+      <c r="L419" t="s">
+        <v>40</v>
+      </c>
+      <c r="N419" t="s">
+        <v>2531</v>
+      </c>
+      <c r="O419">
+        <v>532</v>
+      </c>
+      <c r="P419">
+        <v>18</v>
+      </c>
+      <c r="S419" s="3">
+        <v>42745</v>
+      </c>
+      <c r="T419" s="3">
+        <v>42963</v>
+      </c>
+      <c r="V419" t="s">
+        <v>42</v>
+      </c>
+      <c r="W419" t="s">
+        <v>34</v>
+      </c>
       <c r="X419">
         <v>72</v>
       </c>
@@ -88894,6 +89937,27 @@
       <c r="J420" s="12">
         <v>416558</v>
       </c>
+      <c r="K420" t="s">
+        <v>53</v>
+      </c>
+      <c r="L420" t="s">
+        <v>32</v>
+      </c>
+      <c r="R420" t="s">
+        <v>2527</v>
+      </c>
+      <c r="S420" s="3">
+        <v>42418</v>
+      </c>
+      <c r="U420" t="s">
+        <v>32</v>
+      </c>
+      <c r="V420" t="s">
+        <v>96</v>
+      </c>
+      <c r="W420" t="s">
+        <v>34</v>
+      </c>
       <c r="X420">
         <v>51</v>
       </c>
@@ -88941,6 +90005,15 @@
       <c r="J421" s="12">
         <v>652892</v>
       </c>
+      <c r="K421" t="s">
+        <v>2465</v>
+      </c>
+      <c r="V421" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W421" t="s">
+        <v>2529</v>
+      </c>
       <c r="X421">
         <v>68</v>
       </c>
@@ -88988,6 +90061,9 @@
       <c r="J422" s="12">
         <v>298076</v>
       </c>
+      <c r="R422" t="s">
+        <v>2484</v>
+      </c>
       <c r="X422">
         <v>70</v>
       </c>
@@ -89035,6 +90111,24 @@
       <c r="J423" s="12">
         <v>579143</v>
       </c>
+      <c r="K423" t="s">
+        <v>30</v>
+      </c>
+      <c r="L423" t="s">
+        <v>103</v>
+      </c>
+      <c r="S423" s="3">
+        <v>33604</v>
+      </c>
+      <c r="U423" t="s">
+        <v>32</v>
+      </c>
+      <c r="V423" t="s">
+        <v>157</v>
+      </c>
+      <c r="W423" t="s">
+        <v>157</v>
+      </c>
       <c r="X423">
         <v>48</v>
       </c>
@@ -89082,6 +90176,9 @@
       <c r="J424" s="12">
         <v>234316</v>
       </c>
+      <c r="R424" t="s">
+        <v>2484</v>
+      </c>
       <c r="X424">
         <v>48</v>
       </c>
@@ -89129,6 +90226,15 @@
       <c r="J425" s="12">
         <v>206301</v>
       </c>
+      <c r="K425" t="s">
+        <v>2465</v>
+      </c>
+      <c r="V425" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W425" t="s">
+        <v>2529</v>
+      </c>
       <c r="X425">
         <v>27</v>
       </c>
@@ -89176,6 +90282,36 @@
       <c r="J426" s="12">
         <v>112374</v>
       </c>
+      <c r="K426" t="s">
+        <v>30</v>
+      </c>
+      <c r="L426" t="s">
+        <v>32</v>
+      </c>
+      <c r="M426" t="s">
+        <v>2532</v>
+      </c>
+      <c r="N426" t="s">
+        <v>2533</v>
+      </c>
+      <c r="O426">
+        <v>334</v>
+      </c>
+      <c r="P426">
+        <v>11</v>
+      </c>
+      <c r="Q426" t="s">
+        <v>2534</v>
+      </c>
+      <c r="S426" s="3">
+        <v>40575</v>
+      </c>
+      <c r="V426" t="s">
+        <v>157</v>
+      </c>
+      <c r="W426" t="s">
+        <v>157</v>
+      </c>
       <c r="X426">
         <v>78</v>
       </c>
@@ -89223,6 +90359,39 @@
       <c r="J427" s="12">
         <v>113792</v>
       </c>
+      <c r="K427" t="s">
+        <v>30</v>
+      </c>
+      <c r="L427" t="s">
+        <v>32</v>
+      </c>
+      <c r="M427" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N427" t="s">
+        <v>2536</v>
+      </c>
+      <c r="O427">
+        <v>1380</v>
+      </c>
+      <c r="P427">
+        <v>11.8</v>
+      </c>
+      <c r="Q427" t="s">
+        <v>2537</v>
+      </c>
+      <c r="S427" s="3">
+        <v>41395</v>
+      </c>
+      <c r="U427" t="s">
+        <v>40</v>
+      </c>
+      <c r="V427" t="s">
+        <v>157</v>
+      </c>
+      <c r="W427" t="s">
+        <v>157</v>
+      </c>
       <c r="X427">
         <v>48</v>
       </c>
@@ -89270,6 +90439,33 @@
       <c r="J428" s="12">
         <v>542706</v>
       </c>
+      <c r="K428" t="s">
+        <v>30</v>
+      </c>
+      <c r="L428" t="s">
+        <v>130</v>
+      </c>
+      <c r="M428" t="s">
+        <v>2538</v>
+      </c>
+      <c r="O428">
+        <v>630</v>
+      </c>
+      <c r="R428" t="s">
+        <v>2539</v>
+      </c>
+      <c r="T428" s="3">
+        <v>39797</v>
+      </c>
+      <c r="U428" t="s">
+        <v>130</v>
+      </c>
+      <c r="V428" t="s">
+        <v>33</v>
+      </c>
+      <c r="W428" t="s">
+        <v>34</v>
+      </c>
       <c r="X428">
         <v>71</v>
       </c>
@@ -89317,6 +90513,9 @@
       <c r="J429" s="12">
         <v>629487</v>
       </c>
+      <c r="R429" t="s">
+        <v>2484</v>
+      </c>
       <c r="X429">
         <v>56</v>
       </c>
@@ -89364,6 +90563,9 @@
       <c r="J430" s="12">
         <v>263752</v>
       </c>
+      <c r="R430" t="s">
+        <v>2484</v>
+      </c>
       <c r="X430">
         <v>53</v>
       </c>
@@ -89411,6 +90613,39 @@
       <c r="J431" s="12">
         <v>242880</v>
       </c>
+      <c r="K431" t="s">
+        <v>30</v>
+      </c>
+      <c r="L431" t="s">
+        <v>32</v>
+      </c>
+      <c r="M431" t="s">
+        <v>2540</v>
+      </c>
+      <c r="N431" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O431">
+        <v>1213</v>
+      </c>
+      <c r="P431">
+        <v>17</v>
+      </c>
+      <c r="Q431" t="s">
+        <v>2542</v>
+      </c>
+      <c r="S431" s="3">
+        <v>43090</v>
+      </c>
+      <c r="U431" t="s">
+        <v>40</v>
+      </c>
+      <c r="V431" t="s">
+        <v>157</v>
+      </c>
+      <c r="W431" t="s">
+        <v>157</v>
+      </c>
       <c r="X431">
         <v>83</v>
       </c>
@@ -89458,6 +90693,15 @@
       <c r="J432" s="12">
         <v>732030</v>
       </c>
+      <c r="K432" t="s">
+        <v>2465</v>
+      </c>
+      <c r="V432" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W432" t="s">
+        <v>2529</v>
+      </c>
       <c r="X432">
         <v>35</v>
       </c>
@@ -89505,6 +90749,9 @@
       <c r="J433" s="12">
         <v>90307</v>
       </c>
+      <c r="R433" t="s">
+        <v>2484</v>
+      </c>
       <c r="X433">
         <v>52</v>
       </c>
@@ -89552,6 +90799,36 @@
       <c r="J434" s="12">
         <v>431742</v>
       </c>
+      <c r="K434" t="s">
+        <v>30</v>
+      </c>
+      <c r="L434" t="s">
+        <v>2543</v>
+      </c>
+      <c r="M434" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O434">
+        <v>221</v>
+      </c>
+      <c r="Q434" t="s">
+        <v>2545</v>
+      </c>
+      <c r="S434" s="3">
+        <v>38412</v>
+      </c>
+      <c r="T434" s="3">
+        <v>38428</v>
+      </c>
+      <c r="U434" t="s">
+        <v>2546</v>
+      </c>
+      <c r="V434" t="s">
+        <v>33</v>
+      </c>
+      <c r="W434" t="s">
+        <v>34</v>
+      </c>
       <c r="X434">
         <v>77</v>
       </c>
@@ -89599,6 +90876,39 @@
       <c r="J435" s="12">
         <v>159059</v>
       </c>
+      <c r="K435" t="s">
+        <v>30</v>
+      </c>
+      <c r="L435" t="s">
+        <v>2547</v>
+      </c>
+      <c r="M435" t="s">
+        <v>2548</v>
+      </c>
+      <c r="N435" t="s">
+        <v>2549</v>
+      </c>
+      <c r="O435">
+        <v>280</v>
+      </c>
+      <c r="P435">
+        <v>6.7</v>
+      </c>
+      <c r="Q435" t="s">
+        <v>2550</v>
+      </c>
+      <c r="S435" s="3">
+        <v>40941</v>
+      </c>
+      <c r="U435" t="s">
+        <v>2551</v>
+      </c>
+      <c r="V435" t="s">
+        <v>60</v>
+      </c>
+      <c r="W435" t="s">
+        <v>34</v>
+      </c>
       <c r="X435">
         <v>79</v>
       </c>
@@ -89646,6 +90956,27 @@
       <c r="J436" s="12">
         <v>100762</v>
       </c>
+      <c r="K436" t="s">
+        <v>30</v>
+      </c>
+      <c r="L436" t="s">
+        <v>2552</v>
+      </c>
+      <c r="S436" s="3">
+        <v>34516</v>
+      </c>
+      <c r="T436" s="3">
+        <v>34547</v>
+      </c>
+      <c r="U436" t="s">
+        <v>2552</v>
+      </c>
+      <c r="V436" t="s">
+        <v>157</v>
+      </c>
+      <c r="W436" t="s">
+        <v>157</v>
+      </c>
       <c r="X436">
         <v>66</v>
       </c>
@@ -89693,6 +91024,15 @@
       <c r="J437" s="12">
         <v>82037</v>
       </c>
+      <c r="K437" t="s">
+        <v>2465</v>
+      </c>
+      <c r="V437" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W437" t="s">
+        <v>2529</v>
+      </c>
       <c r="X437">
         <v>80</v>
       </c>
@@ -89740,6 +91080,33 @@
       <c r="J438" s="12">
         <v>137989</v>
       </c>
+      <c r="K438" t="s">
+        <v>53</v>
+      </c>
+      <c r="L438" t="s">
+        <v>32</v>
+      </c>
+      <c r="M438" t="s">
+        <v>2553</v>
+      </c>
+      <c r="O438">
+        <v>452</v>
+      </c>
+      <c r="Q438" t="s">
+        <v>2554</v>
+      </c>
+      <c r="S438" s="3">
+        <v>39234</v>
+      </c>
+      <c r="T438" s="3">
+        <v>39258</v>
+      </c>
+      <c r="V438" t="s">
+        <v>157</v>
+      </c>
+      <c r="W438" t="s">
+        <v>157</v>
+      </c>
       <c r="X438">
         <v>32</v>
       </c>
@@ -89787,6 +91154,33 @@
       <c r="J439" s="12">
         <v>62907</v>
       </c>
+      <c r="K439" t="s">
+        <v>30</v>
+      </c>
+      <c r="L439" t="s">
+        <v>32</v>
+      </c>
+      <c r="M439" t="s">
+        <v>2555</v>
+      </c>
+      <c r="O439">
+        <v>535</v>
+      </c>
+      <c r="Q439" t="s">
+        <v>2554</v>
+      </c>
+      <c r="S439" s="3">
+        <v>39853</v>
+      </c>
+      <c r="T439" s="3">
+        <v>39871</v>
+      </c>
+      <c r="V439" t="s">
+        <v>157</v>
+      </c>
+      <c r="W439" t="s">
+        <v>157</v>
+      </c>
       <c r="X439">
         <v>72</v>
       </c>
@@ -89834,6 +91228,27 @@
       <c r="J440" s="12">
         <v>431894</v>
       </c>
+      <c r="K440" t="s">
+        <v>30</v>
+      </c>
+      <c r="L440" t="s">
+        <v>32</v>
+      </c>
+      <c r="S440" s="3">
+        <v>43165</v>
+      </c>
+      <c r="T440" s="3">
+        <v>43168</v>
+      </c>
+      <c r="U440" t="s">
+        <v>32</v>
+      </c>
+      <c r="V440" t="s">
+        <v>157</v>
+      </c>
+      <c r="W440" t="s">
+        <v>157</v>
+      </c>
       <c r="X440">
         <v>71</v>
       </c>
@@ -89881,6 +91296,36 @@
       <c r="J441" s="12">
         <v>760622</v>
       </c>
+      <c r="K441" t="s">
+        <v>53</v>
+      </c>
+      <c r="L441" t="s">
+        <v>32</v>
+      </c>
+      <c r="M441" t="s">
+        <v>2556</v>
+      </c>
+      <c r="N441" t="s">
+        <v>2557</v>
+      </c>
+      <c r="O441">
+        <v>521</v>
+      </c>
+      <c r="P441">
+        <v>12.2</v>
+      </c>
+      <c r="S441" s="3">
+        <v>42079</v>
+      </c>
+      <c r="U441" t="s">
+        <v>32</v>
+      </c>
+      <c r="V441" t="s">
+        <v>60</v>
+      </c>
+      <c r="W441" t="s">
+        <v>34</v>
+      </c>
       <c r="X441">
         <v>31</v>
       </c>
@@ -89928,6 +91373,9 @@
       <c r="J442" s="12">
         <v>136374</v>
       </c>
+      <c r="R442" t="s">
+        <v>2484</v>
+      </c>
       <c r="X442">
         <v>57</v>
       </c>
@@ -89975,6 +91423,9 @@
       <c r="J443" s="12">
         <v>236904</v>
       </c>
+      <c r="R443" t="s">
+        <v>2484</v>
+      </c>
       <c r="X443">
         <v>50</v>
       </c>
@@ -90022,6 +91473,36 @@
       <c r="J444" s="12">
         <v>300052288</v>
       </c>
+      <c r="K444" t="s">
+        <v>53</v>
+      </c>
+      <c r="L444" t="s">
+        <v>40</v>
+      </c>
+      <c r="M444" t="s">
+        <v>2558</v>
+      </c>
+      <c r="N444" t="s">
+        <v>2559</v>
+      </c>
+      <c r="O444">
+        <v>850</v>
+      </c>
+      <c r="P444">
+        <v>14.1</v>
+      </c>
+      <c r="S444" s="3">
+        <v>42979</v>
+      </c>
+      <c r="U444" t="s">
+        <v>40</v>
+      </c>
+      <c r="V444" t="s">
+        <v>96</v>
+      </c>
+      <c r="W444" t="s">
+        <v>34</v>
+      </c>
       <c r="X444">
         <v>27</v>
       </c>
@@ -90069,6 +91550,9 @@
       <c r="J445" s="12">
         <v>326620</v>
       </c>
+      <c r="R445" t="s">
+        <v>2484</v>
+      </c>
       <c r="X445">
         <v>35</v>
       </c>
@@ -90116,6 +91600,9 @@
       <c r="J446" s="12">
         <v>334164</v>
       </c>
+      <c r="R446" t="s">
+        <v>2484</v>
+      </c>
       <c r="X446">
         <v>59</v>
       </c>
@@ -90163,6 +91650,24 @@
       <c r="J447" s="12">
         <v>455500</v>
       </c>
+      <c r="K447" t="s">
+        <v>30</v>
+      </c>
+      <c r="L447" t="s">
+        <v>154</v>
+      </c>
+      <c r="S447" s="3">
+        <v>38687</v>
+      </c>
+      <c r="T447" s="3">
+        <v>38707</v>
+      </c>
+      <c r="V447" t="s">
+        <v>60</v>
+      </c>
+      <c r="W447" t="s">
+        <v>34</v>
+      </c>
       <c r="X447">
         <v>52</v>
       </c>
@@ -90210,6 +91715,39 @@
       <c r="J448" s="12">
         <v>298149</v>
       </c>
+      <c r="K448" t="s">
+        <v>53</v>
+      </c>
+      <c r="L448" t="s">
+        <v>40</v>
+      </c>
+      <c r="M448" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N448" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O448">
+        <v>683</v>
+      </c>
+      <c r="P448">
+        <v>12.8</v>
+      </c>
+      <c r="Q448" t="s">
+        <v>2562</v>
+      </c>
+      <c r="S448" s="3">
+        <v>42541</v>
+      </c>
+      <c r="U448" t="s">
+        <v>40</v>
+      </c>
+      <c r="V448" t="s">
+        <v>60</v>
+      </c>
+      <c r="W448" t="s">
+        <v>34</v>
+      </c>
       <c r="X448">
         <v>33</v>
       </c>
@@ -90257,6 +91795,39 @@
       <c r="J449" s="12">
         <v>677044</v>
       </c>
+      <c r="K449" t="s">
+        <v>53</v>
+      </c>
+      <c r="L449" t="s">
+        <v>40</v>
+      </c>
+      <c r="M449" t="s">
+        <v>2563</v>
+      </c>
+      <c r="N449" t="s">
+        <v>2564</v>
+      </c>
+      <c r="O449">
+        <v>662</v>
+      </c>
+      <c r="P449">
+        <v>11.4</v>
+      </c>
+      <c r="Q449" t="s">
+        <v>2565</v>
+      </c>
+      <c r="S449" s="3">
+        <v>41278</v>
+      </c>
+      <c r="U449" t="s">
+        <v>40</v>
+      </c>
+      <c r="V449" t="s">
+        <v>60</v>
+      </c>
+      <c r="W449" t="s">
+        <v>34</v>
+      </c>
       <c r="X449">
         <v>24</v>
       </c>
@@ -90304,6 +91875,9 @@
       <c r="J450" s="12">
         <v>731872</v>
       </c>
+      <c r="R450" t="s">
+        <v>2484</v>
+      </c>
       <c r="X450">
         <v>53</v>
       </c>
@@ -90351,6 +91925,30 @@
       <c r="J451" s="12">
         <v>678592</v>
       </c>
+      <c r="K451" t="s">
+        <v>53</v>
+      </c>
+      <c r="L451" t="s">
+        <v>117</v>
+      </c>
+      <c r="M451" t="s">
+        <v>2566</v>
+      </c>
+      <c r="R451" t="s">
+        <v>2567</v>
+      </c>
+      <c r="S451" s="3">
+        <v>40179</v>
+      </c>
+      <c r="U451" t="s">
+        <v>40</v>
+      </c>
+      <c r="V451" t="s">
+        <v>60</v>
+      </c>
+      <c r="W451" t="s">
+        <v>34</v>
+      </c>
       <c r="X451">
         <v>51</v>
       </c>
@@ -90398,6 +91996,15 @@
       <c r="J452" s="12">
         <v>300103380</v>
       </c>
+      <c r="K452" t="s">
+        <v>2465</v>
+      </c>
+      <c r="V452" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W452" t="s">
+        <v>2529</v>
+      </c>
       <c r="X452">
         <v>34</v>
       </c>
@@ -90445,6 +92052,15 @@
       <c r="J453" s="12">
         <v>300104265</v>
       </c>
+      <c r="K453" t="s">
+        <v>2465</v>
+      </c>
+      <c r="V453" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W453" t="s">
+        <v>2529</v>
+      </c>
       <c r="X453">
         <v>58</v>
       </c>
@@ -90492,6 +92108,27 @@
       <c r="J454" s="12">
         <v>662750</v>
       </c>
+      <c r="K454" t="s">
+        <v>30</v>
+      </c>
+      <c r="L454" t="s">
+        <v>2568</v>
+      </c>
+      <c r="S454" s="3">
+        <v>41367</v>
+      </c>
+      <c r="T454" s="3">
+        <v>41372</v>
+      </c>
+      <c r="U454" t="s">
+        <v>2569</v>
+      </c>
+      <c r="V454" t="s">
+        <v>2570</v>
+      </c>
+      <c r="W454" t="s">
+        <v>34</v>
+      </c>
       <c r="X454">
         <v>67</v>
       </c>
@@ -90539,6 +92176,21 @@
       <c r="J455" s="12">
         <v>470993</v>
       </c>
+      <c r="K455" t="s">
+        <v>2465</v>
+      </c>
+      <c r="L455" t="s">
+        <v>40</v>
+      </c>
+      <c r="M455" t="s">
+        <v>2571</v>
+      </c>
+      <c r="V455" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W455" t="s">
+        <v>2529</v>
+      </c>
       <c r="X455">
         <v>31</v>
       </c>
@@ -90586,6 +92238,39 @@
       <c r="J456" s="12">
         <v>662362</v>
       </c>
+      <c r="K456" t="s">
+        <v>30</v>
+      </c>
+      <c r="L456" t="s">
+        <v>32</v>
+      </c>
+      <c r="M456" t="s">
+        <v>2572</v>
+      </c>
+      <c r="N456" t="s">
+        <v>2573</v>
+      </c>
+      <c r="O456">
+        <v>673</v>
+      </c>
+      <c r="P456">
+        <v>13.5</v>
+      </c>
+      <c r="Q456" t="s">
+        <v>2574</v>
+      </c>
+      <c r="S456" s="3">
+        <v>41518</v>
+      </c>
+      <c r="U456" t="s">
+        <v>40</v>
+      </c>
+      <c r="V456" t="s">
+        <v>157</v>
+      </c>
+      <c r="W456" t="s">
+        <v>157</v>
+      </c>
       <c r="X456">
         <v>40</v>
       </c>
@@ -90633,6 +92318,24 @@
       <c r="J457" s="12">
         <v>512319</v>
       </c>
+      <c r="K457" t="s">
+        <v>53</v>
+      </c>
+      <c r="L457" t="s">
+        <v>40</v>
+      </c>
+      <c r="S457" s="3">
+        <v>39630</v>
+      </c>
+      <c r="U457" t="s">
+        <v>40</v>
+      </c>
+      <c r="V457" t="s">
+        <v>60</v>
+      </c>
+      <c r="W457" t="s">
+        <v>34</v>
+      </c>
       <c r="X457">
         <v>51</v>
       </c>
@@ -90680,6 +92383,9 @@
       <c r="J458" s="12">
         <v>300054363</v>
       </c>
+      <c r="R458" t="s">
+        <v>2484</v>
+      </c>
       <c r="X458">
         <v>50</v>
       </c>
@@ -90727,6 +92433,36 @@
       <c r="J459" s="12">
         <v>300044383</v>
       </c>
+      <c r="K459" t="s">
+        <v>30</v>
+      </c>
+      <c r="L459" t="s">
+        <v>32</v>
+      </c>
+      <c r="M459" t="s">
+        <v>2575</v>
+      </c>
+      <c r="N459" t="s">
+        <v>2576</v>
+      </c>
+      <c r="O459">
+        <v>825</v>
+      </c>
+      <c r="P459">
+        <v>11.7</v>
+      </c>
+      <c r="S459" s="3">
+        <v>42705</v>
+      </c>
+      <c r="U459" t="s">
+        <v>40</v>
+      </c>
+      <c r="V459" t="s">
+        <v>157</v>
+      </c>
+      <c r="W459" t="s">
+        <v>157</v>
+      </c>
       <c r="X459">
         <v>23</v>
       </c>
@@ -90774,6 +92510,27 @@
       <c r="J460" s="12">
         <v>724566</v>
       </c>
+      <c r="K460" t="s">
+        <v>30</v>
+      </c>
+      <c r="L460" t="s">
+        <v>120</v>
+      </c>
+      <c r="S460" s="3">
+        <v>43191</v>
+      </c>
+      <c r="T460" s="3">
+        <v>43238</v>
+      </c>
+      <c r="U460" t="s">
+        <v>2568</v>
+      </c>
+      <c r="V460" t="s">
+        <v>33</v>
+      </c>
+      <c r="W460" t="s">
+        <v>34</v>
+      </c>
       <c r="X460">
         <v>80</v>
       </c>
@@ -90821,6 +92578,39 @@
       <c r="J461" s="12">
         <v>635720</v>
       </c>
+      <c r="K461" t="s">
+        <v>30</v>
+      </c>
+      <c r="L461" t="s">
+        <v>32</v>
+      </c>
+      <c r="M461" t="s">
+        <v>2577</v>
+      </c>
+      <c r="N461" t="s">
+        <v>2578</v>
+      </c>
+      <c r="O461">
+        <v>550</v>
+      </c>
+      <c r="P461">
+        <v>15</v>
+      </c>
+      <c r="S461" s="3">
+        <v>40856</v>
+      </c>
+      <c r="T461" s="3">
+        <v>40924</v>
+      </c>
+      <c r="U461" t="s">
+        <v>40</v>
+      </c>
+      <c r="V461" t="s">
+        <v>157</v>
+      </c>
+      <c r="W461" t="s">
+        <v>157</v>
+      </c>
       <c r="X461">
         <v>40</v>
       </c>
@@ -90915,6 +92705,18 @@
       <c r="J463" s="12">
         <v>302788</v>
       </c>
+      <c r="K463" t="s">
+        <v>2465</v>
+      </c>
+      <c r="S463" s="3">
+        <v>43206</v>
+      </c>
+      <c r="V463" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W463" t="s">
+        <v>2529</v>
+      </c>
       <c r="X463">
         <v>50</v>
       </c>
@@ -90962,6 +92764,36 @@
       <c r="J464" s="12">
         <v>82016</v>
       </c>
+      <c r="K464" t="s">
+        <v>53</v>
+      </c>
+      <c r="L464" t="s">
+        <v>117</v>
+      </c>
+      <c r="M464" t="s">
+        <v>2579</v>
+      </c>
+      <c r="N464" t="s">
+        <v>2580</v>
+      </c>
+      <c r="O464">
+        <v>707</v>
+      </c>
+      <c r="P464">
+        <v>14.1</v>
+      </c>
+      <c r="S464" s="3">
+        <v>42943</v>
+      </c>
+      <c r="U464" t="s">
+        <v>40</v>
+      </c>
+      <c r="V464" t="s">
+        <v>96</v>
+      </c>
+      <c r="W464" t="s">
+        <v>34</v>
+      </c>
       <c r="X464">
         <v>51</v>
       </c>
@@ -91009,6 +92841,9 @@
       <c r="J465" s="12">
         <v>703116</v>
       </c>
+      <c r="R465" t="s">
+        <v>2484</v>
+      </c>
       <c r="X465">
         <v>28</v>
       </c>
@@ -91056,6 +92891,27 @@
       <c r="J466" s="12">
         <v>157875</v>
       </c>
+      <c r="K466" t="s">
+        <v>30</v>
+      </c>
+      <c r="L466" t="s">
+        <v>2581</v>
+      </c>
+      <c r="S466" s="3">
+        <v>38443</v>
+      </c>
+      <c r="T466" s="3">
+        <v>38456</v>
+      </c>
+      <c r="U466" t="s">
+        <v>2513</v>
+      </c>
+      <c r="V466" t="s">
+        <v>60</v>
+      </c>
+      <c r="W466" t="s">
+        <v>34</v>
+      </c>
       <c r="X466">
         <v>80</v>
       </c>
@@ -91103,6 +92959,15 @@
       <c r="J467" s="12">
         <v>622312</v>
       </c>
+      <c r="K467" t="s">
+        <v>2465</v>
+      </c>
+      <c r="V467" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W467" s="9" t="s">
+        <v>2529</v>
+      </c>
       <c r="X467">
         <v>25</v>
       </c>
@@ -91150,6 +93015,24 @@
       <c r="J468" s="12">
         <v>593992</v>
       </c>
+      <c r="K468" t="s">
+        <v>53</v>
+      </c>
+      <c r="L468" t="s">
+        <v>32</v>
+      </c>
+      <c r="S468" s="3">
+        <v>41426</v>
+      </c>
+      <c r="U468" t="s">
+        <v>40</v>
+      </c>
+      <c r="V468" t="s">
+        <v>157</v>
+      </c>
+      <c r="W468" t="s">
+        <v>157</v>
+      </c>
       <c r="X468">
         <v>48</v>
       </c>
@@ -91197,6 +93080,36 @@
       <c r="J469" s="12">
         <v>570064</v>
       </c>
+      <c r="K469" t="s">
+        <v>30</v>
+      </c>
+      <c r="L469" t="s">
+        <v>40</v>
+      </c>
+      <c r="M469">
+        <v>6.5</v>
+      </c>
+      <c r="N469" t="s">
+        <v>2582</v>
+      </c>
+      <c r="R469" t="s">
+        <v>2583</v>
+      </c>
+      <c r="S469" s="3">
+        <v>40087</v>
+      </c>
+      <c r="T469" s="3">
+        <v>40119</v>
+      </c>
+      <c r="U469" t="s">
+        <v>40</v>
+      </c>
+      <c r="V469" t="s">
+        <v>60</v>
+      </c>
+      <c r="W469" t="s">
+        <v>34</v>
+      </c>
       <c r="X469">
         <v>52</v>
       </c>
@@ -91244,6 +93157,36 @@
       <c r="J470" s="12">
         <v>404252</v>
       </c>
+      <c r="K470" t="s">
+        <v>53</v>
+      </c>
+      <c r="L470" t="s">
+        <v>117</v>
+      </c>
+      <c r="M470">
+        <v>7.4</v>
+      </c>
+      <c r="N470" t="s">
+        <v>2584</v>
+      </c>
+      <c r="O470">
+        <v>588</v>
+      </c>
+      <c r="P470">
+        <v>23.3</v>
+      </c>
+      <c r="S470" s="3">
+        <v>41978</v>
+      </c>
+      <c r="U470" t="s">
+        <v>40</v>
+      </c>
+      <c r="V470" t="s">
+        <v>96</v>
+      </c>
+      <c r="W470" t="s">
+        <v>34</v>
+      </c>
       <c r="X470">
         <v>75</v>
       </c>
@@ -91291,6 +93234,39 @@
       <c r="J471" s="12">
         <v>562753</v>
       </c>
+      <c r="K471" t="s">
+        <v>53</v>
+      </c>
+      <c r="L471" t="s">
+        <v>40</v>
+      </c>
+      <c r="M471">
+        <v>15</v>
+      </c>
+      <c r="N471" t="s">
+        <v>2585</v>
+      </c>
+      <c r="O471">
+        <v>704</v>
+      </c>
+      <c r="P471">
+        <v>13</v>
+      </c>
+      <c r="Q471" t="s">
+        <v>2586</v>
+      </c>
+      <c r="S471" s="3">
+        <v>41870</v>
+      </c>
+      <c r="U471" t="s">
+        <v>40</v>
+      </c>
+      <c r="V471" t="s">
+        <v>96</v>
+      </c>
+      <c r="W471" t="s">
+        <v>34</v>
+      </c>
       <c r="X471">
         <v>47</v>
       </c>
@@ -91338,6 +93314,18 @@
       <c r="J472" s="12">
         <v>300014983</v>
       </c>
+      <c r="K472" t="s">
+        <v>2465</v>
+      </c>
+      <c r="S472" s="3">
+        <v>43169</v>
+      </c>
+      <c r="V472" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W472" s="9" t="s">
+        <v>2529</v>
+      </c>
       <c r="X472">
         <v>35</v>
       </c>
@@ -91385,6 +93373,9 @@
       <c r="J473" s="12">
         <v>705118</v>
       </c>
+      <c r="R473" t="s">
+        <v>2484</v>
+      </c>
       <c r="X473">
         <v>56</v>
       </c>
@@ -91432,6 +93423,24 @@
       <c r="J474" s="12">
         <v>659263</v>
       </c>
+      <c r="K474" t="s">
+        <v>53</v>
+      </c>
+      <c r="L474" t="s">
+        <v>212</v>
+      </c>
+      <c r="S474" s="3">
+        <v>40951</v>
+      </c>
+      <c r="U474" t="s">
+        <v>40</v>
+      </c>
+      <c r="V474" t="s">
+        <v>96</v>
+      </c>
+      <c r="W474" t="s">
+        <v>34</v>
+      </c>
       <c r="X474">
         <v>30</v>
       </c>
@@ -91479,6 +93488,24 @@
       <c r="J475" s="12">
         <v>166990</v>
       </c>
+      <c r="K475" t="s">
+        <v>53</v>
+      </c>
+      <c r="L475" t="s">
+        <v>117</v>
+      </c>
+      <c r="S475" s="3">
+        <v>42955</v>
+      </c>
+      <c r="U475" t="s">
+        <v>40</v>
+      </c>
+      <c r="V475" t="s">
+        <v>60</v>
+      </c>
+      <c r="W475" t="s">
+        <v>34</v>
+      </c>
       <c r="X475">
         <v>34</v>
       </c>
@@ -91526,6 +93553,24 @@
       <c r="J476" s="12">
         <v>268594</v>
       </c>
+      <c r="K476" t="s">
+        <v>30</v>
+      </c>
+      <c r="L476" t="s">
+        <v>112</v>
+      </c>
+      <c r="S476" s="3">
+        <v>43137</v>
+      </c>
+      <c r="U476" t="s">
+        <v>112</v>
+      </c>
+      <c r="V476" t="s">
+        <v>96</v>
+      </c>
+      <c r="W476" t="s">
+        <v>34</v>
+      </c>
       <c r="X476">
         <v>77</v>
       </c>
@@ -91573,6 +93618,27 @@
       <c r="J477" s="12">
         <v>121913</v>
       </c>
+      <c r="K477" t="s">
+        <v>30</v>
+      </c>
+      <c r="L477" t="s">
+        <v>40</v>
+      </c>
+      <c r="S477" s="3">
+        <v>42782</v>
+      </c>
+      <c r="T477" s="3">
+        <v>42793</v>
+      </c>
+      <c r="U477" t="s">
+        <v>40</v>
+      </c>
+      <c r="V477" t="s">
+        <v>96</v>
+      </c>
+      <c r="W477" t="s">
+        <v>34</v>
+      </c>
       <c r="X477">
         <v>54</v>
       </c>
@@ -91620,6 +93686,24 @@
       <c r="J478" s="12">
         <v>305664</v>
       </c>
+      <c r="K478" t="s">
+        <v>30</v>
+      </c>
+      <c r="L478" t="s">
+        <v>32</v>
+      </c>
+      <c r="S478" s="3">
+        <v>40969</v>
+      </c>
+      <c r="U478" t="s">
+        <v>40</v>
+      </c>
+      <c r="V478" t="s">
+        <v>157</v>
+      </c>
+      <c r="W478" t="s">
+        <v>157</v>
+      </c>
       <c r="X478">
         <v>59</v>
       </c>
@@ -91667,6 +93751,27 @@
       <c r="J479" s="12">
         <v>493633</v>
       </c>
+      <c r="K479" t="s">
+        <v>30</v>
+      </c>
+      <c r="L479" t="s">
+        <v>117</v>
+      </c>
+      <c r="S479" s="3">
+        <v>39052</v>
+      </c>
+      <c r="T479" s="3">
+        <v>39587</v>
+      </c>
+      <c r="U479" t="s">
+        <v>40</v>
+      </c>
+      <c r="V479" t="s">
+        <v>60</v>
+      </c>
+      <c r="W479" t="s">
+        <v>34</v>
+      </c>
       <c r="X479">
         <v>32</v>
       </c>
@@ -91714,6 +93819,18 @@
       <c r="J480" s="12">
         <v>23613</v>
       </c>
+      <c r="K480" t="s">
+        <v>2465</v>
+      </c>
+      <c r="U480" t="s">
+        <v>40</v>
+      </c>
+      <c r="V480" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W480" s="9" t="s">
+        <v>2529</v>
+      </c>
       <c r="X480">
         <v>46</v>
       </c>
@@ -91761,6 +93878,21 @@
       <c r="J481" s="12">
         <v>300089704</v>
       </c>
+      <c r="K481" t="s">
+        <v>2465</v>
+      </c>
+      <c r="S481" s="3">
+        <v>43125</v>
+      </c>
+      <c r="U481" t="s">
+        <v>40</v>
+      </c>
+      <c r="V481" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W481" s="9" t="s">
+        <v>2529</v>
+      </c>
       <c r="X481">
         <v>26</v>
       </c>
@@ -91808,6 +93940,24 @@
       <c r="J482" s="12">
         <v>430196</v>
       </c>
+      <c r="K482" t="s">
+        <v>53</v>
+      </c>
+      <c r="L482" t="s">
+        <v>32</v>
+      </c>
+      <c r="S482" s="3">
+        <v>43119</v>
+      </c>
+      <c r="U482" t="s">
+        <v>40</v>
+      </c>
+      <c r="V482" t="s">
+        <v>157</v>
+      </c>
+      <c r="W482" t="s">
+        <v>157</v>
+      </c>
       <c r="X482">
         <v>57</v>
       </c>
@@ -91855,6 +94005,45 @@
       <c r="J483" s="12">
         <v>300071920</v>
       </c>
+      <c r="K483" t="s">
+        <v>53</v>
+      </c>
+      <c r="L483" t="s">
+        <v>117</v>
+      </c>
+      <c r="M483" t="s">
+        <v>2587</v>
+      </c>
+      <c r="N483" t="s">
+        <v>2588</v>
+      </c>
+      <c r="O483">
+        <v>1150</v>
+      </c>
+      <c r="P483" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="Q483" t="s">
+        <v>2589</v>
+      </c>
+      <c r="R483" t="s">
+        <v>2590</v>
+      </c>
+      <c r="S483" s="3">
+        <v>42917</v>
+      </c>
+      <c r="T483" s="3">
+        <v>42984</v>
+      </c>
+      <c r="U483" t="s">
+        <v>40</v>
+      </c>
+      <c r="V483" t="s">
+        <v>55</v>
+      </c>
+      <c r="W483" t="s">
+        <v>34</v>
+      </c>
       <c r="X483">
         <v>57</v>
       </c>
@@ -91902,6 +94091,24 @@
       <c r="J484" s="12">
         <v>719666</v>
       </c>
+      <c r="K484" t="s">
+        <v>30</v>
+      </c>
+      <c r="L484" t="s">
+        <v>164</v>
+      </c>
+      <c r="S484" s="3">
+        <v>41699</v>
+      </c>
+      <c r="U484" t="s">
+        <v>164</v>
+      </c>
+      <c r="V484" t="s">
+        <v>157</v>
+      </c>
+      <c r="W484" t="s">
+        <v>157</v>
+      </c>
       <c r="X484">
         <v>70</v>
       </c>
@@ -91949,6 +94156,9 @@
       <c r="J485" s="12">
         <v>300060205</v>
       </c>
+      <c r="R485" t="s">
+        <v>2484</v>
+      </c>
       <c r="X485">
         <v>43</v>
       </c>
@@ -91996,6 +94206,18 @@
       <c r="J486" s="12">
         <v>187431</v>
       </c>
+      <c r="K486" t="s">
+        <v>2465</v>
+      </c>
+      <c r="S486" s="3">
+        <v>43052</v>
+      </c>
+      <c r="V486" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W486" s="9" t="s">
+        <v>2529</v>
+      </c>
       <c r="X486">
         <v>56</v>
       </c>
@@ -92043,6 +94265,24 @@
       <c r="J487" s="12">
         <v>300005306</v>
       </c>
+      <c r="K487" t="s">
+        <v>53</v>
+      </c>
+      <c r="L487" t="s">
+        <v>40</v>
+      </c>
+      <c r="R487" t="s">
+        <v>2591</v>
+      </c>
+      <c r="S487" s="3">
+        <v>43040</v>
+      </c>
+      <c r="V487" t="s">
+        <v>96</v>
+      </c>
+      <c r="W487" t="s">
+        <v>34</v>
+      </c>
       <c r="X487">
         <v>39</v>
       </c>
@@ -92090,6 +94330,9 @@
       <c r="J488" s="12">
         <v>300074797</v>
       </c>
+      <c r="R488" t="s">
+        <v>2484</v>
+      </c>
       <c r="X488">
         <v>50</v>
       </c>
@@ -92137,6 +94380,18 @@
       <c r="J489" s="12">
         <v>676149</v>
       </c>
+      <c r="K489" t="s">
+        <v>2465</v>
+      </c>
+      <c r="U489" t="s">
+        <v>40</v>
+      </c>
+      <c r="V489" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W489" s="9" t="s">
+        <v>2529</v>
+      </c>
       <c r="X489">
         <v>54</v>
       </c>
@@ -92184,6 +94439,24 @@
       <c r="J490" s="12">
         <v>393986</v>
       </c>
+      <c r="K490" t="s">
+        <v>53</v>
+      </c>
+      <c r="L490" t="s">
+        <v>40</v>
+      </c>
+      <c r="S490" s="3">
+        <v>39722</v>
+      </c>
+      <c r="U490" t="s">
+        <v>40</v>
+      </c>
+      <c r="V490" t="s">
+        <v>96</v>
+      </c>
+      <c r="W490" t="s">
+        <v>34</v>
+      </c>
       <c r="X490">
         <v>50</v>
       </c>
@@ -92231,6 +94504,30 @@
       <c r="J491" s="12">
         <v>300076492</v>
       </c>
+      <c r="K491" t="s">
+        <v>30</v>
+      </c>
+      <c r="L491" t="s">
+        <v>32</v>
+      </c>
+      <c r="R491" t="s">
+        <v>2592</v>
+      </c>
+      <c r="S491" s="3">
+        <v>42600</v>
+      </c>
+      <c r="T491" s="3">
+        <v>42996</v>
+      </c>
+      <c r="U491" t="s">
+        <v>2593</v>
+      </c>
+      <c r="V491" t="s">
+        <v>157</v>
+      </c>
+      <c r="W491" t="s">
+        <v>157</v>
+      </c>
       <c r="X491">
         <v>60</v>
       </c>
@@ -92278,6 +94575,24 @@
       <c r="J492" s="12">
         <v>14433</v>
       </c>
+      <c r="K492" t="s">
+        <v>53</v>
+      </c>
+      <c r="L492" t="s">
+        <v>40</v>
+      </c>
+      <c r="S492" s="3">
+        <v>42552</v>
+      </c>
+      <c r="U492" t="s">
+        <v>40</v>
+      </c>
+      <c r="V492" t="s">
+        <v>60</v>
+      </c>
+      <c r="W492" t="s">
+        <v>34</v>
+      </c>
       <c r="X492">
         <v>77</v>
       </c>
@@ -92325,6 +94640,24 @@
       <c r="J493" s="12">
         <v>563268</v>
       </c>
+      <c r="K493" t="s">
+        <v>30</v>
+      </c>
+      <c r="L493" t="s">
+        <v>32</v>
+      </c>
+      <c r="S493" s="3">
+        <v>40026</v>
+      </c>
+      <c r="U493" t="s">
+        <v>40</v>
+      </c>
+      <c r="V493" t="s">
+        <v>157</v>
+      </c>
+      <c r="W493" t="s">
+        <v>157</v>
+      </c>
       <c r="X493">
         <v>85</v>
       </c>
@@ -92372,6 +94705,24 @@
       <c r="J494" s="12">
         <v>771570</v>
       </c>
+      <c r="K494" t="s">
+        <v>53</v>
+      </c>
+      <c r="L494" t="s">
+        <v>32</v>
+      </c>
+      <c r="S494" s="3">
+        <v>41671</v>
+      </c>
+      <c r="U494" t="s">
+        <v>40</v>
+      </c>
+      <c r="V494" t="s">
+        <v>157</v>
+      </c>
+      <c r="W494" t="s">
+        <v>157</v>
+      </c>
       <c r="X494">
         <v>31</v>
       </c>
@@ -92419,6 +94770,9 @@
       <c r="J495" s="12">
         <v>347729</v>
       </c>
+      <c r="R495" t="s">
+        <v>2484</v>
+      </c>
       <c r="X495">
         <v>78</v>
       </c>
@@ -92466,6 +94820,9 @@
       <c r="J496" s="12">
         <v>601199</v>
       </c>
+      <c r="R496" t="s">
+        <v>2484</v>
+      </c>
       <c r="X496">
         <v>50</v>
       </c>
@@ -92513,6 +94870,27 @@
       <c r="J497" s="12">
         <v>300038846</v>
       </c>
+      <c r="K497" t="s">
+        <v>53</v>
+      </c>
+      <c r="L497" t="s">
+        <v>117</v>
+      </c>
+      <c r="S497" s="3">
+        <v>42677</v>
+      </c>
+      <c r="T497" s="16">
+        <v>42816</v>
+      </c>
+      <c r="U497" t="s">
+        <v>40</v>
+      </c>
+      <c r="V497" t="s">
+        <v>42</v>
+      </c>
+      <c r="W497" t="s">
+        <v>34</v>
+      </c>
       <c r="X497">
         <v>55</v>
       </c>
@@ -92560,6 +94938,27 @@
       <c r="J498" s="12">
         <v>224630</v>
       </c>
+      <c r="K498" t="s">
+        <v>53</v>
+      </c>
+      <c r="L498" t="s">
+        <v>117</v>
+      </c>
+      <c r="S498" s="3">
+        <v>42644</v>
+      </c>
+      <c r="T498" s="3">
+        <v>42809</v>
+      </c>
+      <c r="U498" t="s">
+        <v>40</v>
+      </c>
+      <c r="V498" t="s">
+        <v>42</v>
+      </c>
+      <c r="W498" t="s">
+        <v>34</v>
+      </c>
       <c r="X498">
         <v>62</v>
       </c>
@@ -92607,6 +95006,21 @@
       <c r="J499" s="12">
         <v>538377</v>
       </c>
+      <c r="K499" t="s">
+        <v>2465</v>
+      </c>
+      <c r="L499" t="s">
+        <v>40</v>
+      </c>
+      <c r="U499" t="s">
+        <v>40</v>
+      </c>
+      <c r="V499" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W499" s="9" t="s">
+        <v>2529</v>
+      </c>
       <c r="X499">
         <v>25</v>
       </c>
@@ -92654,6 +95068,30 @@
       <c r="J500" s="12">
         <v>631872</v>
       </c>
+      <c r="K500" t="s">
+        <v>30</v>
+      </c>
+      <c r="L500" t="s">
+        <v>2594</v>
+      </c>
+      <c r="R500" t="s">
+        <v>2595</v>
+      </c>
+      <c r="S500" s="3">
+        <v>40848</v>
+      </c>
+      <c r="T500" s="3">
+        <v>40854</v>
+      </c>
+      <c r="U500" t="s">
+        <v>32</v>
+      </c>
+      <c r="V500" t="s">
+        <v>33</v>
+      </c>
+      <c r="W500" t="s">
+        <v>34</v>
+      </c>
       <c r="X500">
         <v>82</v>
       </c>
@@ -92701,6 +95139,27 @@
       <c r="J501" s="12">
         <v>89316</v>
       </c>
+      <c r="K501" t="s">
+        <v>30</v>
+      </c>
+      <c r="L501" t="s">
+        <v>2593</v>
+      </c>
+      <c r="S501" s="3">
+        <v>33604</v>
+      </c>
+      <c r="T501" s="3">
+        <v>33604</v>
+      </c>
+      <c r="U501" t="s">
+        <v>2593</v>
+      </c>
+      <c r="V501" t="s">
+        <v>60</v>
+      </c>
+      <c r="W501" t="s">
+        <v>34</v>
+      </c>
       <c r="X501">
         <v>50</v>
       </c>
@@ -92748,6 +95207,21 @@
       <c r="J502" s="12">
         <v>640481</v>
       </c>
+      <c r="K502" t="s">
+        <v>2465</v>
+      </c>
+      <c r="L502" t="s">
+        <v>117</v>
+      </c>
+      <c r="U502" t="s">
+        <v>40</v>
+      </c>
+      <c r="V502" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W502" s="9" t="s">
+        <v>2529</v>
+      </c>
       <c r="X502">
         <v>34</v>
       </c>
@@ -92795,6 +95269,9 @@
       <c r="J503" s="12">
         <v>235789</v>
       </c>
+      <c r="R503" t="s">
+        <v>2484</v>
+      </c>
       <c r="X503">
         <v>68</v>
       </c>
@@ -92842,6 +95319,24 @@
       <c r="J504" s="12">
         <v>79730</v>
       </c>
+      <c r="K504" t="s">
+        <v>53</v>
+      </c>
+      <c r="L504" t="s">
+        <v>117</v>
+      </c>
+      <c r="S504" s="3">
+        <v>41208</v>
+      </c>
+      <c r="U504" t="s">
+        <v>40</v>
+      </c>
+      <c r="V504" t="s">
+        <v>60</v>
+      </c>
+      <c r="W504" t="s">
+        <v>34</v>
+      </c>
       <c r="X504">
         <v>29</v>
       </c>
@@ -92889,6 +95384,9 @@
       <c r="J505" s="12">
         <v>600064</v>
       </c>
+      <c r="R505" t="s">
+        <v>2484</v>
+      </c>
       <c r="X505">
         <v>58</v>
       </c>
@@ -92936,6 +95434,9 @@
       <c r="J506" s="12">
         <v>277820</v>
       </c>
+      <c r="R506" t="s">
+        <v>2484</v>
+      </c>
       <c r="X506">
         <v>63</v>
       </c>
@@ -92983,6 +95484,24 @@
       <c r="J507" s="12">
         <v>427032</v>
       </c>
+      <c r="K507" t="s">
+        <v>53</v>
+      </c>
+      <c r="L507" t="s">
+        <v>40</v>
+      </c>
+      <c r="S507" s="3">
+        <v>41570</v>
+      </c>
+      <c r="U507" t="s">
+        <v>40</v>
+      </c>
+      <c r="V507" t="s">
+        <v>42</v>
+      </c>
+      <c r="W507" t="s">
+        <v>34</v>
+      </c>
       <c r="X507">
         <v>72</v>
       </c>
@@ -93030,6 +95549,9 @@
       <c r="J508" s="12">
         <v>123491</v>
       </c>
+      <c r="R508" t="s">
+        <v>2484</v>
+      </c>
       <c r="X508">
         <v>52</v>
       </c>
@@ -93077,6 +95599,9 @@
       <c r="J509" s="12">
         <v>477526</v>
       </c>
+      <c r="R509" t="s">
+        <v>2484</v>
+      </c>
       <c r="X509">
         <v>49</v>
       </c>
@@ -93124,6 +95649,27 @@
       <c r="J510" s="12">
         <v>500834</v>
       </c>
+      <c r="K510" t="s">
+        <v>53</v>
+      </c>
+      <c r="L510" t="s">
+        <v>32</v>
+      </c>
+      <c r="S510" s="3">
+        <v>39356</v>
+      </c>
+      <c r="T510" s="3">
+        <v>39370</v>
+      </c>
+      <c r="U510" t="s">
+        <v>40</v>
+      </c>
+      <c r="V510" t="s">
+        <v>157</v>
+      </c>
+      <c r="W510" t="s">
+        <v>157</v>
+      </c>
       <c r="X510">
         <v>34</v>
       </c>
@@ -93171,6 +95717,24 @@
       <c r="J511" s="12">
         <v>523346</v>
       </c>
+      <c r="K511" t="s">
+        <v>30</v>
+      </c>
+      <c r="L511" t="s">
+        <v>32</v>
+      </c>
+      <c r="S511" s="3">
+        <v>39569</v>
+      </c>
+      <c r="U511" t="s">
+        <v>40</v>
+      </c>
+      <c r="V511" t="s">
+        <v>157</v>
+      </c>
+      <c r="W511" t="s">
+        <v>157</v>
+      </c>
       <c r="X511">
         <v>73</v>
       </c>
@@ -93218,6 +95782,24 @@
       <c r="J512" s="12">
         <v>65280</v>
       </c>
+      <c r="K512" t="s">
+        <v>53</v>
+      </c>
+      <c r="L512" t="s">
+        <v>40</v>
+      </c>
+      <c r="S512" s="3">
+        <v>42701</v>
+      </c>
+      <c r="U512" t="s">
+        <v>40</v>
+      </c>
+      <c r="V512" t="s">
+        <v>96</v>
+      </c>
+      <c r="W512" t="s">
+        <v>34</v>
+      </c>
       <c r="X512">
         <v>44</v>
       </c>
@@ -93265,6 +95847,9 @@
       <c r="J513" s="12">
         <v>650215</v>
       </c>
+      <c r="R513" t="s">
+        <v>2484</v>
+      </c>
       <c r="X513">
         <v>25</v>
       </c>
@@ -93312,6 +95897,30 @@
       <c r="J514" s="12">
         <v>485293</v>
       </c>
+      <c r="K514" t="s">
+        <v>30</v>
+      </c>
+      <c r="L514" t="s">
+        <v>2593</v>
+      </c>
+      <c r="R514" t="s">
+        <v>2596</v>
+      </c>
+      <c r="S514" s="3">
+        <v>39087</v>
+      </c>
+      <c r="T514" s="3">
+        <v>39106</v>
+      </c>
+      <c r="U514" s="7" t="s">
+        <v>2593</v>
+      </c>
+      <c r="V514" t="s">
+        <v>60</v>
+      </c>
+      <c r="W514" t="s">
+        <v>34</v>
+      </c>
       <c r="X514">
         <v>78</v>
       </c>
@@ -93359,6 +95968,24 @@
       <c r="J515" s="12">
         <v>756395</v>
       </c>
+      <c r="K515" t="s">
+        <v>53</v>
+      </c>
+      <c r="L515" t="s">
+        <v>32</v>
+      </c>
+      <c r="S515" s="3">
+        <v>41974</v>
+      </c>
+      <c r="U515" t="s">
+        <v>40</v>
+      </c>
+      <c r="V515" t="s">
+        <v>157</v>
+      </c>
+      <c r="W515" t="s">
+        <v>157</v>
+      </c>
       <c r="X515">
         <v>30</v>
       </c>
@@ -93406,6 +96033,9 @@
       <c r="J516" s="12">
         <v>563249</v>
       </c>
+      <c r="R516" t="s">
+        <v>2484</v>
+      </c>
       <c r="X516">
         <v>75</v>
       </c>
@@ -93453,6 +96083,33 @@
       <c r="J517" s="12">
         <v>595661</v>
       </c>
+      <c r="K517" t="s">
+        <v>30</v>
+      </c>
+      <c r="L517" t="s">
+        <v>164</v>
+      </c>
+      <c r="M517" t="s">
+        <v>2555</v>
+      </c>
+      <c r="R517" t="s">
+        <v>2596</v>
+      </c>
+      <c r="S517" s="3">
+        <v>40360</v>
+      </c>
+      <c r="T517" s="3">
+        <v>40387</v>
+      </c>
+      <c r="U517" t="s">
+        <v>41</v>
+      </c>
+      <c r="V517" t="s">
+        <v>157</v>
+      </c>
+      <c r="W517" t="s">
+        <v>157</v>
+      </c>
       <c r="X517">
         <v>30</v>
       </c>
@@ -93500,6 +96157,24 @@
       <c r="J518" s="12">
         <v>86428</v>
       </c>
+      <c r="K518" t="s">
+        <v>53</v>
+      </c>
+      <c r="L518" t="s">
+        <v>117</v>
+      </c>
+      <c r="S518" s="3">
+        <v>41821</v>
+      </c>
+      <c r="U518" t="s">
+        <v>40</v>
+      </c>
+      <c r="V518" t="s">
+        <v>60</v>
+      </c>
+      <c r="W518" t="s">
+        <v>34</v>
+      </c>
       <c r="X518">
         <v>42</v>
       </c>
@@ -93547,6 +96222,9 @@
       <c r="J519" s="12">
         <v>130397</v>
       </c>
+      <c r="R519" t="s">
+        <v>2484</v>
+      </c>
       <c r="X519">
         <v>45</v>
       </c>
@@ -93594,6 +96272,24 @@
       <c r="J520" s="12">
         <v>723521</v>
       </c>
+      <c r="K520" t="s">
+        <v>53</v>
+      </c>
+      <c r="L520" t="s">
+        <v>32</v>
+      </c>
+      <c r="S520" s="3">
+        <v>41730</v>
+      </c>
+      <c r="U520" t="s">
+        <v>40</v>
+      </c>
+      <c r="V520" t="s">
+        <v>157</v>
+      </c>
+      <c r="W520" t="s">
+        <v>157</v>
+      </c>
       <c r="X520">
         <v>29</v>
       </c>
@@ -93641,6 +96337,24 @@
       <c r="J521" s="12">
         <v>306125</v>
       </c>
+      <c r="K521" t="s">
+        <v>53</v>
+      </c>
+      <c r="L521" t="s">
+        <v>32</v>
+      </c>
+      <c r="S521" s="3">
+        <v>41955</v>
+      </c>
+      <c r="U521" t="s">
+        <v>40</v>
+      </c>
+      <c r="V521" t="s">
+        <v>157</v>
+      </c>
+      <c r="W521" t="s">
+        <v>157</v>
+      </c>
       <c r="X521">
         <v>58</v>
       </c>
@@ -93688,6 +96402,24 @@
       <c r="J522" s="12">
         <v>93651</v>
       </c>
+      <c r="K522" t="s">
+        <v>30</v>
+      </c>
+      <c r="L522" t="s">
+        <v>40</v>
+      </c>
+      <c r="S522" s="3">
+        <v>41061</v>
+      </c>
+      <c r="U522" t="s">
+        <v>40</v>
+      </c>
+      <c r="V522" t="s">
+        <v>60</v>
+      </c>
+      <c r="W522" t="s">
+        <v>34</v>
+      </c>
       <c r="X522">
         <v>77</v>
       </c>
@@ -93735,6 +96467,9 @@
       <c r="J523" s="12">
         <v>293138</v>
       </c>
+      <c r="R523" t="s">
+        <v>2484</v>
+      </c>
       <c r="X523">
         <v>62</v>
       </c>
@@ -93782,6 +96517,24 @@
       <c r="J524" s="12">
         <v>509136</v>
       </c>
+      <c r="K524" t="s">
+        <v>53</v>
+      </c>
+      <c r="L524" t="s">
+        <v>32</v>
+      </c>
+      <c r="S524" s="3">
+        <v>39630</v>
+      </c>
+      <c r="U524" t="s">
+        <v>40</v>
+      </c>
+      <c r="V524" t="s">
+        <v>157</v>
+      </c>
+      <c r="W524" t="s">
+        <v>157</v>
+      </c>
       <c r="X524">
         <v>27</v>
       </c>
@@ -93829,6 +96582,9 @@
       <c r="J525" s="12">
         <v>682611</v>
       </c>
+      <c r="R525" t="s">
+        <v>2484</v>
+      </c>
       <c r="X525">
         <v>69</v>
       </c>
@@ -93876,6 +96632,27 @@
       <c r="J526" s="12">
         <v>154372</v>
       </c>
+      <c r="K526" t="s">
+        <v>30</v>
+      </c>
+      <c r="L526" t="s">
+        <v>32</v>
+      </c>
+      <c r="S526" s="3">
+        <v>37561</v>
+      </c>
+      <c r="T526" s="3">
+        <v>37562</v>
+      </c>
+      <c r="U526" t="s">
+        <v>32</v>
+      </c>
+      <c r="V526" t="s">
+        <v>157</v>
+      </c>
+      <c r="W526" t="s">
+        <v>157</v>
+      </c>
       <c r="X526">
         <v>25</v>
       </c>
@@ -93923,6 +96700,30 @@
       <c r="J527" s="12">
         <v>249222</v>
       </c>
+      <c r="K527" t="s">
+        <v>30</v>
+      </c>
+      <c r="L527" t="s">
+        <v>2594</v>
+      </c>
+      <c r="R527" t="s">
+        <v>2596</v>
+      </c>
+      <c r="S527" s="3">
+        <v>40909</v>
+      </c>
+      <c r="T527" s="3">
+        <v>40917</v>
+      </c>
+      <c r="U527" t="s">
+        <v>2593</v>
+      </c>
+      <c r="V527" t="s">
+        <v>60</v>
+      </c>
+      <c r="W527" t="s">
+        <v>34</v>
+      </c>
       <c r="X527">
         <v>77</v>
       </c>
@@ -93940,7 +96741,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S1 S4:S5 S7 S9:S12 S15:S1048576">
+  <conditionalFormatting sqref="S1 S4:S5 S7 S9:S12 S514:S1048576 S15:S229 S231:S512">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>"Q:Q"</formula>
     </cfRule>
@@ -93954,30 +96755,259 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273F87BA-0AD7-46D4-8854-FB1FAD0112B3}">
+  <dimension ref="B1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="13" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="13" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2611</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2612</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D11" s="15">
+        <v>12871</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2617</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2617</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="13" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2625</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="13" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D26">
+        <v>36721</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="D27">
+        <v>455593</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="D28">
+        <v>300055956</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D30">
+        <v>741529</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="D31">
+        <v>300938</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="D32">
+        <v>300375656</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{7AB24406-6A50-426E-9C92-38D22BE6910D}"/>
+    <hyperlink ref="D19" r:id="rId2" xr:uid="{639B6319-109E-4D29-8CBC-5B97E3AC6A46}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{D5E362B5-1840-4DC8-AB51-251B88347F8D}"/>
+    <hyperlink ref="D22" r:id="rId4" xr:uid="{FC948EFD-D4BE-4D60-9005-EEC84A28C642}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7e17ebe2-ea76-4bcf-af9b-ad4b73b55788">
-      <UserInfo>
-        <DisplayName>Hefti Eva</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007C90313681D0404CA6EEE81DD4C9F0C9" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a206f6187e2cad7d4e982dfa28e7d04">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7c5cb915-ffee-4a76-a520-e563b15a0b98" xmlns:ns3="7e17ebe2-ea76-4bcf-af9b-ad4b73b55788" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f164e3b8715a45d23ef57d38676d8631" ns2:_="" ns3:_="">
     <xsd:import namespace="7c5cb915-ffee-4a76-a520-e563b15a0b98"/>
@@ -94148,16 +97178,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7e17ebe2-ea76-4bcf-af9b-ad4b73b55788">
+      <UserInfo>
+        <DisplayName>Hefti Eva</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D568A2-F3AE-4384-B390-76487FDA7C7C}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D72925E-D78A-4D5C-8862-2F8D4DFFE495}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D540F89-8CFF-4EE3-BB1C-505451778312}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D568A2-F3AE-4384-B390-76487FDA7C7C}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/raw_data/Hypophysenpatienten.xlsx
+++ b/raw_data/Hypophysenpatienten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27103"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F007C722-5E58-4DF3-BA96-42AE98AF9939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B43B7EB-3B42-487B-9586-5E4E91DBC7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20893" uniqueCount="2633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21446" uniqueCount="2717">
   <si>
     <t>%ID</t>
   </si>
@@ -7474,9 +7474,6 @@
     <t>hyperprolaktin, inaktiv</t>
   </si>
   <si>
-    <t>prolaktinom, neuroleptika-induziert deshalb kein Prolaktinom, transiente hperprolaktinämie, stressbedingte Kopfschmerzen</t>
-  </si>
-  <si>
     <t>7.8 ug/l</t>
   </si>
   <si>
@@ -7498,19 +7495,7 @@
     <t>hyperprolaktin, gonado</t>
   </si>
   <si>
-    <t>Kompression, keine</t>
-  </si>
-  <si>
-    <t>keine, LH und FSH immunohistoch. Expression, Proliferationsmarker nicht nachgewiesen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">morbus cushing, cortico, </t>
-  </si>
-  <si>
-    <t>hyperprolakin stressinduziert</t>
-  </si>
-  <si>
-    <t>kein mikroadenom</t>
+    <t>cortico</t>
   </si>
   <si>
     <t xml:space="preserve">hyperprolaktin stressbedingt, </t>
@@ -7519,13 +7504,10 @@
     <t>gondao, thyreo, cortico, SIADH</t>
   </si>
   <si>
-    <t>apoplex, DD: rathke oder kraniopharyngeom</t>
-  </si>
-  <si>
-    <t>gonado, coritco, somato, thyreo</t>
-  </si>
-  <si>
-    <t>autoimmuner Hypophysistis, DD: Kraniopharyngeom</t>
+    <t>apoplex, DD rathke oder kraniopharyngeom</t>
+  </si>
+  <si>
+    <t>Hypophysitis</t>
   </si>
   <si>
     <t>hyperprolaktin, hypogonado, hypothyreo</t>
@@ -7549,7 +7531,7 @@
     <t>kein Adenom, Rathke Zyste</t>
   </si>
   <si>
-    <t>inaktiv, somatotrop</t>
+    <t>somatotrop</t>
   </si>
   <si>
     <t>whrsch. kein Adenom</t>
@@ -7573,9 +7555,6 @@
     <t>thyreo, cortico</t>
   </si>
   <si>
-    <t>inakiv</t>
-  </si>
-  <si>
     <t>inaktiv, rathke</t>
   </si>
   <si>
@@ -7594,9 +7573,291 @@
     <t>inaktiv, supprimiert</t>
   </si>
   <si>
+    <t>normalbefund</t>
+  </si>
+  <si>
     <t>prolaktin, gonado</t>
   </si>
   <si>
+    <t>Hyperprolaktin</t>
+  </si>
+  <si>
+    <t>DD Hypophysenhyperplasie</t>
+  </si>
+  <si>
+    <t>DD PIF-Mangel</t>
+  </si>
+  <si>
+    <t>inaktiv, gonado</t>
+  </si>
+  <si>
+    <t>transiendes SIADH</t>
+  </si>
+  <si>
+    <t>transient cortico, inaktiv</t>
+  </si>
+  <si>
+    <t>inaktiv, apoplektiform</t>
+  </si>
+  <si>
+    <t>DD Rathke, Artefakte, Signalalteration</t>
+  </si>
+  <si>
+    <t>DD Rathke</t>
+  </si>
+  <si>
+    <t>somato, prolaktin</t>
+  </si>
+  <si>
+    <t>Mikro-/Akromegalie</t>
+  </si>
+  <si>
+    <t>Akromegalie, gh</t>
+  </si>
+  <si>
+    <t>rathke, inaktiv</t>
+  </si>
+  <si>
+    <t>hyperprolakin, gonado, somato, thyreo, cortico</t>
+  </si>
+  <si>
+    <t>verstorben</t>
+  </si>
+  <si>
+    <t>cortico, thyreo, somato, hyperprolaktin</t>
+  </si>
+  <si>
+    <t>hyperprolaktin, thyreo</t>
+  </si>
+  <si>
+    <t>DD PIF</t>
+  </si>
+  <si>
+    <t>inaktiv, cortico</t>
+  </si>
+  <si>
+    <t>kein Adenom, DD Mikroadenom, Artefakt</t>
+  </si>
+  <si>
+    <t>keine, stressbedinge hyperprolakin</t>
+  </si>
+  <si>
+    <t>inaktiv, prozess, kein adenom</t>
+  </si>
+  <si>
+    <t>thyreo, gonado, hyperprolaktin</t>
+  </si>
+  <si>
+    <t>keine, subst. hypogonado</t>
+  </si>
+  <si>
+    <t>kein Adenom DD Rathke, Kolloidzyste</t>
+  </si>
+  <si>
+    <t>Labor normal</t>
+  </si>
+  <si>
+    <t>Zyste</t>
+  </si>
+  <si>
+    <t>Meningiom</t>
+  </si>
+  <si>
+    <t>DD Zyste</t>
+  </si>
+  <si>
+    <t>gondao, somato, hyperprolaktin</t>
+  </si>
+  <si>
+    <t>somato, gonado, SIADH</t>
+  </si>
+  <si>
+    <t>verstorben, Kraniopharyngeom</t>
+  </si>
+  <si>
+    <t>DD Rathkezyste</t>
+  </si>
+  <si>
+    <t>gonado, thyreo, hyperprolkatin</t>
+  </si>
+  <si>
+    <t>inaktiv, apopletisch</t>
+  </si>
+  <si>
+    <t>DD Zyste, kein Adenom</t>
+  </si>
+  <si>
+    <t>keine, Cabergolin</t>
+  </si>
+  <si>
+    <t>kein Adenom, Artefakte</t>
+  </si>
+  <si>
+    <t>transiente cortico</t>
+  </si>
+  <si>
+    <t>Hyperprolakin, gonado, thyreo, cortico, somato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corico, thyreo, </t>
+  </si>
+  <si>
+    <t>gonado, cortico, thyreo, hyperprolaktin</t>
+  </si>
+  <si>
+    <t>cortico, thyreo, gonado, somato</t>
+  </si>
+  <si>
+    <t>thyreo, gonado, cortico</t>
+  </si>
+  <si>
+    <t>zystisch</t>
+  </si>
+  <si>
+    <t>somato, cortico, gonado, thyreo</t>
+  </si>
+  <si>
+    <t>non-prolaktin</t>
+  </si>
+  <si>
+    <t>DD Prolaktinom</t>
+  </si>
+  <si>
+    <t>cortico, somato, gonado, hyperprolaktin</t>
+  </si>
+  <si>
+    <t>somato, gonado, hyperprolaktin</t>
+  </si>
+  <si>
+    <t>somato, gonado, thyreo, cortico</t>
+  </si>
+  <si>
+    <t>Akromegalie</t>
+  </si>
+  <si>
+    <t>cortico, gonado, thyreo, somato</t>
+  </si>
+  <si>
+    <t>DD selläre Raumforderung unklarer Genese</t>
+  </si>
+  <si>
+    <t>verstorben; kein Adenom</t>
+  </si>
+  <si>
+    <t>Hyperprolaktin, thyreo, gonado</t>
+  </si>
+  <si>
+    <t>Vd.a. Adenom, DD SIADH</t>
+  </si>
+  <si>
+    <t>thyreo, cortico, gonado, somato</t>
+  </si>
+  <si>
+    <t>Tumorapoplex, inaktiv</t>
+  </si>
+  <si>
+    <t>Akromegalie, somato</t>
+  </si>
+  <si>
+    <t>verstorben, Meningioma</t>
+  </si>
+  <si>
+    <t>Meningioma</t>
+  </si>
+  <si>
+    <t>thyreo, gonado</t>
+  </si>
+  <si>
+    <t>Hypophyseninfarkt</t>
+  </si>
+  <si>
+    <t>cortico, gonado, thyreo, hyperprolaktin</t>
+  </si>
+  <si>
+    <t>Hyperprolaktinom</t>
+  </si>
+  <si>
+    <t>gonado, cortico, thyreo</t>
+  </si>
+  <si>
+    <t>apoplektiformes prolaktinom</t>
+  </si>
+  <si>
+    <t>Arachnoidalzyste</t>
+  </si>
+  <si>
+    <t>gonado, LH und FSH sezernierndes Adenom</t>
+  </si>
+  <si>
+    <t>DD Kraniopharyngeom, Chordrom, Karzinom, Metastase</t>
+  </si>
+  <si>
+    <t>gonado, somato, cortico, tyreo</t>
+  </si>
+  <si>
+    <t>Vd.a. lymphozytäre Hypophysitis</t>
+  </si>
+  <si>
+    <t>intra, para und suprasellärer Ausdehnung</t>
+  </si>
+  <si>
+    <t>autoimmun polyglanduläres Syndrom mit Hypophysitis</t>
+  </si>
+  <si>
+    <t>DD Dermoidzyste, DD Aneurysma</t>
+  </si>
+  <si>
+    <t>intra und supraselläre Raumforderung</t>
+  </si>
+  <si>
+    <t>hyperprolaktin, gonato, somato</t>
+  </si>
+  <si>
+    <t>teils inaktiv, intra und supraselläres zystisches prolaktinom</t>
+  </si>
+  <si>
+    <t>gonato, somato, cortico,thyreo</t>
+  </si>
+  <si>
+    <t>substituiert alle Achsen</t>
+  </si>
+  <si>
+    <t>hormonelle Defizite auf diversen Achsen</t>
+  </si>
+  <si>
+    <t>infra und suprasellär, inaktiv</t>
+  </si>
+  <si>
+    <t>Dysgenesie der Hypophyse</t>
+  </si>
+  <si>
+    <t>somato, cortico, thyreo, gonado</t>
+  </si>
+  <si>
+    <t>intrasellär</t>
+  </si>
+  <si>
+    <t>verstorben, Rathkezyste</t>
+  </si>
+  <si>
+    <t>kein Adenom, aber hyperprolaktin</t>
+  </si>
+  <si>
+    <t>Kolloidzyste</t>
+  </si>
+  <si>
+    <t>inaktiv, intra und suprasellär</t>
+  </si>
+  <si>
+    <t>verstorben, Hyophysitis</t>
+  </si>
+  <si>
+    <t>Hypophysitis, Hypophysenapoplex</t>
+  </si>
+  <si>
+    <t>inaktiv (cortico)</t>
+  </si>
+  <si>
     <t>269ug/l</t>
   </si>
   <si>
@@ -7627,9 +7888,6 @@
     <t>52.8ug/l</t>
   </si>
   <si>
-    <t>normalbefund</t>
-  </si>
-  <si>
     <t>80ug/l</t>
   </si>
   <si>
@@ -7744,9 +8002,6 @@
     <t>extern Lareida, Prolaktin funktionell interpretiert</t>
   </si>
   <si>
-    <t>thyreo, gonado</t>
-  </si>
-  <si>
     <t>thyreo, gonado, somato</t>
   </si>
   <si>
@@ -7820,9 +8075,6 @@
   </si>
   <si>
     <t>gonado, cortico, thyreo, somato</t>
-  </si>
-  <si>
-    <t>gonado, cortico, thyreo</t>
   </si>
   <si>
     <t>extern, kein Labor mehr (Endokrinologe in Pension)</t>
@@ -7946,7 +8198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7992,31 +8244,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE95CFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -8058,7 +8299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8071,22 +8312,30 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -65928,7 +66177,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -65939,8 +66188,8 @@
   <dimension ref="A1:AB527"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="I232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M258" sqref="M258"/>
+      <pane ySplit="1" topLeftCell="L214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T230" sqref="T229:T230"/>
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -65948,7 +66197,7 @@
   <cols>
     <col min="1" max="10" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="23.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="9.28515625" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -71703,7 +71952,7 @@
       <c r="O91">
         <v>329</v>
       </c>
-      <c r="P91" s="10">
+      <c r="P91" s="13">
         <v>10.1</v>
       </c>
       <c r="Q91" t="s">
@@ -74464,7 +74713,7 @@
       <c r="S135" s="3">
         <v>37987</v>
       </c>
-      <c r="T135" s="8">
+      <c r="T135" s="14">
         <v>38018</v>
       </c>
       <c r="U135" t="s">
@@ -76759,14 +77008,14 @@
       <c r="K171" t="s">
         <v>30</v>
       </c>
-      <c r="L171" s="9" t="s">
+      <c r="L171" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="M171" s="9"/>
-      <c r="N171" s="9"/>
-      <c r="O171" s="9"/>
-      <c r="P171" s="9"/>
-      <c r="Q171" s="9"/>
+      <c r="M171" s="8"/>
+      <c r="N171" s="8"/>
+      <c r="O171" s="8"/>
+      <c r="P171" s="8"/>
+      <c r="Q171" s="8"/>
       <c r="S171" s="3">
         <v>39539</v>
       </c>
@@ -78356,7 +78605,7 @@
       <c r="S196" s="3">
         <v>43948</v>
       </c>
-      <c r="U196" s="9" t="s">
+      <c r="U196" s="8" t="s">
         <v>40</v>
       </c>
       <c r="V196" t="s">
@@ -78938,7 +79187,7 @@
       <c r="I205" t="s">
         <v>29</v>
       </c>
-      <c r="J205" s="11">
+      <c r="J205">
         <v>114020</v>
       </c>
       <c r="K205" t="s">
@@ -78953,8 +79202,8 @@
       <c r="U205" t="s">
         <v>40</v>
       </c>
-      <c r="V205" s="11" t="s">
-        <v>2478</v>
+      <c r="V205" t="s">
+        <v>157</v>
       </c>
       <c r="W205" t="s">
         <v>34</v>
@@ -79081,19 +79330,19 @@
         <v>40</v>
       </c>
       <c r="M207" t="s">
+        <v>2478</v>
+      </c>
+      <c r="N207" t="s">
         <v>2479</v>
       </c>
-      <c r="N207" t="s">
+      <c r="O207" t="s">
         <v>2480</v>
       </c>
-      <c r="O207" t="s">
+      <c r="P207" t="s">
         <v>2481</v>
       </c>
-      <c r="P207" t="s">
+      <c r="R207" t="s">
         <v>2482</v>
-      </c>
-      <c r="R207" t="s">
-        <v>2483</v>
       </c>
       <c r="S207" s="3">
         <v>44266</v>
@@ -79155,7 +79404,7 @@
         <v>456547</v>
       </c>
       <c r="R208" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X208">
         <v>15</v>
@@ -79276,7 +79525,7 @@
         <v>53</v>
       </c>
       <c r="L210" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="S210" s="3">
         <v>43738</v>
@@ -79403,7 +79652,7 @@
         <v>206550</v>
       </c>
       <c r="R212" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X212">
         <v>41</v>
@@ -79453,7 +79702,7 @@
         <v>722351</v>
       </c>
       <c r="R213" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X213">
         <v>21</v>
@@ -79499,14 +79748,14 @@
       <c r="I214" t="s">
         <v>29</v>
       </c>
-      <c r="J214" s="11">
+      <c r="J214">
         <v>574918</v>
       </c>
       <c r="K214" t="s">
         <v>30</v>
       </c>
       <c r="L214" t="s">
-        <v>2486</v>
+        <v>40</v>
       </c>
       <c r="S214" s="3">
         <v>40228</v>
@@ -79515,7 +79764,7 @@
         <v>40613</v>
       </c>
       <c r="U214" t="s">
-        <v>2487</v>
+        <v>40</v>
       </c>
       <c r="V214" t="s">
         <v>33</v>
@@ -79574,7 +79823,7 @@
         <v>53</v>
       </c>
       <c r="L215" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="S215" s="3">
         <v>40929</v>
@@ -79586,7 +79835,7 @@
         <v>40</v>
       </c>
       <c r="V215" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="W215" t="s">
         <v>34</v>
@@ -79635,14 +79884,11 @@
       <c r="I216" t="s">
         <v>29</v>
       </c>
-      <c r="J216" s="11">
+      <c r="J216">
         <v>300151985</v>
       </c>
-      <c r="L216" t="s">
-        <v>2489</v>
-      </c>
       <c r="R216" t="s">
-        <v>2490</v>
+        <v>2483</v>
       </c>
       <c r="S216" s="3">
         <v>44405</v>
@@ -79698,7 +79944,7 @@
         <v>53</v>
       </c>
       <c r="L217" t="s">
-        <v>2491</v>
+        <v>2486</v>
       </c>
       <c r="S217" s="3">
         <v>43292</v>
@@ -79763,7 +80009,7 @@
         <v>30</v>
       </c>
       <c r="L218" t="s">
-        <v>2492</v>
+        <v>2487</v>
       </c>
       <c r="S218" s="3">
         <v>43870</v>
@@ -79824,14 +80070,17 @@
       <c r="I219" t="s">
         <v>29</v>
       </c>
-      <c r="J219" s="11">
+      <c r="J219">
         <v>300139324</v>
       </c>
       <c r="K219" t="s">
         <v>30</v>
       </c>
       <c r="L219" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="R219" s="7" t="s">
+        <v>2488</v>
       </c>
       <c r="S219" s="3">
         <v>43595</v>
@@ -79843,7 +80092,7 @@
         <v>40</v>
       </c>
       <c r="V219" t="s">
-        <v>2493</v>
+        <v>96</v>
       </c>
       <c r="W219" t="s">
         <v>34</v>
@@ -79896,7 +80145,7 @@
         <v>513383</v>
       </c>
       <c r="R220" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X220">
         <v>59</v>
@@ -79942,30 +80191,14 @@
       <c r="I221" t="s">
         <v>29</v>
       </c>
-      <c r="J221" s="11">
+      <c r="J221">
         <v>300197926</v>
       </c>
-      <c r="K221" t="s">
-        <v>30</v>
-      </c>
-      <c r="L221" t="s">
-        <v>2494</v>
-      </c>
-      <c r="S221" s="3">
-        <v>42767</v>
-      </c>
-      <c r="T221" s="3">
-        <v>43066</v>
-      </c>
-      <c r="U221" t="s">
-        <v>2442</v>
-      </c>
-      <c r="V221" t="s">
-        <v>2495</v>
-      </c>
-      <c r="W221" t="s">
-        <v>34</v>
-      </c>
+      <c r="R221" t="s">
+        <v>2489</v>
+      </c>
+      <c r="S221" s="3"/>
+      <c r="T221" s="3"/>
       <c r="X221">
         <v>29</v>
       </c>
@@ -80017,7 +80250,7 @@
         <v>30</v>
       </c>
       <c r="L222" t="s">
-        <v>2496</v>
+        <v>2490</v>
       </c>
       <c r="S222" s="3">
         <v>43922</v>
@@ -80076,7 +80309,7 @@
         <v>300043953</v>
       </c>
       <c r="R223" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X223">
         <v>18</v>
@@ -80129,7 +80362,7 @@
         <v>30</v>
       </c>
       <c r="L224" t="s">
-        <v>2497</v>
+        <v>2491</v>
       </c>
       <c r="S224" s="3">
         <v>41638</v>
@@ -80138,7 +80371,7 @@
         <v>43339</v>
       </c>
       <c r="U224" t="s">
-        <v>2498</v>
+        <v>2492</v>
       </c>
       <c r="V224" t="s">
         <v>60</v>
@@ -80194,10 +80427,10 @@
         <v>743011</v>
       </c>
       <c r="K225" t="s">
-        <v>2499</v>
+        <v>2493</v>
       </c>
       <c r="L225" t="s">
-        <v>2500</v>
+        <v>2494</v>
       </c>
       <c r="S225" s="3">
         <v>41924</v>
@@ -80209,7 +80442,7 @@
         <v>40</v>
       </c>
       <c r="V225" t="s">
-        <v>2501</v>
+        <v>2495</v>
       </c>
       <c r="W225" t="s">
         <v>34</v>
@@ -80262,7 +80495,7 @@
         <v>300191364</v>
       </c>
       <c r="R226" t="s">
-        <v>2502</v>
+        <v>2496</v>
       </c>
       <c r="X226">
         <v>28</v>
@@ -80315,7 +80548,7 @@
         <v>30</v>
       </c>
       <c r="L227" t="s">
-        <v>2503</v>
+        <v>2497</v>
       </c>
       <c r="S227" s="3">
         <v>41393</v>
@@ -80380,7 +80613,7 @@
         <v>300090571</v>
       </c>
       <c r="R228" t="s">
-        <v>2504</v>
+        <v>2498</v>
       </c>
       <c r="X228">
         <v>25</v>
@@ -80430,10 +80663,10 @@
         <v>743647</v>
       </c>
       <c r="L229" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="R229" t="s">
-        <v>2505</v>
+        <v>2499</v>
       </c>
       <c r="S229" s="3">
         <v>43941</v>
@@ -80491,8 +80724,8 @@
       <c r="J230">
         <v>733215</v>
       </c>
-      <c r="R230" s="17" t="s">
-        <v>2506</v>
+      <c r="R230" t="s">
+        <v>2500</v>
       </c>
       <c r="X230">
         <v>6</v>
@@ -80551,7 +80784,7 @@
         <v>43951</v>
       </c>
       <c r="V231" t="s">
-        <v>2507</v>
+        <v>2501</v>
       </c>
       <c r="W231" t="s">
         <v>157</v>
@@ -80607,7 +80840,7 @@
         <v>30</v>
       </c>
       <c r="L232" t="s">
-        <v>2508</v>
+        <v>2502</v>
       </c>
       <c r="S232" s="3">
         <v>42591</v>
@@ -80675,7 +80908,7 @@
         <v>53</v>
       </c>
       <c r="R233" t="s">
-        <v>2509</v>
+        <v>2503</v>
       </c>
       <c r="S233" s="3">
         <v>44296</v>
@@ -80731,7 +80964,7 @@
         <v>30</v>
       </c>
       <c r="L234" t="s">
-        <v>2510</v>
+        <v>2504</v>
       </c>
       <c r="S234" s="3">
         <v>40631</v>
@@ -80796,7 +81029,7 @@
         <v>220057</v>
       </c>
       <c r="R235" t="s">
-        <v>2505</v>
+        <v>2499</v>
       </c>
       <c r="S235" s="3">
         <v>44292</v>
@@ -80855,10 +81088,10 @@
         <v>770245</v>
       </c>
       <c r="L236" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="R236" t="s">
-        <v>2505</v>
+        <v>2499</v>
       </c>
       <c r="S236" s="3">
         <v>43361</v>
@@ -80923,7 +81156,7 @@
         <v>53</v>
       </c>
       <c r="L237" t="s">
-        <v>2511</v>
+        <v>40</v>
       </c>
       <c r="S237" s="3">
         <v>44282</v>
@@ -80985,7 +81218,7 @@
         <v>53</v>
       </c>
       <c r="L238" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S238" s="3">
         <v>40544</v>
@@ -81047,7 +81280,7 @@
         <v>53</v>
       </c>
       <c r="L239" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S239" s="3">
         <v>42478</v>
@@ -81106,16 +81339,16 @@
         <v>20164</v>
       </c>
       <c r="L240" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="R240" t="s">
-        <v>2505</v>
+        <v>2499</v>
       </c>
       <c r="S240" s="3">
         <v>43237</v>
       </c>
       <c r="V240" t="s">
-        <v>2512</v>
+        <v>2505</v>
       </c>
       <c r="W240" t="s">
         <v>34</v>
@@ -81171,7 +81404,7 @@
         <v>53</v>
       </c>
       <c r="L241" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S241" s="3">
         <v>43277</v>
@@ -81233,7 +81466,7 @@
         <v>30</v>
       </c>
       <c r="L242" t="s">
-        <v>2513</v>
+        <v>2506</v>
       </c>
       <c r="S242" s="3">
         <v>40848</v>
@@ -81295,10 +81528,10 @@
         <v>53</v>
       </c>
       <c r="L243" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="R243" t="s">
-        <v>2514</v>
+        <v>2507</v>
       </c>
       <c r="S243" s="3">
         <v>43864</v>
@@ -81357,7 +81590,7 @@
         <v>590059</v>
       </c>
       <c r="R244" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X244">
         <v>30</v>
@@ -81407,7 +81640,7 @@
         <v>300176139</v>
       </c>
       <c r="R245" t="s">
-        <v>2515</v>
+        <v>2508</v>
       </c>
       <c r="X245">
         <v>29</v>
@@ -81457,7 +81690,7 @@
         <v>300184337</v>
       </c>
       <c r="R246" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="S246" s="3">
         <v>44250</v>
@@ -81513,13 +81746,13 @@
         <v>30</v>
       </c>
       <c r="L247" t="s">
-        <v>2516</v>
+        <v>2509</v>
       </c>
       <c r="S247" s="3">
         <v>44246</v>
       </c>
       <c r="V247" t="s">
-        <v>2517</v>
+        <v>2510</v>
       </c>
       <c r="W247" t="s">
         <v>157</v>
@@ -81568,14 +81801,17 @@
       <c r="I248" t="s">
         <v>29</v>
       </c>
-      <c r="J248" s="11">
+      <c r="J248">
         <v>631002</v>
       </c>
       <c r="K248" t="s">
-        <v>53</v>
+        <v>2465</v>
       </c>
       <c r="S248" s="3">
         <v>44239</v>
+      </c>
+      <c r="W248" t="s">
+        <v>2511</v>
       </c>
       <c r="X248">
         <v>34</v>
@@ -81628,13 +81864,13 @@
         <v>30</v>
       </c>
       <c r="L249" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="S249" s="3">
         <v>41689</v>
       </c>
       <c r="V249" t="s">
-        <v>2517</v>
+        <v>2510</v>
       </c>
       <c r="W249" t="s">
         <v>157</v>
@@ -81683,8 +81919,11 @@
       <c r="I250" t="s">
         <v>29</v>
       </c>
-      <c r="J250" s="12">
+      <c r="J250">
         <v>31186</v>
+      </c>
+      <c r="R250" t="s">
+        <v>2483</v>
       </c>
       <c r="X250">
         <v>53</v>
@@ -81730,8 +81969,29 @@
       <c r="I251" t="s">
         <v>29</v>
       </c>
-      <c r="J251" s="12">
+      <c r="J251">
         <v>383104</v>
+      </c>
+      <c r="K251" t="s">
+        <v>30</v>
+      </c>
+      <c r="L251" t="s">
+        <v>123</v>
+      </c>
+      <c r="S251" s="3">
+        <v>37622</v>
+      </c>
+      <c r="T251" s="3">
+        <v>37851</v>
+      </c>
+      <c r="U251" t="s">
+        <v>123</v>
+      </c>
+      <c r="V251" t="s">
+        <v>157</v>
+      </c>
+      <c r="W251" t="s">
+        <v>157</v>
       </c>
       <c r="X251">
         <v>44</v>
@@ -81777,8 +82037,29 @@
       <c r="I252" t="s">
         <v>29</v>
       </c>
-      <c r="J252" s="12">
+      <c r="J252">
         <v>40048</v>
+      </c>
+      <c r="K252" t="s">
+        <v>53</v>
+      </c>
+      <c r="L252" t="s">
+        <v>2513</v>
+      </c>
+      <c r="S252" s="3">
+        <v>36161</v>
+      </c>
+      <c r="T252" s="3">
+        <v>36312</v>
+      </c>
+      <c r="U252" t="s">
+        <v>40</v>
+      </c>
+      <c r="V252" t="s">
+        <v>60</v>
+      </c>
+      <c r="W252" t="s">
+        <v>157</v>
       </c>
       <c r="X252">
         <v>60</v>
@@ -81824,8 +82105,23 @@
       <c r="I253" t="s">
         <v>29</v>
       </c>
-      <c r="J253" s="12">
+      <c r="J253">
         <v>300166096</v>
+      </c>
+      <c r="K253" t="s">
+        <v>53</v>
+      </c>
+      <c r="L253" t="s">
+        <v>40</v>
+      </c>
+      <c r="S253" s="3">
+        <v>43829</v>
+      </c>
+      <c r="V253" t="s">
+        <v>60</v>
+      </c>
+      <c r="W253" t="s">
+        <v>34</v>
       </c>
       <c r="X253">
         <v>36</v>
@@ -81871,8 +82167,32 @@
       <c r="I254" t="s">
         <v>29</v>
       </c>
-      <c r="J254" s="12">
+      <c r="J254">
         <v>300121872</v>
+      </c>
+      <c r="K254" t="s">
+        <v>30</v>
+      </c>
+      <c r="L254" t="s">
+        <v>40</v>
+      </c>
+      <c r="R254" t="s">
+        <v>2514</v>
+      </c>
+      <c r="S254" s="3">
+        <v>43348</v>
+      </c>
+      <c r="T254" s="3">
+        <v>43740</v>
+      </c>
+      <c r="U254" t="s">
+        <v>40</v>
+      </c>
+      <c r="V254" t="s">
+        <v>60</v>
+      </c>
+      <c r="W254" t="s">
+        <v>34</v>
       </c>
       <c r="X254">
         <v>22</v>
@@ -81918,8 +82238,32 @@
       <c r="I255" t="s">
         <v>29</v>
       </c>
-      <c r="J255" s="12">
+      <c r="J255">
         <v>300152679</v>
+      </c>
+      <c r="K255" t="s">
+        <v>30</v>
+      </c>
+      <c r="L255" t="s">
+        <v>2513</v>
+      </c>
+      <c r="R255" t="s">
+        <v>2515</v>
+      </c>
+      <c r="S255" s="3">
+        <v>43572</v>
+      </c>
+      <c r="T255" s="3">
+        <v>43754</v>
+      </c>
+      <c r="U255" t="s">
+        <v>40</v>
+      </c>
+      <c r="V255" t="s">
+        <v>2516</v>
+      </c>
+      <c r="W255" t="s">
+        <v>34</v>
       </c>
       <c r="X255">
         <v>59</v>
@@ -81965,8 +82309,29 @@
       <c r="I256" t="s">
         <v>29</v>
       </c>
-      <c r="J256" s="12">
+      <c r="J256">
         <v>153807</v>
+      </c>
+      <c r="K256" t="s">
+        <v>30</v>
+      </c>
+      <c r="L256" t="s">
+        <v>40</v>
+      </c>
+      <c r="S256" s="3">
+        <v>38869</v>
+      </c>
+      <c r="T256" s="3">
+        <v>39069</v>
+      </c>
+      <c r="U256" t="s">
+        <v>2517</v>
+      </c>
+      <c r="V256" t="s">
+        <v>2516</v>
+      </c>
+      <c r="W256" t="s">
+        <v>34</v>
       </c>
       <c r="X256">
         <v>74</v>
@@ -82012,8 +82377,29 @@
       <c r="I257" t="s">
         <v>29</v>
       </c>
-      <c r="J257" s="12">
+      <c r="J257">
         <v>300086350</v>
+      </c>
+      <c r="K257" t="s">
+        <v>30</v>
+      </c>
+      <c r="L257" t="s">
+        <v>2485</v>
+      </c>
+      <c r="S257" s="3">
+        <v>43054</v>
+      </c>
+      <c r="T257" s="3">
+        <v>43061</v>
+      </c>
+      <c r="U257" t="s">
+        <v>2518</v>
+      </c>
+      <c r="V257" t="s">
+        <v>2519</v>
+      </c>
+      <c r="W257" t="s">
+        <v>34</v>
       </c>
       <c r="X257">
         <v>53</v>
@@ -82059,8 +82445,23 @@
       <c r="I258" t="s">
         <v>29</v>
       </c>
-      <c r="J258" s="12">
+      <c r="J258">
         <v>300145402</v>
+      </c>
+      <c r="K258" t="s">
+        <v>53</v>
+      </c>
+      <c r="L258" t="s">
+        <v>40</v>
+      </c>
+      <c r="S258" s="3">
+        <v>43851</v>
+      </c>
+      <c r="V258" t="s">
+        <v>60</v>
+      </c>
+      <c r="W258" t="s">
+        <v>34</v>
       </c>
       <c r="X258">
         <v>65</v>
@@ -82106,8 +82507,26 @@
       <c r="I259" t="s">
         <v>29</v>
       </c>
-      <c r="J259" s="12">
+      <c r="J259">
         <v>101120</v>
+      </c>
+      <c r="K259" t="s">
+        <v>53</v>
+      </c>
+      <c r="L259" t="s">
+        <v>40</v>
+      </c>
+      <c r="R259" t="s">
+        <v>2520</v>
+      </c>
+      <c r="S259" s="3">
+        <v>43773</v>
+      </c>
+      <c r="V259" t="s">
+        <v>60</v>
+      </c>
+      <c r="W259" t="s">
+        <v>34</v>
       </c>
       <c r="X259">
         <v>26</v>
@@ -82153,8 +82572,26 @@
       <c r="I260" t="s">
         <v>29</v>
       </c>
-      <c r="J260" s="12">
+      <c r="J260">
         <v>420441</v>
+      </c>
+      <c r="K260" t="s">
+        <v>53</v>
+      </c>
+      <c r="L260" t="s">
+        <v>40</v>
+      </c>
+      <c r="R260" t="s">
+        <v>2521</v>
+      </c>
+      <c r="S260" s="3">
+        <v>41829</v>
+      </c>
+      <c r="V260" t="s">
+        <v>60</v>
+      </c>
+      <c r="W260" t="s">
+        <v>34</v>
       </c>
       <c r="X260">
         <v>49</v>
@@ -82200,8 +82637,29 @@
       <c r="I261" t="s">
         <v>29</v>
       </c>
-      <c r="J261" s="12">
+      <c r="J261">
         <v>300208856</v>
+      </c>
+      <c r="K261" t="s">
+        <v>53</v>
+      </c>
+      <c r="L261" t="s">
+        <v>2522</v>
+      </c>
+      <c r="S261" s="3">
+        <v>43878</v>
+      </c>
+      <c r="T261" s="3">
+        <v>44088</v>
+      </c>
+      <c r="U261" t="s">
+        <v>40</v>
+      </c>
+      <c r="V261" t="s">
+        <v>2523</v>
+      </c>
+      <c r="W261" t="s">
+        <v>34</v>
       </c>
       <c r="X261">
         <v>57</v>
@@ -82247,8 +82705,29 @@
       <c r="I262" t="s">
         <v>29</v>
       </c>
-      <c r="J262" s="12">
+      <c r="J262">
         <v>679219</v>
+      </c>
+      <c r="K262" t="s">
+        <v>30</v>
+      </c>
+      <c r="L262" t="s">
+        <v>2506</v>
+      </c>
+      <c r="S262" s="3">
+        <v>44004</v>
+      </c>
+      <c r="T262" s="3">
+        <v>44074</v>
+      </c>
+      <c r="U262" t="s">
+        <v>32</v>
+      </c>
+      <c r="V262" t="s">
+        <v>2524</v>
+      </c>
+      <c r="W262" t="s">
+        <v>34</v>
       </c>
       <c r="X262">
         <v>54</v>
@@ -82294,8 +82773,23 @@
       <c r="I263" t="s">
         <v>29</v>
       </c>
-      <c r="J263" s="12">
+      <c r="J263">
         <v>300042597</v>
+      </c>
+      <c r="L263" t="s">
+        <v>40</v>
+      </c>
+      <c r="R263" t="s">
+        <v>2499</v>
+      </c>
+      <c r="S263" s="3">
+        <v>43054</v>
+      </c>
+      <c r="V263" t="s">
+        <v>2525</v>
+      </c>
+      <c r="W263" t="s">
+        <v>34</v>
       </c>
       <c r="X263">
         <v>34</v>
@@ -82341,8 +82835,32 @@
       <c r="I264" t="s">
         <v>29</v>
       </c>
-      <c r="J264" s="12">
+      <c r="J264">
         <v>252732</v>
+      </c>
+      <c r="K264" t="s">
+        <v>2493</v>
+      </c>
+      <c r="L264" t="s">
+        <v>2526</v>
+      </c>
+      <c r="R264" t="s">
+        <v>2527</v>
+      </c>
+      <c r="S264" s="3">
+        <v>40806</v>
+      </c>
+      <c r="T264" s="3">
+        <v>40819</v>
+      </c>
+      <c r="U264" t="s">
+        <v>2528</v>
+      </c>
+      <c r="V264" t="s">
+        <v>2516</v>
+      </c>
+      <c r="W264" t="s">
+        <v>34</v>
       </c>
       <c r="X264">
         <v>56</v>
@@ -82388,8 +82906,26 @@
       <c r="I265" t="s">
         <v>29</v>
       </c>
-      <c r="J265" s="12">
+      <c r="J265">
         <v>239729</v>
+      </c>
+      <c r="K265" t="s">
+        <v>53</v>
+      </c>
+      <c r="L265" t="s">
+        <v>2529</v>
+      </c>
+      <c r="R265" t="s">
+        <v>2530</v>
+      </c>
+      <c r="S265" s="3">
+        <v>44160</v>
+      </c>
+      <c r="V265" t="s">
+        <v>123</v>
+      </c>
+      <c r="W265" t="s">
+        <v>157</v>
       </c>
       <c r="X265">
         <v>47</v>
@@ -82435,8 +82971,23 @@
       <c r="I266" t="s">
         <v>29</v>
       </c>
-      <c r="J266" s="12">
+      <c r="J266">
         <v>300085437</v>
+      </c>
+      <c r="K266" t="s">
+        <v>53</v>
+      </c>
+      <c r="L266" t="s">
+        <v>2484</v>
+      </c>
+      <c r="S266" s="3">
+        <v>43053</v>
+      </c>
+      <c r="V266" t="s">
+        <v>2510</v>
+      </c>
+      <c r="W266" t="s">
+        <v>157</v>
       </c>
       <c r="X266">
         <v>55</v>
@@ -82482,8 +83033,26 @@
       <c r="I267" t="s">
         <v>29</v>
       </c>
-      <c r="J267" s="12">
+      <c r="J267">
         <v>39621</v>
+      </c>
+      <c r="K267" t="s">
+        <v>30</v>
+      </c>
+      <c r="L267" t="s">
+        <v>40</v>
+      </c>
+      <c r="S267" s="3">
+        <v>39111</v>
+      </c>
+      <c r="T267" s="3">
+        <v>39195</v>
+      </c>
+      <c r="V267" t="s">
+        <v>2531</v>
+      </c>
+      <c r="W267" t="s">
+        <v>34</v>
       </c>
       <c r="X267">
         <v>68</v>
@@ -82529,8 +83098,14 @@
       <c r="I268" t="s">
         <v>29</v>
       </c>
-      <c r="J268" s="12">
+      <c r="J268">
         <v>300120490</v>
+      </c>
+      <c r="K268" t="s">
+        <v>53</v>
+      </c>
+      <c r="R268" t="s">
+        <v>2532</v>
       </c>
       <c r="X268">
         <v>28</v>
@@ -82576,8 +83151,26 @@
       <c r="I269" t="s">
         <v>29</v>
       </c>
-      <c r="J269" s="12">
+      <c r="J269">
         <v>27510</v>
+      </c>
+      <c r="K269" t="s">
+        <v>53</v>
+      </c>
+      <c r="L269" t="s">
+        <v>2533</v>
+      </c>
+      <c r="R269" t="s">
+        <v>64</v>
+      </c>
+      <c r="S269" s="3">
+        <v>44102</v>
+      </c>
+      <c r="V269" t="s">
+        <v>2534</v>
+      </c>
+      <c r="W269" t="s">
+        <v>34</v>
       </c>
       <c r="X269">
         <v>27</v>
@@ -82623,8 +83216,29 @@
       <c r="I270" t="s">
         <v>29</v>
       </c>
-      <c r="J270" s="12">
+      <c r="J270">
         <v>586746</v>
+      </c>
+      <c r="K270" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L270" t="s">
+        <v>2535</v>
+      </c>
+      <c r="S270" s="3">
+        <v>40269</v>
+      </c>
+      <c r="T270" s="3">
+        <v>40287</v>
+      </c>
+      <c r="U270" t="s">
+        <v>2536</v>
+      </c>
+      <c r="V270" t="s">
+        <v>60</v>
+      </c>
+      <c r="W270" t="s">
+        <v>34</v>
       </c>
       <c r="X270">
         <v>62</v>
@@ -82670,8 +83284,32 @@
       <c r="I271" t="s">
         <v>29</v>
       </c>
-      <c r="J271" s="12">
+      <c r="J271">
         <v>545639</v>
+      </c>
+      <c r="K271" t="s">
+        <v>30</v>
+      </c>
+      <c r="L271" t="s">
+        <v>40</v>
+      </c>
+      <c r="R271" t="s">
+        <v>2537</v>
+      </c>
+      <c r="S271" s="3">
+        <v>41821</v>
+      </c>
+      <c r="T271" s="3">
+        <v>41960</v>
+      </c>
+      <c r="U271" t="s">
+        <v>40</v>
+      </c>
+      <c r="V271" t="s">
+        <v>2505</v>
+      </c>
+      <c r="W271" t="s">
+        <v>34</v>
       </c>
       <c r="X271">
         <v>49</v>
@@ -82717,8 +83355,32 @@
       <c r="I272" t="s">
         <v>29</v>
       </c>
-      <c r="J272" s="12">
+      <c r="J272">
         <v>669546</v>
+      </c>
+      <c r="K272" t="s">
+        <v>30</v>
+      </c>
+      <c r="L272" t="s">
+        <v>40</v>
+      </c>
+      <c r="R272" t="s">
+        <v>2538</v>
+      </c>
+      <c r="S272" s="3">
+        <v>41922</v>
+      </c>
+      <c r="T272" s="3">
+        <v>41969</v>
+      </c>
+      <c r="U272" t="s">
+        <v>40</v>
+      </c>
+      <c r="V272" t="s">
+        <v>60</v>
+      </c>
+      <c r="W272" t="s">
+        <v>34</v>
       </c>
       <c r="X272">
         <v>33</v>
@@ -82764,8 +83426,32 @@
       <c r="I273" t="s">
         <v>29</v>
       </c>
-      <c r="J273" s="12">
+      <c r="J273">
         <v>300056777</v>
+      </c>
+      <c r="K273" t="s">
+        <v>30</v>
+      </c>
+      <c r="L273" t="s">
+        <v>40</v>
+      </c>
+      <c r="R273" t="s">
+        <v>2499</v>
+      </c>
+      <c r="S273" s="3">
+        <v>42811</v>
+      </c>
+      <c r="T273" s="3">
+        <v>42852</v>
+      </c>
+      <c r="U273" t="s">
+        <v>40</v>
+      </c>
+      <c r="V273" t="s">
+        <v>2505</v>
+      </c>
+      <c r="W273" t="s">
+        <v>34</v>
       </c>
       <c r="X273">
         <v>59</v>
@@ -82811,8 +83497,26 @@
       <c r="I274" t="s">
         <v>29</v>
       </c>
-      <c r="J274" s="12">
+      <c r="J274">
         <v>788785</v>
+      </c>
+      <c r="K274" t="s">
+        <v>2465</v>
+      </c>
+      <c r="L274" t="s">
+        <v>40</v>
+      </c>
+      <c r="R274" t="s">
+        <v>2539</v>
+      </c>
+      <c r="S274" s="3">
+        <v>42411</v>
+      </c>
+      <c r="V274" t="s">
+        <v>60</v>
+      </c>
+      <c r="W274" t="s">
+        <v>34</v>
       </c>
       <c r="X274">
         <v>21</v>
@@ -82858,8 +83562,11 @@
       <c r="I275" t="s">
         <v>29</v>
       </c>
-      <c r="J275" s="12">
+      <c r="J275">
         <v>580000175</v>
+      </c>
+      <c r="R275" t="s">
+        <v>2483</v>
       </c>
       <c r="X275">
         <v>33</v>
@@ -82905,8 +83612,11 @@
       <c r="I276" t="s">
         <v>29</v>
       </c>
-      <c r="J276" s="12">
+      <c r="J276">
         <v>300068458</v>
+      </c>
+      <c r="R276" t="s">
+        <v>2540</v>
       </c>
       <c r="X276">
         <v>38</v>
@@ -82952,8 +83662,23 @@
       <c r="I277" t="s">
         <v>29</v>
       </c>
-      <c r="J277" s="12">
+      <c r="J277">
         <v>43873</v>
+      </c>
+      <c r="K277" t="s">
+        <v>30</v>
+      </c>
+      <c r="L277" t="s">
+        <v>112</v>
+      </c>
+      <c r="S277" s="3">
+        <v>39387</v>
+      </c>
+      <c r="V277" t="s">
+        <v>60</v>
+      </c>
+      <c r="W277" t="s">
+        <v>157</v>
       </c>
       <c r="X277">
         <v>29</v>
@@ -82999,8 +83724,26 @@
       <c r="I278" t="s">
         <v>29</v>
       </c>
-      <c r="J278" s="12">
+      <c r="J278">
         <v>300060826</v>
+      </c>
+      <c r="K278" t="s">
+        <v>53</v>
+      </c>
+      <c r="L278" t="s">
+        <v>40</v>
+      </c>
+      <c r="R278" t="s">
+        <v>2541</v>
+      </c>
+      <c r="S278" s="3">
+        <v>43692</v>
+      </c>
+      <c r="V278" t="s">
+        <v>60</v>
+      </c>
+      <c r="W278" t="s">
+        <v>34</v>
       </c>
       <c r="X278">
         <v>33</v>
@@ -83046,8 +83789,29 @@
       <c r="I279" t="s">
         <v>29</v>
       </c>
-      <c r="J279" s="12">
+      <c r="J279">
         <v>557097</v>
+      </c>
+      <c r="K279" t="s">
+        <v>30</v>
+      </c>
+      <c r="L279" t="s">
+        <v>2542</v>
+      </c>
+      <c r="S279" s="3">
+        <v>41684</v>
+      </c>
+      <c r="T279" s="3">
+        <v>41729</v>
+      </c>
+      <c r="U279" t="s">
+        <v>2543</v>
+      </c>
+      <c r="V279" t="s">
+        <v>60</v>
+      </c>
+      <c r="W279" t="s">
+        <v>34</v>
       </c>
       <c r="X279">
         <v>66</v>
@@ -83093,8 +83857,29 @@
       <c r="I280" t="s">
         <v>29</v>
       </c>
-      <c r="J280" s="12">
+      <c r="J280">
         <v>626117</v>
+      </c>
+      <c r="K280" t="s">
+        <v>30</v>
+      </c>
+      <c r="L280" t="s">
+        <v>2535</v>
+      </c>
+      <c r="S280" s="3">
+        <v>40729</v>
+      </c>
+      <c r="T280" s="3">
+        <v>41059</v>
+      </c>
+      <c r="U280" t="s">
+        <v>41</v>
+      </c>
+      <c r="V280" t="s">
+        <v>157</v>
+      </c>
+      <c r="W280" t="s">
+        <v>157</v>
       </c>
       <c r="X280">
         <v>37</v>
@@ -83140,8 +83925,29 @@
       <c r="I281" t="s">
         <v>29</v>
       </c>
-      <c r="J281" s="12">
+      <c r="J281">
         <v>608168</v>
+      </c>
+      <c r="K281" t="s">
+        <v>30</v>
+      </c>
+      <c r="L281" t="s">
+        <v>32</v>
+      </c>
+      <c r="S281" s="3">
+        <v>40528</v>
+      </c>
+      <c r="T281" s="3">
+        <v>40535</v>
+      </c>
+      <c r="U281" t="s">
+        <v>40</v>
+      </c>
+      <c r="V281" t="s">
+        <v>60</v>
+      </c>
+      <c r="W281" t="s">
+        <v>34</v>
       </c>
       <c r="X281">
         <v>45</v>
@@ -83187,8 +83993,26 @@
       <c r="I282" t="s">
         <v>29</v>
       </c>
-      <c r="J282" s="12">
+      <c r="J282">
         <v>288556</v>
+      </c>
+      <c r="K282" t="s">
+        <v>30</v>
+      </c>
+      <c r="S282" s="3">
+        <v>36161</v>
+      </c>
+      <c r="T282" s="3">
+        <v>36545</v>
+      </c>
+      <c r="U282" t="s">
+        <v>40</v>
+      </c>
+      <c r="V282" t="s">
+        <v>60</v>
+      </c>
+      <c r="W282" t="s">
+        <v>34</v>
       </c>
       <c r="X282">
         <v>90</v>
@@ -83234,8 +84058,14 @@
       <c r="I283" t="s">
         <v>29</v>
       </c>
-      <c r="J283" s="12">
+      <c r="J283">
         <v>698729</v>
+      </c>
+      <c r="R283" t="s">
+        <v>2544</v>
+      </c>
+      <c r="S283" s="3">
+        <v>41487</v>
       </c>
       <c r="X283">
         <v>74</v>
@@ -83281,8 +84111,26 @@
       <c r="I284" t="s">
         <v>29</v>
       </c>
-      <c r="J284" s="12">
+      <c r="J284">
         <v>501909</v>
+      </c>
+      <c r="K284" t="s">
+        <v>53</v>
+      </c>
+      <c r="L284" t="s">
+        <v>40</v>
+      </c>
+      <c r="R284" t="s">
+        <v>2541</v>
+      </c>
+      <c r="S284" s="3">
+        <v>43586</v>
+      </c>
+      <c r="V284" t="s">
+        <v>60</v>
+      </c>
+      <c r="W284" t="s">
+        <v>34</v>
       </c>
       <c r="X284">
         <v>56</v>
@@ -83328,8 +84176,32 @@
       <c r="I285" t="s">
         <v>29</v>
       </c>
-      <c r="J285" s="12">
+      <c r="J285">
         <v>464485</v>
+      </c>
+      <c r="K285" t="s">
+        <v>30</v>
+      </c>
+      <c r="L285" t="s">
+        <v>123</v>
+      </c>
+      <c r="R285" t="s">
+        <v>2545</v>
+      </c>
+      <c r="S285" s="3">
+        <v>38565</v>
+      </c>
+      <c r="T285" s="3">
+        <v>39083</v>
+      </c>
+      <c r="U285" t="s">
+        <v>40</v>
+      </c>
+      <c r="V285" t="s">
+        <v>157</v>
+      </c>
+      <c r="W285" t="s">
+        <v>157</v>
       </c>
       <c r="X285">
         <v>38</v>
@@ -83375,8 +84247,29 @@
       <c r="I286" t="s">
         <v>29</v>
       </c>
-      <c r="J286" s="12">
+      <c r="J286">
         <v>513031</v>
+      </c>
+      <c r="K286" t="s">
+        <v>30</v>
+      </c>
+      <c r="L286" t="s">
+        <v>2546</v>
+      </c>
+      <c r="S286" s="3">
+        <v>43028</v>
+      </c>
+      <c r="T286" s="3">
+        <v>43033</v>
+      </c>
+      <c r="U286" t="s">
+        <v>40</v>
+      </c>
+      <c r="V286" t="s">
+        <v>2547</v>
+      </c>
+      <c r="W286" t="s">
+        <v>34</v>
       </c>
       <c r="X286">
         <v>74</v>
@@ -83422,8 +84315,23 @@
       <c r="I287" t="s">
         <v>29</v>
       </c>
-      <c r="J287" s="12">
+      <c r="J287">
         <v>95638</v>
+      </c>
+      <c r="K287" t="s">
+        <v>53</v>
+      </c>
+      <c r="L287" t="s">
+        <v>2484</v>
+      </c>
+      <c r="S287" s="3">
+        <v>40179</v>
+      </c>
+      <c r="V287" t="s">
+        <v>157</v>
+      </c>
+      <c r="W287" t="s">
+        <v>157</v>
       </c>
       <c r="X287">
         <v>39</v>
@@ -83469,8 +84377,14 @@
       <c r="I288" t="s">
         <v>29</v>
       </c>
-      <c r="J288" s="12">
+      <c r="J288">
         <v>300129485</v>
+      </c>
+      <c r="R288" t="s">
+        <v>2548</v>
+      </c>
+      <c r="S288" s="3">
+        <v>43657</v>
       </c>
       <c r="X288">
         <v>76</v>
@@ -83516,8 +84430,27 @@
       <c r="I289" t="s">
         <v>29</v>
       </c>
-      <c r="J289" s="12">
+      <c r="J289">
         <v>87825</v>
+      </c>
+      <c r="K289" t="s">
+        <v>30</v>
+      </c>
+      <c r="L289" t="s">
+        <v>123</v>
+      </c>
+      <c r="S289" s="3">
+        <v>39173</v>
+      </c>
+      <c r="T289" s="3"/>
+      <c r="U289" t="s">
+        <v>2549</v>
+      </c>
+      <c r="V289" t="s">
+        <v>157</v>
+      </c>
+      <c r="W289" t="s">
+        <v>157</v>
       </c>
       <c r="X289">
         <v>64</v>
@@ -83563,8 +84496,11 @@
       <c r="I290" t="s">
         <v>29</v>
       </c>
-      <c r="J290" s="12">
+      <c r="J290">
         <v>99064</v>
+      </c>
+      <c r="R290" t="s">
+        <v>2483</v>
       </c>
       <c r="X290">
         <v>74</v>
@@ -83610,8 +84546,11 @@
       <c r="I291" t="s">
         <v>29</v>
       </c>
-      <c r="J291" s="12">
+      <c r="J291">
         <v>215971</v>
+      </c>
+      <c r="R291" t="s">
+        <v>2550</v>
       </c>
       <c r="X291">
         <v>34</v>
@@ -83657,8 +84596,11 @@
       <c r="I292" t="s">
         <v>29</v>
       </c>
-      <c r="J292" s="12">
+      <c r="J292">
         <v>258507</v>
+      </c>
+      <c r="R292" t="s">
+        <v>2483</v>
       </c>
       <c r="X292">
         <v>28</v>
@@ -83704,8 +84646,32 @@
       <c r="I293" t="s">
         <v>29</v>
       </c>
-      <c r="J293" s="12">
+      <c r="J293">
         <v>694882</v>
+      </c>
+      <c r="K293" t="s">
+        <v>30</v>
+      </c>
+      <c r="L293" t="s">
+        <v>40</v>
+      </c>
+      <c r="R293" t="s">
+        <v>2527</v>
+      </c>
+      <c r="S293" s="3">
+        <v>41456</v>
+      </c>
+      <c r="T293" s="3">
+        <v>41548</v>
+      </c>
+      <c r="U293" t="s">
+        <v>2551</v>
+      </c>
+      <c r="V293" t="s">
+        <v>60</v>
+      </c>
+      <c r="W293" t="s">
+        <v>34</v>
       </c>
       <c r="X293">
         <v>75</v>
@@ -83751,8 +84717,29 @@
       <c r="I294" t="s">
         <v>29</v>
       </c>
-      <c r="J294" s="12">
+      <c r="J294">
         <v>300176279</v>
+      </c>
+      <c r="K294" t="s">
+        <v>30</v>
+      </c>
+      <c r="L294" t="s">
+        <v>2552</v>
+      </c>
+      <c r="S294" s="3">
+        <v>43804</v>
+      </c>
+      <c r="T294" s="3">
+        <v>44076</v>
+      </c>
+      <c r="U294" t="s">
+        <v>2553</v>
+      </c>
+      <c r="V294" t="s">
+        <v>60</v>
+      </c>
+      <c r="W294" t="s">
+        <v>34</v>
       </c>
       <c r="X294">
         <v>80</v>
@@ -83801,6 +84788,30 @@
       <c r="J295" s="12">
         <v>691805</v>
       </c>
+      <c r="K295" t="s">
+        <v>30</v>
+      </c>
+      <c r="L295" t="s">
+        <v>2554</v>
+      </c>
+      <c r="R295" t="s">
+        <v>2527</v>
+      </c>
+      <c r="S295" s="3">
+        <v>41417</v>
+      </c>
+      <c r="T295" s="3">
+        <v>41512</v>
+      </c>
+      <c r="U295" t="s">
+        <v>2555</v>
+      </c>
+      <c r="V295" t="s">
+        <v>2531</v>
+      </c>
+      <c r="W295" t="s">
+        <v>34</v>
+      </c>
       <c r="X295">
         <v>41</v>
       </c>
@@ -83845,8 +84856,23 @@
       <c r="I296" t="s">
         <v>29</v>
       </c>
-      <c r="J296" s="12">
+      <c r="J296">
         <v>696564</v>
+      </c>
+      <c r="K296" t="s">
+        <v>53</v>
+      </c>
+      <c r="L296" t="s">
+        <v>123</v>
+      </c>
+      <c r="R296" t="s">
+        <v>2530</v>
+      </c>
+      <c r="S296" s="3">
+        <v>42475</v>
+      </c>
+      <c r="W296" t="s">
+        <v>157</v>
       </c>
       <c r="X296">
         <v>26</v>
@@ -83892,8 +84918,29 @@
       <c r="I297" t="s">
         <v>29</v>
       </c>
-      <c r="J297" s="12">
+      <c r="J297">
         <v>444797</v>
+      </c>
+      <c r="K297" t="s">
+        <v>30</v>
+      </c>
+      <c r="L297" t="s">
+        <v>2485</v>
+      </c>
+      <c r="S297" s="3">
+        <v>39083</v>
+      </c>
+      <c r="T297" s="3">
+        <v>39904</v>
+      </c>
+      <c r="U297" t="s">
+        <v>40</v>
+      </c>
+      <c r="V297" t="s">
+        <v>60</v>
+      </c>
+      <c r="W297" t="s">
+        <v>34</v>
       </c>
       <c r="X297">
         <v>66</v>
@@ -83939,8 +84986,11 @@
       <c r="I298" t="s">
         <v>29</v>
       </c>
-      <c r="J298" s="12">
+      <c r="J298">
         <v>300081885</v>
+      </c>
+      <c r="R298" t="s">
+        <v>2483</v>
       </c>
       <c r="X298">
         <v>33</v>
@@ -83986,8 +85036,29 @@
       <c r="I299" t="s">
         <v>29</v>
       </c>
-      <c r="J299" s="12">
+      <c r="J299">
         <v>445304</v>
+      </c>
+      <c r="K299" t="s">
+        <v>30</v>
+      </c>
+      <c r="L299" t="s">
+        <v>130</v>
+      </c>
+      <c r="S299" s="3">
+        <v>38930</v>
+      </c>
+      <c r="T299" s="3">
+        <v>43523</v>
+      </c>
+      <c r="U299" t="s">
+        <v>130</v>
+      </c>
+      <c r="V299" t="s">
+        <v>60</v>
+      </c>
+      <c r="W299" t="s">
+        <v>34</v>
       </c>
       <c r="X299">
         <v>52</v>
@@ -84033,8 +85104,26 @@
       <c r="I300" t="s">
         <v>29</v>
       </c>
-      <c r="J300" s="12">
+      <c r="J300">
         <v>300158347</v>
+      </c>
+      <c r="K300" t="s">
+        <v>30</v>
+      </c>
+      <c r="L300" t="s">
+        <v>2506</v>
+      </c>
+      <c r="R300" t="s">
+        <v>2527</v>
+      </c>
+      <c r="S300" s="3">
+        <v>43705</v>
+      </c>
+      <c r="V300" t="s">
+        <v>60</v>
+      </c>
+      <c r="W300" t="s">
+        <v>34</v>
       </c>
       <c r="X300">
         <v>84</v>
@@ -84080,8 +85169,29 @@
       <c r="I301" t="s">
         <v>29</v>
       </c>
-      <c r="J301" s="12">
+      <c r="J301">
         <v>27569</v>
+      </c>
+      <c r="K301" t="s">
+        <v>30</v>
+      </c>
+      <c r="L301" t="s">
+        <v>123</v>
+      </c>
+      <c r="S301" s="3">
+        <v>37681</v>
+      </c>
+      <c r="T301" s="3">
+        <v>37722</v>
+      </c>
+      <c r="U301" t="s">
+        <v>2556</v>
+      </c>
+      <c r="V301" t="s">
+        <v>157</v>
+      </c>
+      <c r="W301" t="s">
+        <v>157</v>
       </c>
       <c r="X301">
         <v>64</v>
@@ -84127,8 +85237,23 @@
       <c r="I302" t="s">
         <v>29</v>
       </c>
-      <c r="J302" s="12">
+      <c r="J302">
         <v>158358</v>
+      </c>
+      <c r="K302" t="s">
+        <v>30</v>
+      </c>
+      <c r="L302" t="s">
+        <v>123</v>
+      </c>
+      <c r="S302" s="3">
+        <v>42688</v>
+      </c>
+      <c r="V302" t="s">
+        <v>157</v>
+      </c>
+      <c r="W302" t="s">
+        <v>157</v>
       </c>
       <c r="X302">
         <v>46</v>
@@ -84174,8 +85299,17 @@
       <c r="I303" t="s">
         <v>29</v>
       </c>
-      <c r="J303" s="12">
+      <c r="J303">
         <v>300091376</v>
+      </c>
+      <c r="L303" t="s">
+        <v>40</v>
+      </c>
+      <c r="R303" t="s">
+        <v>2499</v>
+      </c>
+      <c r="S303" s="3">
+        <v>43630</v>
       </c>
       <c r="X303">
         <v>19</v>
@@ -84221,8 +85355,23 @@
       <c r="I304" t="s">
         <v>29</v>
       </c>
-      <c r="J304" s="12">
+      <c r="J304">
         <v>300111544</v>
+      </c>
+      <c r="K304" t="s">
+        <v>53</v>
+      </c>
+      <c r="L304" t="s">
+        <v>2484</v>
+      </c>
+      <c r="S304" s="3">
+        <v>43257</v>
+      </c>
+      <c r="V304" t="s">
+        <v>2557</v>
+      </c>
+      <c r="W304" t="s">
+        <v>157</v>
       </c>
       <c r="X304">
         <v>18</v>
@@ -84268,8 +85417,14 @@
       <c r="I305" t="s">
         <v>196</v>
       </c>
-      <c r="J305" s="12">
+      <c r="J305">
         <v>251386</v>
+      </c>
+      <c r="R305" t="s">
+        <v>2499</v>
+      </c>
+      <c r="S305" s="3">
+        <v>43969</v>
       </c>
       <c r="X305">
         <v>33</v>
@@ -84315,8 +85470,23 @@
       <c r="I306" t="s">
         <v>29</v>
       </c>
-      <c r="J306" s="12">
+      <c r="J306">
         <v>319108</v>
+      </c>
+      <c r="K306" t="s">
+        <v>53</v>
+      </c>
+      <c r="L306" t="s">
+        <v>123</v>
+      </c>
+      <c r="S306" s="3">
+        <v>41883</v>
+      </c>
+      <c r="V306" t="s">
+        <v>2557</v>
+      </c>
+      <c r="W306" t="s">
+        <v>157</v>
       </c>
       <c r="X306">
         <v>35</v>
@@ -84362,8 +85532,29 @@
       <c r="I307" t="s">
         <v>29</v>
       </c>
-      <c r="J307" s="12">
+      <c r="J307">
         <v>507413</v>
+      </c>
+      <c r="K307" t="s">
+        <v>30</v>
+      </c>
+      <c r="L307" t="s">
+        <v>2558</v>
+      </c>
+      <c r="S307" s="3">
+        <v>39479</v>
+      </c>
+      <c r="T307" s="3">
+        <v>39489</v>
+      </c>
+      <c r="U307" t="s">
+        <v>40</v>
+      </c>
+      <c r="V307" t="s">
+        <v>60</v>
+      </c>
+      <c r="W307" t="s">
+        <v>34</v>
       </c>
       <c r="X307">
         <v>54</v>
@@ -84409,8 +85600,23 @@
       <c r="I308" t="s">
         <v>29</v>
       </c>
-      <c r="J308" s="12">
+      <c r="J308">
         <v>378975</v>
+      </c>
+      <c r="K308" t="s">
+        <v>53</v>
+      </c>
+      <c r="L308" t="s">
+        <v>40</v>
+      </c>
+      <c r="S308" s="3">
+        <v>43963</v>
+      </c>
+      <c r="V308" t="s">
+        <v>60</v>
+      </c>
+      <c r="W308" t="s">
+        <v>34</v>
       </c>
       <c r="X308">
         <v>32</v>
@@ -84456,8 +85662,11 @@
       <c r="I309" t="s">
         <v>29</v>
       </c>
-      <c r="J309" s="12">
+      <c r="J309">
         <v>769775</v>
+      </c>
+      <c r="R309" t="s">
+        <v>2483</v>
       </c>
       <c r="X309">
         <v>55</v>
@@ -84503,8 +85712,11 @@
       <c r="I310" t="s">
         <v>29</v>
       </c>
-      <c r="J310" s="12">
+      <c r="J310">
         <v>486250</v>
+      </c>
+      <c r="R310" t="s">
+        <v>2540</v>
       </c>
       <c r="X310">
         <v>76</v>
@@ -84550,8 +85762,17 @@
       <c r="I311" t="s">
         <v>29</v>
       </c>
-      <c r="J311" s="12">
+      <c r="J311">
         <v>223605</v>
+      </c>
+      <c r="L311" t="s">
+        <v>40</v>
+      </c>
+      <c r="R311" t="s">
+        <v>2499</v>
+      </c>
+      <c r="S311" s="3">
+        <v>43942</v>
       </c>
       <c r="X311">
         <v>44</v>
@@ -84597,8 +85818,26 @@
       <c r="I312" t="s">
         <v>29</v>
       </c>
-      <c r="J312" s="12">
+      <c r="J312">
         <v>300038271</v>
+      </c>
+      <c r="K312" t="s">
+        <v>30</v>
+      </c>
+      <c r="L312" t="s">
+        <v>2474</v>
+      </c>
+      <c r="R312" t="s">
+        <v>2527</v>
+      </c>
+      <c r="S312" s="3">
+        <v>42644</v>
+      </c>
+      <c r="V312" t="s">
+        <v>60</v>
+      </c>
+      <c r="W312" t="s">
+        <v>2559</v>
       </c>
       <c r="X312">
         <v>62</v>
@@ -84644,8 +85883,11 @@
       <c r="I313" t="s">
         <v>29</v>
       </c>
-      <c r="J313" s="12">
+      <c r="J313">
         <v>300124586</v>
+      </c>
+      <c r="R313" t="s">
+        <v>2483</v>
       </c>
       <c r="X313">
         <v>31</v>
@@ -84691,8 +85933,11 @@
       <c r="I314" t="s">
         <v>29</v>
       </c>
-      <c r="J314" s="12">
+      <c r="J314">
         <v>465436</v>
+      </c>
+      <c r="R314" t="s">
+        <v>2540</v>
       </c>
       <c r="X314">
         <v>52</v>
@@ -84738,8 +85983,26 @@
       <c r="I315" t="s">
         <v>29</v>
       </c>
-      <c r="J315" s="12">
+      <c r="J315">
         <v>448017</v>
+      </c>
+      <c r="K315" t="s">
+        <v>53</v>
+      </c>
+      <c r="L315" t="s">
+        <v>123</v>
+      </c>
+      <c r="R315" t="s">
+        <v>2560</v>
+      </c>
+      <c r="S315" s="3">
+        <v>41944</v>
+      </c>
+      <c r="V315" t="s">
+        <v>96</v>
+      </c>
+      <c r="W315" t="s">
+        <v>34</v>
       </c>
       <c r="X315">
         <v>32</v>
@@ -84785,8 +86048,11 @@
       <c r="I316" t="s">
         <v>29</v>
       </c>
-      <c r="J316" s="12">
+      <c r="J316">
         <v>300182462</v>
+      </c>
+      <c r="R316" t="s">
+        <v>2483</v>
       </c>
       <c r="X316">
         <v>29</v>
@@ -84832,8 +86098,29 @@
       <c r="I317" t="s">
         <v>29</v>
       </c>
-      <c r="J317" s="12">
+      <c r="J317">
         <v>676254</v>
+      </c>
+      <c r="K317" t="s">
+        <v>30</v>
+      </c>
+      <c r="L317" t="s">
+        <v>2561</v>
+      </c>
+      <c r="S317" s="3">
+        <v>42587</v>
+      </c>
+      <c r="T317" s="3">
+        <v>42606</v>
+      </c>
+      <c r="U317" t="s">
+        <v>2562</v>
+      </c>
+      <c r="V317" t="s">
+        <v>60</v>
+      </c>
+      <c r="W317" t="s">
+        <v>34</v>
       </c>
       <c r="X317">
         <v>44</v>
@@ -84879,8 +86166,11 @@
       <c r="I318" t="s">
         <v>29</v>
       </c>
-      <c r="J318" s="12">
+      <c r="J318">
         <v>392968</v>
+      </c>
+      <c r="R318" t="s">
+        <v>2483</v>
       </c>
       <c r="X318">
         <v>50</v>
@@ -84926,8 +86216,29 @@
       <c r="I319" t="s">
         <v>29</v>
       </c>
-      <c r="J319" s="12">
+      <c r="J319">
         <v>39501</v>
+      </c>
+      <c r="K319" t="s">
+        <v>30</v>
+      </c>
+      <c r="L319" t="s">
+        <v>211</v>
+      </c>
+      <c r="S319" s="3">
+        <v>31778</v>
+      </c>
+      <c r="T319" s="3">
+        <v>32509</v>
+      </c>
+      <c r="U319" t="s">
+        <v>2563</v>
+      </c>
+      <c r="V319" t="s">
+        <v>2564</v>
+      </c>
+      <c r="W319" t="s">
+        <v>34</v>
       </c>
       <c r="X319">
         <v>67</v>
@@ -84973,8 +86284,23 @@
       <c r="I320" t="s">
         <v>29</v>
       </c>
-      <c r="J320" s="12">
+      <c r="J320">
         <v>300180505</v>
+      </c>
+      <c r="K320" t="s">
+        <v>30</v>
+      </c>
+      <c r="L320" t="s">
+        <v>2565</v>
+      </c>
+      <c r="S320" s="3">
+        <v>43862</v>
+      </c>
+      <c r="V320" t="s">
+        <v>60</v>
+      </c>
+      <c r="W320" t="s">
+        <v>34</v>
       </c>
       <c r="X320">
         <v>71</v>
@@ -85023,6 +86349,24 @@
       <c r="J321" s="12">
         <v>300109121</v>
       </c>
+      <c r="K321" t="s">
+        <v>2493</v>
+      </c>
+      <c r="L321" t="s">
+        <v>130</v>
+      </c>
+      <c r="S321" s="3">
+        <v>43525</v>
+      </c>
+      <c r="T321" s="3">
+        <v>43549</v>
+      </c>
+      <c r="U321" t="s">
+        <v>2563</v>
+      </c>
+      <c r="W321" t="s">
+        <v>34</v>
+      </c>
       <c r="X321">
         <v>73</v>
       </c>
@@ -85067,8 +86411,29 @@
       <c r="I322" t="s">
         <v>29</v>
       </c>
-      <c r="J322" s="12">
+      <c r="J322">
         <v>42135</v>
+      </c>
+      <c r="K322" t="s">
+        <v>30</v>
+      </c>
+      <c r="L322" t="s">
+        <v>32</v>
+      </c>
+      <c r="S322" s="3">
+        <v>38084</v>
+      </c>
+      <c r="T322" s="3">
+        <v>38320</v>
+      </c>
+      <c r="U322" t="s">
+        <v>164</v>
+      </c>
+      <c r="V322" t="s">
+        <v>2516</v>
+      </c>
+      <c r="W322" t="s">
+        <v>34</v>
       </c>
       <c r="X322">
         <v>67</v>
@@ -85114,8 +86479,23 @@
       <c r="I323" t="s">
         <v>29</v>
       </c>
-      <c r="J323" s="12">
+      <c r="J323">
         <v>440910</v>
+      </c>
+      <c r="K323" t="s">
+        <v>53</v>
+      </c>
+      <c r="L323" t="s">
+        <v>40</v>
+      </c>
+      <c r="S323" s="3">
+        <v>41030</v>
+      </c>
+      <c r="V323" t="s">
+        <v>60</v>
+      </c>
+      <c r="W323" t="s">
+        <v>34</v>
       </c>
       <c r="X323">
         <v>77</v>
@@ -85161,8 +86541,11 @@
       <c r="I324" t="s">
         <v>29</v>
       </c>
-      <c r="J324" s="12">
+      <c r="J324">
         <v>237091</v>
+      </c>
+      <c r="R324" t="s">
+        <v>2483</v>
       </c>
       <c r="X324">
         <v>60</v>
@@ -85208,8 +86591,11 @@
       <c r="I325" t="s">
         <v>29</v>
       </c>
-      <c r="J325" s="12">
+      <c r="J325">
         <v>497463</v>
+      </c>
+      <c r="R325" t="s">
+        <v>2483</v>
       </c>
       <c r="X325">
         <v>64</v>
@@ -85255,8 +86641,29 @@
       <c r="I326" t="s">
         <v>29</v>
       </c>
-      <c r="J326" s="12">
+      <c r="J326">
         <v>602746</v>
+      </c>
+      <c r="K326" t="s">
+        <v>30</v>
+      </c>
+      <c r="L326" t="s">
+        <v>32</v>
+      </c>
+      <c r="S326" s="3">
+        <v>40422</v>
+      </c>
+      <c r="T326" s="3">
+        <v>40517</v>
+      </c>
+      <c r="U326" t="s">
+        <v>40</v>
+      </c>
+      <c r="V326" t="s">
+        <v>60</v>
+      </c>
+      <c r="W326" t="s">
+        <v>34</v>
       </c>
       <c r="X326">
         <v>70</v>
@@ -85302,8 +86709,11 @@
       <c r="I327" t="s">
         <v>29</v>
       </c>
-      <c r="J327" s="12">
+      <c r="J327">
         <v>97313</v>
+      </c>
+      <c r="R327" t="s">
+        <v>2483</v>
       </c>
       <c r="X327">
         <v>25</v>
@@ -85349,8 +86759,26 @@
       <c r="I328" t="s">
         <v>29</v>
       </c>
-      <c r="J328" s="12">
+      <c r="J328">
         <v>300020766</v>
+      </c>
+      <c r="K328" t="s">
+        <v>53</v>
+      </c>
+      <c r="L328" t="s">
+        <v>40</v>
+      </c>
+      <c r="R328" t="s">
+        <v>2566</v>
+      </c>
+      <c r="S328" s="3">
+        <v>42576</v>
+      </c>
+      <c r="V328" t="s">
+        <v>60</v>
+      </c>
+      <c r="W328" t="s">
+        <v>34</v>
       </c>
       <c r="X328">
         <v>63</v>
@@ -85396,8 +86824,11 @@
       <c r="I329" t="s">
         <v>29</v>
       </c>
-      <c r="J329" s="12">
+      <c r="J329">
         <v>300174940</v>
+      </c>
+      <c r="R329" t="s">
+        <v>2567</v>
       </c>
       <c r="X329">
         <v>73</v>
@@ -85443,8 +86874,23 @@
       <c r="I330" t="s">
         <v>29</v>
       </c>
-      <c r="J330" s="12">
+      <c r="J330">
         <v>616578</v>
+      </c>
+      <c r="K330" t="s">
+        <v>53</v>
+      </c>
+      <c r="L330" t="s">
+        <v>40</v>
+      </c>
+      <c r="S330" s="3">
+        <v>41456</v>
+      </c>
+      <c r="V330" t="s">
+        <v>60</v>
+      </c>
+      <c r="W330" t="s">
+        <v>34</v>
       </c>
       <c r="X330">
         <v>50</v>
@@ -85490,8 +86936,29 @@
       <c r="I331" t="s">
         <v>29</v>
       </c>
-      <c r="J331" s="12">
+      <c r="J331">
         <v>300019541</v>
+      </c>
+      <c r="K331" t="s">
+        <v>30</v>
+      </c>
+      <c r="L331" t="s">
+        <v>40</v>
+      </c>
+      <c r="S331" s="3">
+        <v>42491</v>
+      </c>
+      <c r="T331" s="3">
+        <v>42538</v>
+      </c>
+      <c r="U331" t="s">
+        <v>40</v>
+      </c>
+      <c r="V331" t="s">
+        <v>2516</v>
+      </c>
+      <c r="W331" t="s">
+        <v>34</v>
       </c>
       <c r="X331">
         <v>75</v>
@@ -85537,8 +87004,32 @@
       <c r="I332" t="s">
         <v>29</v>
       </c>
-      <c r="J332" s="12">
+      <c r="J332">
         <v>471879</v>
+      </c>
+      <c r="K332" t="s">
+        <v>2493</v>
+      </c>
+      <c r="L332" t="s">
+        <v>2568</v>
+      </c>
+      <c r="R332" t="s">
+        <v>2569</v>
+      </c>
+      <c r="S332" s="3">
+        <v>42266</v>
+      </c>
+      <c r="T332" s="3">
+        <v>42269</v>
+      </c>
+      <c r="U332" t="s">
+        <v>2570</v>
+      </c>
+      <c r="V332" t="s">
+        <v>2571</v>
+      </c>
+      <c r="W332" t="s">
+        <v>34</v>
       </c>
       <c r="X332">
         <v>50</v>
@@ -85584,8 +87075,26 @@
       <c r="I333" t="s">
         <v>29</v>
       </c>
-      <c r="J333" s="12">
+      <c r="J333">
         <v>200941</v>
+      </c>
+      <c r="K333" t="s">
+        <v>53</v>
+      </c>
+      <c r="L333" t="s">
+        <v>2484</v>
+      </c>
+      <c r="R333" t="s">
+        <v>2530</v>
+      </c>
+      <c r="S333" s="3">
+        <v>43040</v>
+      </c>
+      <c r="V333" t="s">
+        <v>157</v>
+      </c>
+      <c r="W333" t="s">
+        <v>157</v>
       </c>
       <c r="X333">
         <v>50</v>
@@ -85631,8 +87140,29 @@
       <c r="I334" t="s">
         <v>29</v>
       </c>
-      <c r="J334" s="12">
+      <c r="J334">
         <v>668306</v>
+      </c>
+      <c r="K334" t="s">
+        <v>30</v>
+      </c>
+      <c r="L334" t="s">
+        <v>40</v>
+      </c>
+      <c r="S334" s="3">
+        <v>41944</v>
+      </c>
+      <c r="T334" s="3">
+        <v>42088</v>
+      </c>
+      <c r="U334" t="s">
+        <v>40</v>
+      </c>
+      <c r="V334" t="s">
+        <v>2516</v>
+      </c>
+      <c r="W334" t="s">
+        <v>34</v>
       </c>
       <c r="X334">
         <v>50</v>
@@ -85678,8 +87208,29 @@
       <c r="I335" t="s">
         <v>29</v>
       </c>
-      <c r="J335" s="12">
+      <c r="J335">
         <v>713273</v>
+      </c>
+      <c r="K335" t="s">
+        <v>30</v>
+      </c>
+      <c r="L335" t="s">
+        <v>211</v>
+      </c>
+      <c r="S335" s="3">
+        <v>41627</v>
+      </c>
+      <c r="T335" s="3">
+        <v>41694</v>
+      </c>
+      <c r="U335" t="s">
+        <v>211</v>
+      </c>
+      <c r="V335" t="s">
+        <v>2572</v>
+      </c>
+      <c r="W335" t="s">
+        <v>34</v>
       </c>
       <c r="X335">
         <v>60</v>
@@ -85725,8 +87276,11 @@
       <c r="I336" t="s">
         <v>29</v>
       </c>
-      <c r="J336" s="12">
+      <c r="J336">
         <v>300151691</v>
+      </c>
+      <c r="R336" t="s">
+        <v>2573</v>
       </c>
       <c r="X336">
         <v>66</v>
@@ -85772,8 +87326,29 @@
       <c r="I337" t="s">
         <v>29</v>
       </c>
-      <c r="J337" s="12">
+      <c r="J337">
         <v>300152091</v>
+      </c>
+      <c r="K337" t="s">
+        <v>53</v>
+      </c>
+      <c r="L337" t="s">
+        <v>40</v>
+      </c>
+      <c r="S337" s="3">
+        <v>40179</v>
+      </c>
+      <c r="T337" s="3">
+        <v>40218</v>
+      </c>
+      <c r="U337" t="s">
+        <v>40</v>
+      </c>
+      <c r="V337" t="s">
+        <v>55</v>
+      </c>
+      <c r="W337" t="s">
+        <v>34</v>
       </c>
       <c r="X337">
         <v>35</v>
@@ -85819,8 +87394,11 @@
       <c r="I338" t="s">
         <v>29</v>
       </c>
-      <c r="J338" s="12">
+      <c r="J338">
         <v>300084429</v>
+      </c>
+      <c r="R338" t="s">
+        <v>2574</v>
       </c>
       <c r="X338">
         <v>81</v>
@@ -85866,8 +87444,29 @@
       <c r="I339" t="s">
         <v>29</v>
       </c>
-      <c r="J339" s="12">
+      <c r="J339">
         <v>104527</v>
+      </c>
+      <c r="K339" t="s">
+        <v>30</v>
+      </c>
+      <c r="L339" t="s">
+        <v>2575</v>
+      </c>
+      <c r="S339" s="3">
+        <v>40848</v>
+      </c>
+      <c r="T339" s="3">
+        <v>42480</v>
+      </c>
+      <c r="U339" t="s">
+        <v>41</v>
+      </c>
+      <c r="V339" t="s">
+        <v>2576</v>
+      </c>
+      <c r="W339" t="s">
+        <v>34</v>
       </c>
       <c r="X339">
         <v>59</v>
@@ -85913,8 +87512,29 @@
       <c r="I340" t="s">
         <v>29</v>
       </c>
-      <c r="J340" s="12">
+      <c r="J340">
         <v>684144</v>
+      </c>
+      <c r="K340" t="s">
+        <v>2493</v>
+      </c>
+      <c r="L340" t="s">
+        <v>2577</v>
+      </c>
+      <c r="S340" s="3">
+        <v>43176</v>
+      </c>
+      <c r="T340" s="3">
+        <v>43177</v>
+      </c>
+      <c r="U340" t="s">
+        <v>2535</v>
+      </c>
+      <c r="V340" t="s">
+        <v>157</v>
+      </c>
+      <c r="W340" t="s">
+        <v>157</v>
       </c>
       <c r="X340">
         <v>43</v>
@@ -85960,8 +87580,23 @@
       <c r="I341" t="s">
         <v>29</v>
       </c>
-      <c r="J341" s="12">
+      <c r="J341">
         <v>575650</v>
+      </c>
+      <c r="K341" t="s">
+        <v>53</v>
+      </c>
+      <c r="L341" t="s">
+        <v>40</v>
+      </c>
+      <c r="S341" s="3">
+        <v>43355</v>
+      </c>
+      <c r="V341" t="s">
+        <v>60</v>
+      </c>
+      <c r="W341" t="s">
+        <v>34</v>
       </c>
       <c r="X341">
         <v>40</v>
@@ -86007,8 +87642,23 @@
       <c r="I342" t="s">
         <v>29</v>
       </c>
-      <c r="J342" s="12">
+      <c r="J342">
         <v>45424</v>
+      </c>
+      <c r="K342" t="s">
+        <v>53</v>
+      </c>
+      <c r="L342" t="s">
+        <v>2578</v>
+      </c>
+      <c r="S342" s="3">
+        <v>32874</v>
+      </c>
+      <c r="V342" t="s">
+        <v>157</v>
+      </c>
+      <c r="W342" t="s">
+        <v>157</v>
       </c>
       <c r="X342">
         <v>58</v>
@@ -86054,8 +87704,29 @@
       <c r="I343" t="s">
         <v>29</v>
       </c>
-      <c r="J343" s="12">
+      <c r="J343">
         <v>300121638</v>
+      </c>
+      <c r="K343" t="s">
+        <v>30</v>
+      </c>
+      <c r="L343" t="s">
+        <v>2579</v>
+      </c>
+      <c r="S343" s="3">
+        <v>43344</v>
+      </c>
+      <c r="T343" s="3">
+        <v>43350</v>
+      </c>
+      <c r="U343" t="s">
+        <v>2579</v>
+      </c>
+      <c r="V343" t="s">
+        <v>60</v>
+      </c>
+      <c r="W343" t="s">
+        <v>34</v>
       </c>
       <c r="X343">
         <v>44</v>
@@ -86101,8 +87772,11 @@
       <c r="I344" t="s">
         <v>29</v>
       </c>
-      <c r="J344" s="12">
+      <c r="J344">
         <v>651459</v>
+      </c>
+      <c r="R344" t="s">
+        <v>2483</v>
       </c>
       <c r="X344">
         <v>31</v>
@@ -86148,8 +87822,11 @@
       <c r="I345" t="s">
         <v>29</v>
       </c>
-      <c r="J345" s="12">
+      <c r="J345">
         <v>191068</v>
+      </c>
+      <c r="R345" t="s">
+        <v>2574</v>
       </c>
       <c r="X345">
         <v>54</v>
@@ -86195,8 +87872,23 @@
       <c r="I346" t="s">
         <v>29</v>
       </c>
-      <c r="J346" s="12">
+      <c r="J346">
         <v>300106418</v>
+      </c>
+      <c r="K346" t="s">
+        <v>30</v>
+      </c>
+      <c r="L346" t="s">
+        <v>123</v>
+      </c>
+      <c r="S346" s="3">
+        <v>43191</v>
+      </c>
+      <c r="V346" t="s">
+        <v>2580</v>
+      </c>
+      <c r="W346" t="s">
+        <v>157</v>
       </c>
       <c r="X346">
         <v>34</v>
@@ -86242,8 +87934,11 @@
       <c r="I347" t="s">
         <v>29</v>
       </c>
-      <c r="J347" s="12">
+      <c r="J347">
         <v>173121</v>
+      </c>
+      <c r="R347" t="s">
+        <v>2581</v>
       </c>
       <c r="X347">
         <v>49</v>
@@ -86289,8 +87984,32 @@
       <c r="I348" t="s">
         <v>29</v>
       </c>
-      <c r="J348" s="12">
+      <c r="J348">
         <v>620034</v>
+      </c>
+      <c r="K348" t="s">
+        <v>30</v>
+      </c>
+      <c r="L348" t="s">
+        <v>32</v>
+      </c>
+      <c r="R348" t="s">
+        <v>2527</v>
+      </c>
+      <c r="S348" s="3">
+        <v>40634</v>
+      </c>
+      <c r="T348" s="3">
+        <v>40695</v>
+      </c>
+      <c r="U348" t="s">
+        <v>211</v>
+      </c>
+      <c r="V348" s="12" t="s">
+        <v>2516</v>
+      </c>
+      <c r="W348" t="s">
+        <v>34</v>
       </c>
       <c r="X348">
         <v>84</v>
@@ -86336,8 +88055,26 @@
       <c r="I349" t="s">
         <v>29</v>
       </c>
-      <c r="J349" s="12">
+      <c r="J349">
         <v>300074226</v>
+      </c>
+      <c r="K349" t="s">
+        <v>30</v>
+      </c>
+      <c r="L349" t="s">
+        <v>32</v>
+      </c>
+      <c r="R349" t="s">
+        <v>2499</v>
+      </c>
+      <c r="S349" s="3">
+        <v>42899</v>
+      </c>
+      <c r="V349" t="s">
+        <v>96</v>
+      </c>
+      <c r="W349" t="s">
+        <v>34</v>
       </c>
       <c r="X349">
         <v>61</v>
@@ -86383,8 +88120,23 @@
       <c r="I350" t="s">
         <v>29</v>
       </c>
-      <c r="J350" s="12">
+      <c r="J350">
         <v>300044898</v>
+      </c>
+      <c r="K350" t="s">
+        <v>53</v>
+      </c>
+      <c r="L350" t="s">
+        <v>123</v>
+      </c>
+      <c r="S350" s="3">
+        <v>43678</v>
+      </c>
+      <c r="V350" t="s">
+        <v>2509</v>
+      </c>
+      <c r="W350" t="s">
+        <v>157</v>
       </c>
       <c r="X350">
         <v>32</v>
@@ -86430,8 +88182,11 @@
       <c r="I351" t="s">
         <v>29</v>
       </c>
-      <c r="J351" s="12">
+      <c r="J351">
         <v>283505</v>
+      </c>
+      <c r="R351" t="s">
+        <v>2574</v>
       </c>
       <c r="X351">
         <v>80</v>
@@ -86477,8 +88232,29 @@
       <c r="I352" t="s">
         <v>29</v>
       </c>
-      <c r="J352" s="12">
+      <c r="J352">
         <v>499740</v>
+      </c>
+      <c r="K352" t="s">
+        <v>30</v>
+      </c>
+      <c r="L352" t="s">
+        <v>40</v>
+      </c>
+      <c r="S352" s="3">
+        <v>42767</v>
+      </c>
+      <c r="T352" s="3">
+        <v>42907</v>
+      </c>
+      <c r="U352" t="s">
+        <v>161</v>
+      </c>
+      <c r="V352" t="s">
+        <v>2582</v>
+      </c>
+      <c r="W352" t="s">
+        <v>34</v>
       </c>
       <c r="X352">
         <v>67</v>
@@ -86524,8 +88300,11 @@
       <c r="I353" t="s">
         <v>29</v>
       </c>
-      <c r="J353" s="12">
+      <c r="J353">
         <v>300114354</v>
+      </c>
+      <c r="R353" t="s">
+        <v>2483</v>
       </c>
       <c r="X353">
         <v>22</v>
@@ -86571,8 +88350,11 @@
       <c r="I354" t="s">
         <v>29</v>
       </c>
-      <c r="J354" s="12">
+      <c r="J354">
         <v>154328</v>
+      </c>
+      <c r="R354" t="s">
+        <v>2483</v>
       </c>
       <c r="X354">
         <v>47</v>
@@ -86618,8 +88400,32 @@
       <c r="I355" t="s">
         <v>29</v>
       </c>
-      <c r="J355" s="12">
+      <c r="J355">
         <v>300047272</v>
+      </c>
+      <c r="K355" t="s">
+        <v>2493</v>
+      </c>
+      <c r="L355" t="s">
+        <v>40</v>
+      </c>
+      <c r="R355" t="s">
+        <v>2583</v>
+      </c>
+      <c r="S355" s="3">
+        <v>42739</v>
+      </c>
+      <c r="T355" s="3">
+        <v>42741</v>
+      </c>
+      <c r="U355" t="s">
+        <v>40</v>
+      </c>
+      <c r="V355" t="s">
+        <v>60</v>
+      </c>
+      <c r="W355" t="s">
+        <v>34</v>
       </c>
       <c r="X355">
         <v>60</v>
@@ -86665,8 +88471,29 @@
       <c r="I356" t="s">
         <v>29</v>
       </c>
-      <c r="J356" s="12">
+      <c r="J356">
         <v>723940</v>
+      </c>
+      <c r="K356" t="s">
+        <v>30</v>
+      </c>
+      <c r="L356" t="s">
+        <v>211</v>
+      </c>
+      <c r="S356" s="3">
+        <v>41733</v>
+      </c>
+      <c r="T356" s="3">
+        <v>41780</v>
+      </c>
+      <c r="U356" t="s">
+        <v>40</v>
+      </c>
+      <c r="V356" t="s">
+        <v>2564</v>
+      </c>
+      <c r="W356" t="s">
+        <v>34</v>
       </c>
       <c r="X356">
         <v>53</v>
@@ -86712,8 +88539,23 @@
       <c r="I357" t="s">
         <v>29</v>
       </c>
-      <c r="J357" s="12">
+      <c r="J357">
         <v>167603</v>
+      </c>
+      <c r="K357" t="s">
+        <v>30</v>
+      </c>
+      <c r="L357" t="s">
+        <v>123</v>
+      </c>
+      <c r="S357" s="3">
+        <v>42248</v>
+      </c>
+      <c r="V357" t="s">
+        <v>2505</v>
+      </c>
+      <c r="W357" t="s">
+        <v>34</v>
       </c>
       <c r="X357">
         <v>86</v>
@@ -86759,8 +88601,29 @@
       <c r="I358" t="s">
         <v>29</v>
       </c>
-      <c r="J358" s="12">
+      <c r="J358">
         <v>56082</v>
+      </c>
+      <c r="K358" t="s">
+        <v>30</v>
+      </c>
+      <c r="L358" t="s">
+        <v>2457</v>
+      </c>
+      <c r="S358" s="3">
+        <v>42917</v>
+      </c>
+      <c r="T358" s="3">
+        <v>43203</v>
+      </c>
+      <c r="U358" t="s">
+        <v>211</v>
+      </c>
+      <c r="V358" t="s">
+        <v>2564</v>
+      </c>
+      <c r="W358" t="s">
+        <v>34</v>
       </c>
       <c r="X358">
         <v>52</v>
@@ -86806,8 +88669,29 @@
       <c r="I359" t="s">
         <v>29</v>
       </c>
-      <c r="J359" s="12">
+      <c r="J359">
         <v>549528</v>
+      </c>
+      <c r="K359" t="s">
+        <v>30</v>
+      </c>
+      <c r="L359" t="s">
+        <v>130</v>
+      </c>
+      <c r="S359" s="3">
+        <v>39994</v>
+      </c>
+      <c r="T359" s="3">
+        <v>40065</v>
+      </c>
+      <c r="U359" t="s">
+        <v>2584</v>
+      </c>
+      <c r="V359" t="s">
+        <v>60</v>
+      </c>
+      <c r="W359" t="s">
+        <v>34</v>
       </c>
       <c r="X359">
         <v>63</v>
@@ -86853,8 +88737,11 @@
       <c r="I360" t="s">
         <v>29</v>
       </c>
-      <c r="J360" s="12">
+      <c r="J360">
         <v>216530</v>
+      </c>
+      <c r="R360" t="s">
+        <v>2585</v>
       </c>
       <c r="X360">
         <v>61</v>
@@ -86900,8 +88787,32 @@
       <c r="I361" t="s">
         <v>29</v>
       </c>
-      <c r="J361" s="12">
+      <c r="J361">
         <v>351066</v>
+      </c>
+      <c r="K361" t="s">
+        <v>30</v>
+      </c>
+      <c r="L361" t="s">
+        <v>40</v>
+      </c>
+      <c r="R361" t="s">
+        <v>2527</v>
+      </c>
+      <c r="S361" s="3">
+        <v>37257</v>
+      </c>
+      <c r="T361" s="3">
+        <v>37653</v>
+      </c>
+      <c r="U361" t="s">
+        <v>2556</v>
+      </c>
+      <c r="V361" t="s">
+        <v>2586</v>
+      </c>
+      <c r="W361" t="s">
+        <v>34</v>
       </c>
       <c r="X361">
         <v>71</v>
@@ -86947,8 +88858,11 @@
       <c r="I362" t="s">
         <v>29</v>
       </c>
-      <c r="J362" s="12">
+      <c r="J362">
         <v>25257</v>
+      </c>
+      <c r="R362" t="s">
+        <v>2587</v>
       </c>
       <c r="X362">
         <v>65</v>
@@ -86994,8 +88908,29 @@
       <c r="I363" t="s">
         <v>29</v>
       </c>
-      <c r="J363" s="12">
+      <c r="J363">
         <v>399660</v>
+      </c>
+      <c r="L363" t="s">
+        <v>40</v>
+      </c>
+      <c r="R363" t="s">
+        <v>2499</v>
+      </c>
+      <c r="S363" s="3">
+        <v>38022</v>
+      </c>
+      <c r="T363" s="3">
+        <v>38037</v>
+      </c>
+      <c r="U363" t="s">
+        <v>40</v>
+      </c>
+      <c r="V363" t="s">
+        <v>96</v>
+      </c>
+      <c r="W363" t="s">
+        <v>34</v>
       </c>
       <c r="X363">
         <v>48</v>
@@ -87041,8 +88976,11 @@
       <c r="I364" t="s">
         <v>29</v>
       </c>
-      <c r="J364" s="12">
+      <c r="J364">
         <v>6144</v>
+      </c>
+      <c r="R364" t="s">
+        <v>2483</v>
       </c>
       <c r="X364">
         <v>63</v>
@@ -87088,8 +89026,11 @@
       <c r="I365" t="s">
         <v>29</v>
       </c>
-      <c r="J365" s="12">
+      <c r="J365">
         <v>300122384</v>
+      </c>
+      <c r="R365" t="s">
+        <v>2574</v>
       </c>
       <c r="X365">
         <v>63</v>
@@ -87135,8 +89076,26 @@
       <c r="I366" t="s">
         <v>29</v>
       </c>
-      <c r="J366" s="12">
+      <c r="J366">
         <v>182568</v>
+      </c>
+      <c r="K366" t="s">
+        <v>53</v>
+      </c>
+      <c r="L366" t="s">
+        <v>40</v>
+      </c>
+      <c r="R366" t="s">
+        <v>2588</v>
+      </c>
+      <c r="S366" s="3">
+        <v>43620</v>
+      </c>
+      <c r="V366" t="s">
+        <v>2589</v>
+      </c>
+      <c r="W366" t="s">
+        <v>34</v>
       </c>
       <c r="X366">
         <v>56</v>
@@ -87182,8 +89141,26 @@
       <c r="I367" t="s">
         <v>29</v>
       </c>
-      <c r="J367" s="12">
+      <c r="J367">
         <v>701124</v>
+      </c>
+      <c r="K367" t="s">
+        <v>53</v>
+      </c>
+      <c r="L367" t="s">
+        <v>40</v>
+      </c>
+      <c r="R367" t="s">
+        <v>2499</v>
+      </c>
+      <c r="S367" s="3">
+        <v>42892</v>
+      </c>
+      <c r="V367" t="s">
+        <v>96</v>
+      </c>
+      <c r="W367" t="s">
+        <v>34</v>
       </c>
       <c r="X367">
         <v>22</v>
@@ -87229,8 +89206,23 @@
       <c r="I368" t="s">
         <v>29</v>
       </c>
-      <c r="J368" s="12">
+      <c r="J368">
         <v>300129549</v>
+      </c>
+      <c r="K368" t="s">
+        <v>30</v>
+      </c>
+      <c r="L368" t="s">
+        <v>40</v>
+      </c>
+      <c r="S368" s="3">
+        <v>43415</v>
+      </c>
+      <c r="V368" t="s">
+        <v>42</v>
+      </c>
+      <c r="W368" t="s">
+        <v>34</v>
       </c>
       <c r="X368">
         <v>62</v>
@@ -87276,8 +89268,29 @@
       <c r="I369" t="s">
         <v>29</v>
       </c>
-      <c r="J369" s="12">
+      <c r="J369">
         <v>281721</v>
+      </c>
+      <c r="K369" t="s">
+        <v>30</v>
+      </c>
+      <c r="L369" t="s">
+        <v>2590</v>
+      </c>
+      <c r="S369" s="3">
+        <v>41333</v>
+      </c>
+      <c r="T369" s="3">
+        <v>41337</v>
+      </c>
+      <c r="U369" t="s">
+        <v>40</v>
+      </c>
+      <c r="V369" t="s">
+        <v>2591</v>
+      </c>
+      <c r="W369" t="s">
+        <v>157</v>
       </c>
       <c r="X369">
         <v>28</v>
@@ -87323,8 +89336,23 @@
       <c r="I370" t="s">
         <v>29</v>
       </c>
-      <c r="J370" s="12">
+      <c r="J370">
         <v>700119</v>
+      </c>
+      <c r="K370" t="s">
+        <v>30</v>
+      </c>
+      <c r="L370" t="s">
+        <v>123</v>
+      </c>
+      <c r="S370" s="3">
+        <v>41519</v>
+      </c>
+      <c r="V370" t="s">
+        <v>157</v>
+      </c>
+      <c r="W370" t="s">
+        <v>157</v>
       </c>
       <c r="X370">
         <v>37</v>
@@ -87370,8 +89398,23 @@
       <c r="I371" t="s">
         <v>29</v>
       </c>
-      <c r="J371" s="12">
+      <c r="J371">
         <v>530198</v>
+      </c>
+      <c r="K371" t="s">
+        <v>30</v>
+      </c>
+      <c r="L371" t="s">
+        <v>2592</v>
+      </c>
+      <c r="S371" s="3">
+        <v>42299</v>
+      </c>
+      <c r="V371" t="s">
+        <v>2593</v>
+      </c>
+      <c r="W371" t="s">
+        <v>34</v>
       </c>
       <c r="X371">
         <v>77</v>
@@ -87417,8 +89460,29 @@
       <c r="I372" t="s">
         <v>29</v>
       </c>
-      <c r="J372" s="12">
+      <c r="J372">
         <v>313724</v>
+      </c>
+      <c r="K372" t="s">
+        <v>30</v>
+      </c>
+      <c r="L372" t="s">
+        <v>2594</v>
+      </c>
+      <c r="S372" s="3">
+        <v>36526</v>
+      </c>
+      <c r="T372" s="3">
+        <v>36857</v>
+      </c>
+      <c r="U372" t="s">
+        <v>32</v>
+      </c>
+      <c r="V372" t="s">
+        <v>2595</v>
+      </c>
+      <c r="W372" t="s">
+        <v>34</v>
       </c>
       <c r="X372">
         <v>69</v>
@@ -87464,8 +89528,11 @@
       <c r="I373" t="s">
         <v>29</v>
       </c>
-      <c r="J373" s="12">
+      <c r="J373">
         <v>340430</v>
+      </c>
+      <c r="R373" t="s">
+        <v>2596</v>
       </c>
       <c r="X373">
         <v>63</v>
@@ -87511,8 +89578,23 @@
       <c r="I374" t="s">
         <v>29</v>
       </c>
-      <c r="J374" s="12">
+      <c r="J374">
         <v>492322</v>
+      </c>
+      <c r="K374" t="s">
+        <v>53</v>
+      </c>
+      <c r="L374" t="s">
+        <v>117</v>
+      </c>
+      <c r="S374" s="3">
+        <v>42948</v>
+      </c>
+      <c r="V374" t="s">
+        <v>60</v>
+      </c>
+      <c r="W374" t="s">
+        <v>34</v>
       </c>
       <c r="X374">
         <v>84</v>
@@ -87558,8 +89640,29 @@
       <c r="I375" t="s">
         <v>29</v>
       </c>
-      <c r="J375" s="12">
+      <c r="J375">
         <v>174877</v>
+      </c>
+      <c r="K375" t="s">
+        <v>30</v>
+      </c>
+      <c r="L375" t="s">
+        <v>40</v>
+      </c>
+      <c r="S375" s="3">
+        <v>35217</v>
+      </c>
+      <c r="T375" s="3">
+        <v>35217</v>
+      </c>
+      <c r="U375" t="s">
+        <v>2597</v>
+      </c>
+      <c r="V375" t="s">
+        <v>55</v>
+      </c>
+      <c r="W375" t="s">
+        <v>34</v>
       </c>
       <c r="X375">
         <v>57</v>
@@ -87605,8 +89708,29 @@
       <c r="I376" t="s">
         <v>29</v>
       </c>
-      <c r="J376" s="12">
+      <c r="J376">
         <v>132963</v>
+      </c>
+      <c r="K376" t="s">
+        <v>30</v>
+      </c>
+      <c r="L376" t="s">
+        <v>32</v>
+      </c>
+      <c r="S376" s="3">
+        <v>39742</v>
+      </c>
+      <c r="T376" s="3">
+        <v>39804</v>
+      </c>
+      <c r="U376" t="s">
+        <v>2597</v>
+      </c>
+      <c r="V376" t="s">
+        <v>2598</v>
+      </c>
+      <c r="W376" t="s">
+        <v>34</v>
       </c>
       <c r="X376">
         <v>72</v>
@@ -87652,8 +89776,11 @@
       <c r="I377" t="s">
         <v>29</v>
       </c>
-      <c r="J377" s="12">
+      <c r="J377">
         <v>321335</v>
+      </c>
+      <c r="R377" t="s">
+        <v>2499</v>
       </c>
       <c r="X377">
         <v>18</v>
@@ -87699,8 +89826,32 @@
       <c r="I378" t="s">
         <v>29</v>
       </c>
-      <c r="J378" s="12">
+      <c r="J378">
         <v>532803</v>
+      </c>
+      <c r="K378" t="s">
+        <v>30</v>
+      </c>
+      <c r="L378" t="s">
+        <v>2592</v>
+      </c>
+      <c r="R378" t="s">
+        <v>2599</v>
+      </c>
+      <c r="S378" s="3">
+        <v>39448</v>
+      </c>
+      <c r="T378" s="3">
+        <v>39722</v>
+      </c>
+      <c r="U378" t="s">
+        <v>2592</v>
+      </c>
+      <c r="V378" t="s">
+        <v>96</v>
+      </c>
+      <c r="W378" t="s">
+        <v>34</v>
       </c>
       <c r="X378">
         <v>78</v>
@@ -87746,8 +89897,26 @@
       <c r="I379" t="s">
         <v>29</v>
       </c>
-      <c r="J379" s="12">
+      <c r="J379">
         <v>21106</v>
+      </c>
+      <c r="K379" t="s">
+        <v>53</v>
+      </c>
+      <c r="L379" t="s">
+        <v>32</v>
+      </c>
+      <c r="R379" t="s">
+        <v>2527</v>
+      </c>
+      <c r="S379" s="3">
+        <v>42552</v>
+      </c>
+      <c r="V379" t="s">
+        <v>60</v>
+      </c>
+      <c r="W379" t="s">
+        <v>34</v>
       </c>
       <c r="X379">
         <v>64</v>
@@ -87793,8 +89962,26 @@
       <c r="I380" t="s">
         <v>29</v>
       </c>
-      <c r="J380" s="12">
+      <c r="J380">
         <v>361426</v>
+      </c>
+      <c r="K380" t="s">
+        <v>53</v>
+      </c>
+      <c r="L380" t="s">
+        <v>40</v>
+      </c>
+      <c r="R380" t="s">
+        <v>2499</v>
+      </c>
+      <c r="S380" s="3">
+        <v>43067</v>
+      </c>
+      <c r="V380" t="s">
+        <v>96</v>
+      </c>
+      <c r="W380" t="s">
+        <v>34</v>
       </c>
       <c r="X380">
         <v>71</v>
@@ -87840,8 +90027,20 @@
       <c r="I381" t="s">
         <v>29</v>
       </c>
-      <c r="J381" s="12">
+      <c r="J381">
         <v>300096301</v>
+      </c>
+      <c r="K381" t="s">
+        <v>53</v>
+      </c>
+      <c r="L381" t="s">
+        <v>123</v>
+      </c>
+      <c r="S381" s="3">
+        <v>33604</v>
+      </c>
+      <c r="W381" t="s">
+        <v>157</v>
       </c>
       <c r="X381">
         <v>50</v>
@@ -87887,8 +90086,29 @@
       <c r="I382" t="s">
         <v>29</v>
       </c>
-      <c r="J382" s="12">
+      <c r="J382">
         <v>622020</v>
+      </c>
+      <c r="K382" t="s">
+        <v>30</v>
+      </c>
+      <c r="L382" t="s">
+        <v>211</v>
+      </c>
+      <c r="S382" s="3">
+        <v>40603</v>
+      </c>
+      <c r="T382" s="3">
+        <v>40725</v>
+      </c>
+      <c r="U382" t="s">
+        <v>2506</v>
+      </c>
+      <c r="V382" t="s">
+        <v>2564</v>
+      </c>
+      <c r="W382" t="s">
+        <v>34</v>
       </c>
       <c r="X382">
         <v>37</v>
@@ -87934,8 +90154,11 @@
       <c r="I383" t="s">
         <v>29</v>
       </c>
-      <c r="J383" s="12">
+      <c r="J383">
         <v>208064</v>
+      </c>
+      <c r="R383" t="s">
+        <v>2600</v>
       </c>
       <c r="X383">
         <v>21</v>
@@ -87981,8 +90204,32 @@
       <c r="I384" t="s">
         <v>29</v>
       </c>
-      <c r="J384" s="12">
+      <c r="J384">
         <v>324929</v>
+      </c>
+      <c r="K384" t="s">
+        <v>53</v>
+      </c>
+      <c r="L384" t="s">
+        <v>123</v>
+      </c>
+      <c r="R384" t="s">
+        <v>2530</v>
+      </c>
+      <c r="S384" s="3">
+        <v>37012</v>
+      </c>
+      <c r="T384" s="3">
+        <v>37012</v>
+      </c>
+      <c r="U384" t="s">
+        <v>123</v>
+      </c>
+      <c r="V384" t="s">
+        <v>157</v>
+      </c>
+      <c r="W384" t="s">
+        <v>157</v>
       </c>
       <c r="X384">
         <v>39</v>
@@ -88028,8 +90275,32 @@
       <c r="I385" t="s">
         <v>29</v>
       </c>
-      <c r="J385" s="12">
+      <c r="J385">
         <v>666184</v>
+      </c>
+      <c r="K385" t="s">
+        <v>30</v>
+      </c>
+      <c r="L385" t="s">
+        <v>40</v>
+      </c>
+      <c r="R385" t="s">
+        <v>2527</v>
+      </c>
+      <c r="S385" s="3">
+        <v>41166</v>
+      </c>
+      <c r="T385" s="3">
+        <v>41171</v>
+      </c>
+      <c r="U385" t="s">
+        <v>40</v>
+      </c>
+      <c r="V385" t="s">
+        <v>55</v>
+      </c>
+      <c r="W385" t="s">
+        <v>34</v>
       </c>
       <c r="X385">
         <v>69</v>
@@ -88078,6 +90349,10 @@
       <c r="J386" s="12">
         <v>42122</v>
       </c>
+      <c r="R386" t="s">
+        <v>2601</v>
+      </c>
+      <c r="T386" s="3"/>
       <c r="X386">
         <v>68</v>
       </c>
@@ -88122,8 +90397,11 @@
       <c r="I387" t="s">
         <v>29</v>
       </c>
-      <c r="J387" s="12">
+      <c r="J387">
         <v>280400</v>
+      </c>
+      <c r="R387" t="s">
+        <v>2527</v>
       </c>
       <c r="X387">
         <v>77</v>
@@ -88169,8 +90447,29 @@
       <c r="I388" t="s">
         <v>29</v>
       </c>
-      <c r="J388" s="12">
+      <c r="J388">
         <v>507018</v>
+      </c>
+      <c r="K388" t="s">
+        <v>30</v>
+      </c>
+      <c r="L388" t="s">
+        <v>40</v>
+      </c>
+      <c r="S388" s="3">
+        <v>39083</v>
+      </c>
+      <c r="T388" s="3">
+        <v>39426</v>
+      </c>
+      <c r="U388" t="s">
+        <v>40</v>
+      </c>
+      <c r="V388" t="s">
+        <v>2602</v>
+      </c>
+      <c r="W388" t="s">
+        <v>34</v>
       </c>
       <c r="X388">
         <v>79</v>
@@ -88216,8 +90515,29 @@
       <c r="I389" t="s">
         <v>29</v>
       </c>
-      <c r="J389" s="12">
+      <c r="J389">
         <v>82045</v>
+      </c>
+      <c r="K389" t="s">
+        <v>30</v>
+      </c>
+      <c r="L389" t="s">
+        <v>40</v>
+      </c>
+      <c r="S389" s="3">
+        <v>32509</v>
+      </c>
+      <c r="T389" s="3">
+        <v>32509</v>
+      </c>
+      <c r="U389" t="s">
+        <v>2592</v>
+      </c>
+      <c r="V389" t="s">
+        <v>2564</v>
+      </c>
+      <c r="W389" t="s">
+        <v>34</v>
       </c>
       <c r="X389">
         <v>46</v>
@@ -88263,8 +90583,11 @@
       <c r="I390" t="s">
         <v>29</v>
       </c>
-      <c r="J390" s="12">
+      <c r="J390">
         <v>637765</v>
+      </c>
+      <c r="R390" t="s">
+        <v>2603</v>
       </c>
       <c r="X390">
         <v>60</v>
@@ -88310,8 +90633,11 @@
       <c r="I391" t="s">
         <v>29</v>
       </c>
-      <c r="J391" s="12">
+      <c r="J391">
         <v>343401</v>
+      </c>
+      <c r="R391" t="s">
+        <v>2483</v>
       </c>
       <c r="X391">
         <v>66</v>
@@ -88357,8 +90683,23 @@
       <c r="I392" t="s">
         <v>29</v>
       </c>
-      <c r="J392" s="12">
+      <c r="J392">
         <v>619270</v>
+      </c>
+      <c r="K392" t="s">
+        <v>53</v>
+      </c>
+      <c r="L392" t="s">
+        <v>40</v>
+      </c>
+      <c r="S392" s="3">
+        <v>40644</v>
+      </c>
+      <c r="V392" t="s">
+        <v>60</v>
+      </c>
+      <c r="W392" t="s">
+        <v>34</v>
       </c>
       <c r="X392">
         <v>61</v>
@@ -88404,8 +90745,11 @@
       <c r="I393" t="s">
         <v>29</v>
       </c>
-      <c r="J393" s="12">
+      <c r="J393">
         <v>461189</v>
+      </c>
+      <c r="R393" t="s">
+        <v>2483</v>
       </c>
       <c r="X393">
         <v>42</v>
@@ -88451,8 +90795,11 @@
       <c r="I394" t="s">
         <v>29</v>
       </c>
-      <c r="J394" s="12">
+      <c r="J394">
         <v>724505</v>
+      </c>
+      <c r="R394" t="s">
+        <v>2483</v>
       </c>
       <c r="X394">
         <v>48</v>
@@ -88498,9 +90845,13 @@
       <c r="I395" t="s">
         <v>196</v>
       </c>
-      <c r="J395" s="12">
+      <c r="J395">
         <v>183134</v>
       </c>
+      <c r="R395" t="s">
+        <v>2483</v>
+      </c>
+      <c r="S395" s="3"/>
       <c r="X395">
         <v>83</v>
       </c>
@@ -88545,8 +90896,17 @@
       <c r="I396" t="s">
         <v>29</v>
       </c>
-      <c r="J396" s="12">
+      <c r="J396">
         <v>550831</v>
+      </c>
+      <c r="L396" t="s">
+        <v>2592</v>
+      </c>
+      <c r="R396" t="s">
+        <v>2604</v>
+      </c>
+      <c r="S396" s="3">
+        <v>43313</v>
       </c>
       <c r="X396">
         <v>51</v>
@@ -88592,8 +90952,29 @@
       <c r="I397" t="s">
         <v>196</v>
       </c>
-      <c r="J397" s="12">
+      <c r="J397">
         <v>300131786</v>
+      </c>
+      <c r="K397" t="s">
+        <v>30</v>
+      </c>
+      <c r="L397" t="s">
+        <v>40</v>
+      </c>
+      <c r="S397" s="3">
+        <v>38353</v>
+      </c>
+      <c r="T397" s="3">
+        <v>38534</v>
+      </c>
+      <c r="U397" t="s">
+        <v>40</v>
+      </c>
+      <c r="V397" t="s">
+        <v>2605</v>
+      </c>
+      <c r="W397" t="s">
+        <v>34</v>
       </c>
       <c r="X397">
         <v>47</v>
@@ -88639,8 +91020,11 @@
       <c r="I398" t="s">
         <v>29</v>
       </c>
-      <c r="J398" s="12">
+      <c r="J398">
         <v>300081640</v>
+      </c>
+      <c r="R398" t="s">
+        <v>2483</v>
       </c>
       <c r="X398">
         <v>37</v>
@@ -88686,8 +91070,11 @@
       <c r="I399" t="s">
         <v>29</v>
       </c>
-      <c r="J399" s="12">
+      <c r="J399">
         <v>300080205</v>
+      </c>
+      <c r="R399" t="s">
+        <v>2483</v>
       </c>
       <c r="X399">
         <v>37</v>
@@ -88733,8 +91120,11 @@
       <c r="I400" t="s">
         <v>29</v>
       </c>
-      <c r="J400" s="12">
+      <c r="J400">
         <v>218332</v>
+      </c>
+      <c r="R400" t="s">
+        <v>2483</v>
       </c>
       <c r="X400">
         <v>58</v>
@@ -88780,8 +91170,23 @@
       <c r="I401" t="s">
         <v>29</v>
       </c>
-      <c r="J401" s="12">
+      <c r="J401">
         <v>100037</v>
+      </c>
+      <c r="K401" t="s">
+        <v>53</v>
+      </c>
+      <c r="L401" t="s">
+        <v>40</v>
+      </c>
+      <c r="S401" s="3">
+        <v>43164</v>
+      </c>
+      <c r="V401" t="s">
+        <v>33</v>
+      </c>
+      <c r="W401" t="s">
+        <v>34</v>
       </c>
       <c r="X401">
         <v>53</v>
@@ -88827,8 +91232,11 @@
       <c r="I402" t="s">
         <v>29</v>
       </c>
-      <c r="J402" s="12">
+      <c r="J402">
         <v>300133687</v>
+      </c>
+      <c r="R402" t="s">
+        <v>2483</v>
       </c>
       <c r="X402">
         <v>33</v>
@@ -88874,8 +91282,11 @@
       <c r="I403" t="s">
         <v>29</v>
       </c>
-      <c r="J403" s="12">
+      <c r="J403">
         <v>300132501</v>
+      </c>
+      <c r="R403" t="s">
+        <v>2483</v>
       </c>
       <c r="X403">
         <v>37</v>
@@ -88921,7 +91332,7 @@
       <c r="I404" t="s">
         <v>29</v>
       </c>
-      <c r="J404" s="12">
+      <c r="J404">
         <v>560863</v>
       </c>
       <c r="K404" t="s">
@@ -88931,10 +91342,10 @@
         <v>32</v>
       </c>
       <c r="M404" t="s">
-        <v>2519</v>
+        <v>2606</v>
       </c>
       <c r="N404" t="s">
-        <v>2520</v>
+        <v>2607</v>
       </c>
       <c r="O404">
         <v>607</v>
@@ -88998,7 +91409,7 @@
       <c r="I405" t="s">
         <v>29</v>
       </c>
-      <c r="J405" s="12">
+      <c r="J405">
         <v>459429</v>
       </c>
       <c r="K405" t="s">
@@ -89008,10 +91419,10 @@
         <v>40</v>
       </c>
       <c r="M405" t="s">
-        <v>2521</v>
+        <v>2608</v>
       </c>
       <c r="N405" t="s">
-        <v>2522</v>
+        <v>2609</v>
       </c>
       <c r="O405">
         <v>703</v>
@@ -89078,11 +91489,11 @@
       <c r="I406" t="s">
         <v>196</v>
       </c>
-      <c r="J406" s="12">
+      <c r="J406">
         <v>300127746</v>
       </c>
       <c r="R406" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X406">
         <v>68</v>
@@ -89128,11 +91539,11 @@
       <c r="I407" t="s">
         <v>196</v>
       </c>
-      <c r="J407" s="12">
+      <c r="J407">
         <v>300022448</v>
       </c>
       <c r="R407" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X407">
         <v>75</v>
@@ -89178,7 +91589,7 @@
       <c r="I408" t="s">
         <v>29</v>
       </c>
-      <c r="J408" s="12">
+      <c r="J408">
         <v>580485</v>
       </c>
       <c r="K408" t="s">
@@ -89188,7 +91599,7 @@
         <v>40</v>
       </c>
       <c r="M408" t="s">
-        <v>2523</v>
+        <v>2610</v>
       </c>
       <c r="O408">
         <v>524</v>
@@ -89252,11 +91663,11 @@
       <c r="I409" t="s">
         <v>29</v>
       </c>
-      <c r="J409" s="12">
+      <c r="J409">
         <v>356919</v>
       </c>
       <c r="R409" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X409">
         <v>69</v>
@@ -89302,7 +91713,7 @@
       <c r="I410" t="s">
         <v>29</v>
       </c>
-      <c r="J410" s="12">
+      <c r="J410">
         <v>17081</v>
       </c>
       <c r="K410" t="s">
@@ -89312,10 +91723,10 @@
         <v>40</v>
       </c>
       <c r="M410" t="s">
-        <v>2524</v>
+        <v>2611</v>
       </c>
       <c r="N410" t="s">
-        <v>2525</v>
+        <v>2612</v>
       </c>
       <c r="O410">
         <v>766</v>
@@ -89379,11 +91790,11 @@
       <c r="I411" t="s">
         <v>196</v>
       </c>
-      <c r="J411" s="12">
+      <c r="J411">
         <v>63087</v>
       </c>
       <c r="R411" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X411">
         <v>58</v>
@@ -89429,17 +91840,17 @@
       <c r="I412" t="s">
         <v>29</v>
       </c>
-      <c r="J412" s="12">
+      <c r="J412">
         <v>300081806</v>
       </c>
       <c r="K412" t="s">
         <v>30</v>
       </c>
       <c r="L412" s="7" t="s">
-        <v>2526</v>
+        <v>2613</v>
       </c>
       <c r="R412" t="s">
-        <v>2527</v>
+        <v>2614</v>
       </c>
       <c r="S412" s="3">
         <v>43014</v>
@@ -89448,7 +91859,7 @@
         <v>43025</v>
       </c>
       <c r="U412" t="s">
-        <v>2526</v>
+        <v>2613</v>
       </c>
       <c r="V412" t="s">
         <v>60</v>
@@ -89500,7 +91911,7 @@
       <c r="I413" t="s">
         <v>29</v>
       </c>
-      <c r="J413" s="12">
+      <c r="J413">
         <v>591096</v>
       </c>
       <c r="K413" t="s">
@@ -89510,7 +91921,7 @@
         <v>182</v>
       </c>
       <c r="M413" t="s">
-        <v>2528</v>
+        <v>2615</v>
       </c>
       <c r="S413" s="3">
         <v>40330</v>
@@ -89518,7 +91929,7 @@
       <c r="T413" s="3">
         <v>40339</v>
       </c>
-      <c r="U413" s="9" t="s">
+      <c r="U413" s="8" t="s">
         <v>182</v>
       </c>
       <c r="V413" t="s">
@@ -89571,17 +91982,17 @@
       <c r="I414" t="s">
         <v>29</v>
       </c>
-      <c r="J414" s="12">
+      <c r="J414">
         <v>300120796</v>
       </c>
       <c r="K414" t="s">
         <v>2465</v>
       </c>
       <c r="V414" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="W414" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="X414">
         <v>19</v>
@@ -89627,17 +92038,17 @@
       <c r="I415" t="s">
         <v>29</v>
       </c>
-      <c r="J415" s="12">
+      <c r="J415">
         <v>300057765</v>
       </c>
       <c r="K415" t="s">
         <v>2465</v>
       </c>
       <c r="V415" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="W415" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="X415">
         <v>62</v>
@@ -89683,17 +92094,17 @@
       <c r="I416" t="s">
         <v>29</v>
       </c>
-      <c r="J416" s="12">
+      <c r="J416">
         <v>516450</v>
       </c>
       <c r="K416" t="s">
         <v>2465</v>
       </c>
       <c r="V416" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="W416" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="X416">
         <v>34</v>
@@ -89739,11 +92150,11 @@
       <c r="I417" t="s">
         <v>29</v>
       </c>
-      <c r="J417" s="12">
+      <c r="J417">
         <v>239507</v>
       </c>
       <c r="R417" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X417">
         <v>61</v>
@@ -89789,7 +92200,7 @@
       <c r="I418" t="s">
         <v>29</v>
       </c>
-      <c r="J418" s="12">
+      <c r="J418">
         <v>277197</v>
       </c>
       <c r="K418" t="s">
@@ -89799,7 +92210,7 @@
         <v>117</v>
       </c>
       <c r="M418" t="s">
-        <v>2530</v>
+        <v>2616</v>
       </c>
       <c r="S418" s="3">
         <v>38777</v>
@@ -89860,7 +92271,7 @@
       <c r="I419" t="s">
         <v>29</v>
       </c>
-      <c r="J419" s="12">
+      <c r="J419">
         <v>300063047</v>
       </c>
       <c r="K419" t="s">
@@ -89870,7 +92281,7 @@
         <v>40</v>
       </c>
       <c r="N419" t="s">
-        <v>2531</v>
+        <v>2617</v>
       </c>
       <c r="O419">
         <v>532</v>
@@ -89934,7 +92345,7 @@
       <c r="I420" t="s">
         <v>29</v>
       </c>
-      <c r="J420" s="12">
+      <c r="J420">
         <v>416558</v>
       </c>
       <c r="K420" t="s">
@@ -89944,7 +92355,7 @@
         <v>32</v>
       </c>
       <c r="R420" t="s">
-        <v>2527</v>
+        <v>2614</v>
       </c>
       <c r="S420" s="3">
         <v>42418</v>
@@ -90002,17 +92413,17 @@
       <c r="I421" t="s">
         <v>196</v>
       </c>
-      <c r="J421" s="12">
+      <c r="J421">
         <v>652892</v>
       </c>
       <c r="K421" t="s">
         <v>2465</v>
       </c>
       <c r="V421" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="W421" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="X421">
         <v>68</v>
@@ -90058,11 +92469,11 @@
       <c r="I422" t="s">
         <v>29</v>
       </c>
-      <c r="J422" s="12">
+      <c r="J422">
         <v>298076</v>
       </c>
       <c r="R422" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X422">
         <v>70</v>
@@ -90108,7 +92519,7 @@
       <c r="I423" t="s">
         <v>29</v>
       </c>
-      <c r="J423" s="12">
+      <c r="J423">
         <v>579143</v>
       </c>
       <c r="K423" t="s">
@@ -90173,11 +92584,11 @@
       <c r="I424" t="s">
         <v>29</v>
       </c>
-      <c r="J424" s="12">
+      <c r="J424">
         <v>234316</v>
       </c>
       <c r="R424" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X424">
         <v>48</v>
@@ -90223,17 +92634,17 @@
       <c r="I425" t="s">
         <v>29</v>
       </c>
-      <c r="J425" s="12">
+      <c r="J425">
         <v>206301</v>
       </c>
       <c r="K425" t="s">
         <v>2465</v>
       </c>
       <c r="V425" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="W425" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="X425">
         <v>27</v>
@@ -90279,7 +92690,7 @@
       <c r="I426" t="s">
         <v>29</v>
       </c>
-      <c r="J426" s="12">
+      <c r="J426">
         <v>112374</v>
       </c>
       <c r="K426" t="s">
@@ -90289,10 +92700,10 @@
         <v>32</v>
       </c>
       <c r="M426" t="s">
-        <v>2532</v>
+        <v>2618</v>
       </c>
       <c r="N426" t="s">
-        <v>2533</v>
+        <v>2619</v>
       </c>
       <c r="O426">
         <v>334</v>
@@ -90301,7 +92712,7 @@
         <v>11</v>
       </c>
       <c r="Q426" t="s">
-        <v>2534</v>
+        <v>2620</v>
       </c>
       <c r="S426" s="3">
         <v>40575</v>
@@ -90356,7 +92767,7 @@
       <c r="I427" t="s">
         <v>29</v>
       </c>
-      <c r="J427" s="12">
+      <c r="J427">
         <v>113792</v>
       </c>
       <c r="K427" t="s">
@@ -90366,10 +92777,10 @@
         <v>32</v>
       </c>
       <c r="M427" t="s">
-        <v>2535</v>
+        <v>2621</v>
       </c>
       <c r="N427" t="s">
-        <v>2536</v>
+        <v>2622</v>
       </c>
       <c r="O427">
         <v>1380</v>
@@ -90378,7 +92789,7 @@
         <v>11.8</v>
       </c>
       <c r="Q427" t="s">
-        <v>2537</v>
+        <v>2623</v>
       </c>
       <c r="S427" s="3">
         <v>41395</v>
@@ -90436,7 +92847,7 @@
       <c r="I428" t="s">
         <v>29</v>
       </c>
-      <c r="J428" s="12">
+      <c r="J428">
         <v>542706</v>
       </c>
       <c r="K428" t="s">
@@ -90446,13 +92857,13 @@
         <v>130</v>
       </c>
       <c r="M428" t="s">
-        <v>2538</v>
+        <v>2624</v>
       </c>
       <c r="O428">
         <v>630</v>
       </c>
       <c r="R428" t="s">
-        <v>2539</v>
+        <v>2625</v>
       </c>
       <c r="T428" s="3">
         <v>39797</v>
@@ -90510,11 +92921,11 @@
       <c r="I429" t="s">
         <v>29</v>
       </c>
-      <c r="J429" s="12">
+      <c r="J429">
         <v>629487</v>
       </c>
       <c r="R429" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X429">
         <v>56</v>
@@ -90560,11 +92971,11 @@
       <c r="I430" t="s">
         <v>29</v>
       </c>
-      <c r="J430" s="12">
+      <c r="J430">
         <v>263752</v>
       </c>
       <c r="R430" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X430">
         <v>53</v>
@@ -90610,7 +93021,7 @@
       <c r="I431" t="s">
         <v>29</v>
       </c>
-      <c r="J431" s="12">
+      <c r="J431">
         <v>242880</v>
       </c>
       <c r="K431" t="s">
@@ -90620,10 +93031,10 @@
         <v>32</v>
       </c>
       <c r="M431" t="s">
-        <v>2540</v>
+        <v>2626</v>
       </c>
       <c r="N431" t="s">
-        <v>2541</v>
+        <v>2627</v>
       </c>
       <c r="O431">
         <v>1213</v>
@@ -90632,7 +93043,7 @@
         <v>17</v>
       </c>
       <c r="Q431" t="s">
-        <v>2542</v>
+        <v>2628</v>
       </c>
       <c r="S431" s="3">
         <v>43090</v>
@@ -90690,17 +93101,17 @@
       <c r="I432" t="s">
         <v>29</v>
       </c>
-      <c r="J432" s="12">
+      <c r="J432">
         <v>732030</v>
       </c>
       <c r="K432" t="s">
         <v>2465</v>
       </c>
       <c r="V432" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="W432" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="X432">
         <v>35</v>
@@ -90746,11 +93157,11 @@
       <c r="I433" t="s">
         <v>29</v>
       </c>
-      <c r="J433" s="12">
+      <c r="J433">
         <v>90307</v>
       </c>
       <c r="R433" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X433">
         <v>52</v>
@@ -90796,23 +93207,23 @@
       <c r="I434" t="s">
         <v>29</v>
       </c>
-      <c r="J434" s="12">
+      <c r="J434">
         <v>431742</v>
       </c>
       <c r="K434" t="s">
         <v>30</v>
       </c>
       <c r="L434" t="s">
-        <v>2543</v>
+        <v>2629</v>
       </c>
       <c r="M434" t="s">
-        <v>2544</v>
+        <v>2630</v>
       </c>
       <c r="O434">
         <v>221</v>
       </c>
       <c r="Q434" t="s">
-        <v>2545</v>
+        <v>2631</v>
       </c>
       <c r="S434" s="3">
         <v>38412</v>
@@ -90821,7 +93232,7 @@
         <v>38428</v>
       </c>
       <c r="U434" t="s">
-        <v>2546</v>
+        <v>2632</v>
       </c>
       <c r="V434" t="s">
         <v>33</v>
@@ -90873,20 +93284,20 @@
       <c r="I435" t="s">
         <v>29</v>
       </c>
-      <c r="J435" s="12">
+      <c r="J435">
         <v>159059</v>
       </c>
       <c r="K435" t="s">
         <v>30</v>
       </c>
       <c r="L435" t="s">
-        <v>2547</v>
+        <v>2633</v>
       </c>
       <c r="M435" t="s">
-        <v>2548</v>
+        <v>2634</v>
       </c>
       <c r="N435" t="s">
-        <v>2549</v>
+        <v>2635</v>
       </c>
       <c r="O435">
         <v>280</v>
@@ -90895,13 +93306,13 @@
         <v>6.7</v>
       </c>
       <c r="Q435" t="s">
-        <v>2550</v>
+        <v>2636</v>
       </c>
       <c r="S435" s="3">
         <v>40941</v>
       </c>
       <c r="U435" t="s">
-        <v>2551</v>
+        <v>2637</v>
       </c>
       <c r="V435" t="s">
         <v>60</v>
@@ -90953,14 +93364,14 @@
       <c r="I436" t="s">
         <v>29</v>
       </c>
-      <c r="J436" s="12">
+      <c r="J436">
         <v>100762</v>
       </c>
       <c r="K436" t="s">
         <v>30</v>
       </c>
       <c r="L436" t="s">
-        <v>2552</v>
+        <v>2638</v>
       </c>
       <c r="S436" s="3">
         <v>34516</v>
@@ -90969,7 +93380,7 @@
         <v>34547</v>
       </c>
       <c r="U436" t="s">
-        <v>2552</v>
+        <v>2638</v>
       </c>
       <c r="V436" t="s">
         <v>157</v>
@@ -91021,17 +93432,17 @@
       <c r="I437" t="s">
         <v>29</v>
       </c>
-      <c r="J437" s="12">
+      <c r="J437">
         <v>82037</v>
       </c>
       <c r="K437" t="s">
         <v>2465</v>
       </c>
       <c r="V437" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="W437" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="X437">
         <v>80</v>
@@ -91077,7 +93488,7 @@
       <c r="I438" t="s">
         <v>29</v>
       </c>
-      <c r="J438" s="12">
+      <c r="J438">
         <v>137989</v>
       </c>
       <c r="K438" t="s">
@@ -91087,13 +93498,13 @@
         <v>32</v>
       </c>
       <c r="M438" t="s">
-        <v>2553</v>
+        <v>2639</v>
       </c>
       <c r="O438">
         <v>452</v>
       </c>
       <c r="Q438" t="s">
-        <v>2554</v>
+        <v>2640</v>
       </c>
       <c r="S438" s="3">
         <v>39234</v>
@@ -91151,7 +93562,7 @@
       <c r="I439" t="s">
         <v>29</v>
       </c>
-      <c r="J439" s="12">
+      <c r="J439">
         <v>62907</v>
       </c>
       <c r="K439" t="s">
@@ -91161,13 +93572,13 @@
         <v>32</v>
       </c>
       <c r="M439" t="s">
-        <v>2555</v>
+        <v>2641</v>
       </c>
       <c r="O439">
         <v>535</v>
       </c>
       <c r="Q439" t="s">
-        <v>2554</v>
+        <v>2640</v>
       </c>
       <c r="S439" s="3">
         <v>39853</v>
@@ -91225,7 +93636,7 @@
       <c r="I440" t="s">
         <v>29</v>
       </c>
-      <c r="J440" s="12">
+      <c r="J440">
         <v>431894</v>
       </c>
       <c r="K440" t="s">
@@ -91293,7 +93704,7 @@
       <c r="I441" t="s">
         <v>29</v>
       </c>
-      <c r="J441" s="12">
+      <c r="J441">
         <v>760622</v>
       </c>
       <c r="K441" t="s">
@@ -91303,10 +93714,10 @@
         <v>32</v>
       </c>
       <c r="M441" t="s">
-        <v>2556</v>
+        <v>2642</v>
       </c>
       <c r="N441" t="s">
-        <v>2557</v>
+        <v>2643</v>
       </c>
       <c r="O441">
         <v>521</v>
@@ -91370,11 +93781,11 @@
       <c r="I442" t="s">
         <v>196</v>
       </c>
-      <c r="J442" s="12">
+      <c r="J442">
         <v>136374</v>
       </c>
       <c r="R442" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X442">
         <v>57</v>
@@ -91420,11 +93831,11 @@
       <c r="I443" t="s">
         <v>29</v>
       </c>
-      <c r="J443" s="12">
+      <c r="J443">
         <v>236904</v>
       </c>
       <c r="R443" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X443">
         <v>50</v>
@@ -91470,7 +93881,7 @@
       <c r="I444" t="s">
         <v>29</v>
       </c>
-      <c r="J444" s="12">
+      <c r="J444">
         <v>300052288</v>
       </c>
       <c r="K444" t="s">
@@ -91480,10 +93891,10 @@
         <v>40</v>
       </c>
       <c r="M444" t="s">
-        <v>2558</v>
+        <v>2644</v>
       </c>
       <c r="N444" t="s">
-        <v>2559</v>
+        <v>2645</v>
       </c>
       <c r="O444">
         <v>850</v>
@@ -91547,11 +93958,11 @@
       <c r="I445" t="s">
         <v>196</v>
       </c>
-      <c r="J445" s="12">
+      <c r="J445">
         <v>326620</v>
       </c>
       <c r="R445" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X445">
         <v>35</v>
@@ -91597,11 +94008,11 @@
       <c r="I446" t="s">
         <v>29</v>
       </c>
-      <c r="J446" s="12">
+      <c r="J446">
         <v>334164</v>
       </c>
       <c r="R446" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X446">
         <v>59</v>
@@ -91647,7 +94058,7 @@
       <c r="I447" t="s">
         <v>29</v>
       </c>
-      <c r="J447" s="12">
+      <c r="J447">
         <v>455500</v>
       </c>
       <c r="K447" t="s">
@@ -91712,7 +94123,7 @@
       <c r="I448" t="s">
         <v>29</v>
       </c>
-      <c r="J448" s="12">
+      <c r="J448">
         <v>298149</v>
       </c>
       <c r="K448" t="s">
@@ -91722,10 +94133,10 @@
         <v>40</v>
       </c>
       <c r="M448" t="s">
-        <v>2560</v>
+        <v>2646</v>
       </c>
       <c r="N448" t="s">
-        <v>2561</v>
+        <v>2647</v>
       </c>
       <c r="O448">
         <v>683</v>
@@ -91734,7 +94145,7 @@
         <v>12.8</v>
       </c>
       <c r="Q448" t="s">
-        <v>2562</v>
+        <v>2648</v>
       </c>
       <c r="S448" s="3">
         <v>42541</v>
@@ -91792,7 +94203,7 @@
       <c r="I449" t="s">
         <v>29</v>
       </c>
-      <c r="J449" s="12">
+      <c r="J449">
         <v>677044</v>
       </c>
       <c r="K449" t="s">
@@ -91802,10 +94213,10 @@
         <v>40</v>
       </c>
       <c r="M449" t="s">
-        <v>2563</v>
+        <v>2649</v>
       </c>
       <c r="N449" t="s">
-        <v>2564</v>
+        <v>2650</v>
       </c>
       <c r="O449">
         <v>662</v>
@@ -91814,7 +94225,7 @@
         <v>11.4</v>
       </c>
       <c r="Q449" t="s">
-        <v>2565</v>
+        <v>2651</v>
       </c>
       <c r="S449" s="3">
         <v>41278</v>
@@ -91872,11 +94283,11 @@
       <c r="I450" t="s">
         <v>29</v>
       </c>
-      <c r="J450" s="12">
+      <c r="J450">
         <v>731872</v>
       </c>
       <c r="R450" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X450">
         <v>53</v>
@@ -91922,7 +94333,7 @@
       <c r="I451" t="s">
         <v>29</v>
       </c>
-      <c r="J451" s="12">
+      <c r="J451">
         <v>678592</v>
       </c>
       <c r="K451" t="s">
@@ -91932,10 +94343,10 @@
         <v>117</v>
       </c>
       <c r="M451" t="s">
-        <v>2566</v>
+        <v>2652</v>
       </c>
       <c r="R451" t="s">
-        <v>2567</v>
+        <v>2653</v>
       </c>
       <c r="S451" s="3">
         <v>40179</v>
@@ -91993,17 +94404,17 @@
       <c r="I452" t="s">
         <v>29</v>
       </c>
-      <c r="J452" s="12">
+      <c r="J452">
         <v>300103380</v>
       </c>
       <c r="K452" t="s">
         <v>2465</v>
       </c>
       <c r="V452" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="W452" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="X452">
         <v>34</v>
@@ -92049,17 +94460,17 @@
       <c r="I453" t="s">
         <v>29</v>
       </c>
-      <c r="J453" s="12">
+      <c r="J453">
         <v>300104265</v>
       </c>
       <c r="K453" t="s">
         <v>2465</v>
       </c>
       <c r="V453" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="W453" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="X453">
         <v>58</v>
@@ -92105,14 +94516,14 @@
       <c r="I454" t="s">
         <v>29</v>
       </c>
-      <c r="J454" s="12">
+      <c r="J454">
         <v>662750</v>
       </c>
       <c r="K454" t="s">
         <v>30</v>
       </c>
       <c r="L454" t="s">
-        <v>2568</v>
+        <v>2575</v>
       </c>
       <c r="S454" s="3">
         <v>41367</v>
@@ -92121,10 +94532,10 @@
         <v>41372</v>
       </c>
       <c r="U454" t="s">
-        <v>2569</v>
+        <v>2654</v>
       </c>
       <c r="V454" t="s">
-        <v>2570</v>
+        <v>2655</v>
       </c>
       <c r="W454" t="s">
         <v>34</v>
@@ -92173,7 +94584,7 @@
       <c r="I455" t="s">
         <v>29</v>
       </c>
-      <c r="J455" s="12">
+      <c r="J455">
         <v>470993</v>
       </c>
       <c r="K455" t="s">
@@ -92183,13 +94594,13 @@
         <v>40</v>
       </c>
       <c r="M455" t="s">
-        <v>2571</v>
+        <v>2656</v>
       </c>
       <c r="V455" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="W455" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="X455">
         <v>31</v>
@@ -92235,7 +94646,7 @@
       <c r="I456" t="s">
         <v>29</v>
       </c>
-      <c r="J456" s="12">
+      <c r="J456">
         <v>662362</v>
       </c>
       <c r="K456" t="s">
@@ -92245,10 +94656,10 @@
         <v>32</v>
       </c>
       <c r="M456" t="s">
-        <v>2572</v>
+        <v>2657</v>
       </c>
       <c r="N456" t="s">
-        <v>2573</v>
+        <v>2658</v>
       </c>
       <c r="O456">
         <v>673</v>
@@ -92257,7 +94668,7 @@
         <v>13.5</v>
       </c>
       <c r="Q456" t="s">
-        <v>2574</v>
+        <v>2659</v>
       </c>
       <c r="S456" s="3">
         <v>41518</v>
@@ -92315,7 +94726,7 @@
       <c r="I457" t="s">
         <v>29</v>
       </c>
-      <c r="J457" s="12">
+      <c r="J457">
         <v>512319</v>
       </c>
       <c r="K457" t="s">
@@ -92380,11 +94791,11 @@
       <c r="I458" t="s">
         <v>29</v>
       </c>
-      <c r="J458" s="12">
+      <c r="J458">
         <v>300054363</v>
       </c>
       <c r="R458" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X458">
         <v>50</v>
@@ -92430,7 +94841,7 @@
       <c r="I459" t="s">
         <v>29</v>
       </c>
-      <c r="J459" s="12">
+      <c r="J459">
         <v>300044383</v>
       </c>
       <c r="K459" t="s">
@@ -92440,10 +94851,10 @@
         <v>32</v>
       </c>
       <c r="M459" t="s">
-        <v>2575</v>
+        <v>2660</v>
       </c>
       <c r="N459" t="s">
-        <v>2576</v>
+        <v>2661</v>
       </c>
       <c r="O459">
         <v>825</v>
@@ -92507,7 +94918,7 @@
       <c r="I460" t="s">
         <v>29</v>
       </c>
-      <c r="J460" s="12">
+      <c r="J460">
         <v>724566</v>
       </c>
       <c r="K460" t="s">
@@ -92523,7 +94934,7 @@
         <v>43238</v>
       </c>
       <c r="U460" t="s">
-        <v>2568</v>
+        <v>2575</v>
       </c>
       <c r="V460" t="s">
         <v>33</v>
@@ -92575,7 +94986,7 @@
       <c r="I461" t="s">
         <v>29</v>
       </c>
-      <c r="J461" s="12">
+      <c r="J461">
         <v>635720</v>
       </c>
       <c r="K461" t="s">
@@ -92585,10 +94996,10 @@
         <v>32</v>
       </c>
       <c r="M461" t="s">
-        <v>2577</v>
+        <v>2662</v>
       </c>
       <c r="N461" t="s">
-        <v>2578</v>
+        <v>2663</v>
       </c>
       <c r="O461">
         <v>550</v>
@@ -92655,7 +95066,7 @@
       <c r="I462" t="s">
         <v>29</v>
       </c>
-      <c r="J462" s="12">
+      <c r="J462">
         <v>787335</v>
       </c>
       <c r="X462">
@@ -92702,7 +95113,7 @@
       <c r="I463" t="s">
         <v>29</v>
       </c>
-      <c r="J463" s="12">
+      <c r="J463">
         <v>302788</v>
       </c>
       <c r="K463" t="s">
@@ -92712,10 +95123,10 @@
         <v>43206</v>
       </c>
       <c r="V463" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="W463" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="X463">
         <v>50</v>
@@ -92761,7 +95172,7 @@
       <c r="I464" t="s">
         <v>29</v>
       </c>
-      <c r="J464" s="12">
+      <c r="J464">
         <v>82016</v>
       </c>
       <c r="K464" t="s">
@@ -92771,10 +95182,10 @@
         <v>117</v>
       </c>
       <c r="M464" t="s">
-        <v>2579</v>
+        <v>2664</v>
       </c>
       <c r="N464" t="s">
-        <v>2580</v>
+        <v>2665</v>
       </c>
       <c r="O464">
         <v>707</v>
@@ -92838,11 +95249,11 @@
       <c r="I465" t="s">
         <v>29</v>
       </c>
-      <c r="J465" s="12">
+      <c r="J465">
         <v>703116</v>
       </c>
       <c r="R465" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X465">
         <v>28</v>
@@ -92888,14 +95299,14 @@
       <c r="I466" t="s">
         <v>29</v>
       </c>
-      <c r="J466" s="12">
+      <c r="J466">
         <v>157875</v>
       </c>
       <c r="K466" t="s">
         <v>30</v>
       </c>
       <c r="L466" t="s">
-        <v>2581</v>
+        <v>2666</v>
       </c>
       <c r="S466" s="3">
         <v>38443</v>
@@ -92904,7 +95315,7 @@
         <v>38456</v>
       </c>
       <c r="U466" t="s">
-        <v>2513</v>
+        <v>2506</v>
       </c>
       <c r="V466" t="s">
         <v>60</v>
@@ -92956,17 +95367,17 @@
       <c r="I467" t="s">
         <v>29</v>
       </c>
-      <c r="J467" s="12">
+      <c r="J467">
         <v>622312</v>
       </c>
       <c r="K467" t="s">
         <v>2465</v>
       </c>
       <c r="V467" t="s">
-        <v>2529</v>
-      </c>
-      <c r="W467" s="9" t="s">
-        <v>2529</v>
+        <v>2511</v>
+      </c>
+      <c r="W467" s="8" t="s">
+        <v>2511</v>
       </c>
       <c r="X467">
         <v>25</v>
@@ -93012,7 +95423,7 @@
       <c r="I468" t="s">
         <v>29</v>
       </c>
-      <c r="J468" s="12">
+      <c r="J468">
         <v>593992</v>
       </c>
       <c r="K468" t="s">
@@ -93077,7 +95488,7 @@
       <c r="I469" t="s">
         <v>29</v>
       </c>
-      <c r="J469" s="12">
+      <c r="J469">
         <v>570064</v>
       </c>
       <c r="K469" t="s">
@@ -93090,10 +95501,10 @@
         <v>6.5</v>
       </c>
       <c r="N469" t="s">
-        <v>2582</v>
+        <v>2667</v>
       </c>
       <c r="R469" t="s">
-        <v>2583</v>
+        <v>2668</v>
       </c>
       <c r="S469" s="3">
         <v>40087</v>
@@ -93154,7 +95565,7 @@
       <c r="I470" t="s">
         <v>29</v>
       </c>
-      <c r="J470" s="12">
+      <c r="J470">
         <v>404252</v>
       </c>
       <c r="K470" t="s">
@@ -93167,7 +95578,7 @@
         <v>7.4</v>
       </c>
       <c r="N470" t="s">
-        <v>2584</v>
+        <v>2669</v>
       </c>
       <c r="O470">
         <v>588</v>
@@ -93231,7 +95642,7 @@
       <c r="I471" t="s">
         <v>29</v>
       </c>
-      <c r="J471" s="12">
+      <c r="J471">
         <v>562753</v>
       </c>
       <c r="K471" t="s">
@@ -93244,7 +95655,7 @@
         <v>15</v>
       </c>
       <c r="N471" t="s">
-        <v>2585</v>
+        <v>2670</v>
       </c>
       <c r="O471">
         <v>704</v>
@@ -93253,7 +95664,7 @@
         <v>13</v>
       </c>
       <c r="Q471" t="s">
-        <v>2586</v>
+        <v>2671</v>
       </c>
       <c r="S471" s="3">
         <v>41870</v>
@@ -93311,7 +95722,7 @@
       <c r="I472" t="s">
         <v>29</v>
       </c>
-      <c r="J472" s="12">
+      <c r="J472">
         <v>300014983</v>
       </c>
       <c r="K472" t="s">
@@ -93321,10 +95732,10 @@
         <v>43169</v>
       </c>
       <c r="V472" t="s">
-        <v>2529</v>
-      </c>
-      <c r="W472" s="9" t="s">
-        <v>2529</v>
+        <v>2511</v>
+      </c>
+      <c r="W472" s="8" t="s">
+        <v>2511</v>
       </c>
       <c r="X472">
         <v>35</v>
@@ -93370,11 +95781,11 @@
       <c r="I473" t="s">
         <v>29</v>
       </c>
-      <c r="J473" s="12">
+      <c r="J473">
         <v>705118</v>
       </c>
       <c r="R473" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X473">
         <v>56</v>
@@ -93420,7 +95831,7 @@
       <c r="I474" t="s">
         <v>29</v>
       </c>
-      <c r="J474" s="12">
+      <c r="J474">
         <v>659263</v>
       </c>
       <c r="K474" t="s">
@@ -93485,7 +95896,7 @@
       <c r="I475" t="s">
         <v>29</v>
       </c>
-      <c r="J475" s="12">
+      <c r="J475">
         <v>166990</v>
       </c>
       <c r="K475" t="s">
@@ -93550,7 +95961,7 @@
       <c r="I476" t="s">
         <v>196</v>
       </c>
-      <c r="J476" s="12">
+      <c r="J476">
         <v>268594</v>
       </c>
       <c r="K476" t="s">
@@ -93615,7 +96026,7 @@
       <c r="I477" t="s">
         <v>29</v>
       </c>
-      <c r="J477" s="12">
+      <c r="J477">
         <v>121913</v>
       </c>
       <c r="K477" t="s">
@@ -93683,7 +96094,7 @@
       <c r="I478" t="s">
         <v>29</v>
       </c>
-      <c r="J478" s="12">
+      <c r="J478">
         <v>305664</v>
       </c>
       <c r="K478" t="s">
@@ -93748,7 +96159,7 @@
       <c r="I479" t="s">
         <v>29</v>
       </c>
-      <c r="J479" s="12">
+      <c r="J479">
         <v>493633</v>
       </c>
       <c r="K479" t="s">
@@ -93816,7 +96227,7 @@
       <c r="I480" t="s">
         <v>29</v>
       </c>
-      <c r="J480" s="12">
+      <c r="J480">
         <v>23613</v>
       </c>
       <c r="K480" t="s">
@@ -93826,10 +96237,10 @@
         <v>40</v>
       </c>
       <c r="V480" t="s">
-        <v>2529</v>
-      </c>
-      <c r="W480" s="9" t="s">
-        <v>2529</v>
+        <v>2511</v>
+      </c>
+      <c r="W480" s="8" t="s">
+        <v>2511</v>
       </c>
       <c r="X480">
         <v>46</v>
@@ -93875,7 +96286,7 @@
       <c r="I481" t="s">
         <v>29</v>
       </c>
-      <c r="J481" s="12">
+      <c r="J481">
         <v>300089704</v>
       </c>
       <c r="K481" t="s">
@@ -93888,10 +96299,10 @@
         <v>40</v>
       </c>
       <c r="V481" t="s">
-        <v>2529</v>
-      </c>
-      <c r="W481" s="9" t="s">
-        <v>2529</v>
+        <v>2511</v>
+      </c>
+      <c r="W481" s="8" t="s">
+        <v>2511</v>
       </c>
       <c r="X481">
         <v>26</v>
@@ -93937,7 +96348,7 @@
       <c r="I482" t="s">
         <v>29</v>
       </c>
-      <c r="J482" s="12">
+      <c r="J482">
         <v>430196</v>
       </c>
       <c r="K482" t="s">
@@ -94002,7 +96413,7 @@
       <c r="I483" t="s">
         <v>29</v>
       </c>
-      <c r="J483" s="12">
+      <c r="J483">
         <v>300071920</v>
       </c>
       <c r="K483" t="s">
@@ -94012,10 +96423,10 @@
         <v>117</v>
       </c>
       <c r="M483" t="s">
-        <v>2587</v>
+        <v>2672</v>
       </c>
       <c r="N483" t="s">
-        <v>2588</v>
+        <v>2673</v>
       </c>
       <c r="O483">
         <v>1150</v>
@@ -94024,10 +96435,10 @@
         <v>11.8</v>
       </c>
       <c r="Q483" t="s">
-        <v>2589</v>
+        <v>2674</v>
       </c>
       <c r="R483" t="s">
-        <v>2590</v>
+        <v>2675</v>
       </c>
       <c r="S483" s="3">
         <v>42917</v>
@@ -94088,7 +96499,7 @@
       <c r="I484" t="s">
         <v>29</v>
       </c>
-      <c r="J484" s="12">
+      <c r="J484">
         <v>719666</v>
       </c>
       <c r="K484" t="s">
@@ -94153,11 +96564,11 @@
       <c r="I485" t="s">
         <v>29</v>
       </c>
-      <c r="J485" s="12">
+      <c r="J485">
         <v>300060205</v>
       </c>
       <c r="R485" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X485">
         <v>43</v>
@@ -94203,7 +96614,7 @@
       <c r="I486" t="s">
         <v>196</v>
       </c>
-      <c r="J486" s="12">
+      <c r="J486">
         <v>187431</v>
       </c>
       <c r="K486" t="s">
@@ -94213,10 +96624,10 @@
         <v>43052</v>
       </c>
       <c r="V486" t="s">
-        <v>2529</v>
-      </c>
-      <c r="W486" s="9" t="s">
-        <v>2529</v>
+        <v>2511</v>
+      </c>
+      <c r="W486" s="8" t="s">
+        <v>2511</v>
       </c>
       <c r="X486">
         <v>56</v>
@@ -94262,7 +96673,7 @@
       <c r="I487" t="s">
         <v>29</v>
       </c>
-      <c r="J487" s="12">
+      <c r="J487">
         <v>300005306</v>
       </c>
       <c r="K487" t="s">
@@ -94272,7 +96683,7 @@
         <v>40</v>
       </c>
       <c r="R487" t="s">
-        <v>2591</v>
+        <v>2676</v>
       </c>
       <c r="S487" s="3">
         <v>43040</v>
@@ -94327,11 +96738,11 @@
       <c r="I488" t="s">
         <v>29</v>
       </c>
-      <c r="J488" s="12">
+      <c r="J488">
         <v>300074797</v>
       </c>
       <c r="R488" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X488">
         <v>50</v>
@@ -94377,7 +96788,7 @@
       <c r="I489" t="s">
         <v>29</v>
       </c>
-      <c r="J489" s="12">
+      <c r="J489">
         <v>676149</v>
       </c>
       <c r="K489" t="s">
@@ -94387,10 +96798,10 @@
         <v>40</v>
       </c>
       <c r="V489" t="s">
-        <v>2529</v>
-      </c>
-      <c r="W489" s="9" t="s">
-        <v>2529</v>
+        <v>2511</v>
+      </c>
+      <c r="W489" s="8" t="s">
+        <v>2511</v>
       </c>
       <c r="X489">
         <v>54</v>
@@ -94436,7 +96847,7 @@
       <c r="I490" t="s">
         <v>29</v>
       </c>
-      <c r="J490" s="12">
+      <c r="J490">
         <v>393986</v>
       </c>
       <c r="K490" t="s">
@@ -94501,7 +96912,7 @@
       <c r="I491" t="s">
         <v>29</v>
       </c>
-      <c r="J491" s="12">
+      <c r="J491">
         <v>300076492</v>
       </c>
       <c r="K491" t="s">
@@ -94511,7 +96922,7 @@
         <v>32</v>
       </c>
       <c r="R491" t="s">
-        <v>2592</v>
+        <v>2677</v>
       </c>
       <c r="S491" s="3">
         <v>42600</v>
@@ -94520,7 +96931,7 @@
         <v>42996</v>
       </c>
       <c r="U491" t="s">
-        <v>2593</v>
+        <v>2678</v>
       </c>
       <c r="V491" t="s">
         <v>157</v>
@@ -94572,7 +96983,7 @@
       <c r="I492" t="s">
         <v>29</v>
       </c>
-      <c r="J492" s="12">
+      <c r="J492">
         <v>14433</v>
       </c>
       <c r="K492" t="s">
@@ -94637,7 +97048,7 @@
       <c r="I493" t="s">
         <v>29</v>
       </c>
-      <c r="J493" s="12">
+      <c r="J493">
         <v>563268</v>
       </c>
       <c r="K493" t="s">
@@ -94702,7 +97113,7 @@
       <c r="I494" t="s">
         <v>29</v>
       </c>
-      <c r="J494" s="12">
+      <c r="J494">
         <v>771570</v>
       </c>
       <c r="K494" t="s">
@@ -94767,11 +97178,11 @@
       <c r="I495" t="s">
         <v>196</v>
       </c>
-      <c r="J495" s="12">
+      <c r="J495">
         <v>347729</v>
       </c>
       <c r="R495" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X495">
         <v>78</v>
@@ -94817,11 +97228,11 @@
       <c r="I496" t="s">
         <v>29</v>
       </c>
-      <c r="J496" s="12">
+      <c r="J496">
         <v>601199</v>
       </c>
       <c r="R496" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X496">
         <v>50</v>
@@ -94867,7 +97278,7 @@
       <c r="I497" t="s">
         <v>29</v>
       </c>
-      <c r="J497" s="12">
+      <c r="J497">
         <v>300038846</v>
       </c>
       <c r="K497" t="s">
@@ -94879,7 +97290,7 @@
       <c r="S497" s="3">
         <v>42677</v>
       </c>
-      <c r="T497" s="16">
+      <c r="T497" s="15">
         <v>42816</v>
       </c>
       <c r="U497" t="s">
@@ -94935,7 +97346,7 @@
       <c r="I498" t="s">
         <v>29</v>
       </c>
-      <c r="J498" s="12">
+      <c r="J498">
         <v>224630</v>
       </c>
       <c r="K498" t="s">
@@ -95003,7 +97414,7 @@
       <c r="I499" t="s">
         <v>29</v>
       </c>
-      <c r="J499" s="12">
+      <c r="J499">
         <v>538377</v>
       </c>
       <c r="K499" t="s">
@@ -95016,10 +97427,10 @@
         <v>40</v>
       </c>
       <c r="V499" t="s">
-        <v>2529</v>
-      </c>
-      <c r="W499" s="9" t="s">
-        <v>2529</v>
+        <v>2511</v>
+      </c>
+      <c r="W499" s="8" t="s">
+        <v>2511</v>
       </c>
       <c r="X499">
         <v>25</v>
@@ -95065,17 +97476,17 @@
       <c r="I500" t="s">
         <v>29</v>
       </c>
-      <c r="J500" s="12">
+      <c r="J500">
         <v>631872</v>
       </c>
       <c r="K500" t="s">
         <v>30</v>
       </c>
       <c r="L500" t="s">
-        <v>2594</v>
+        <v>2579</v>
       </c>
       <c r="R500" t="s">
-        <v>2595</v>
+        <v>2679</v>
       </c>
       <c r="S500" s="3">
         <v>40848</v>
@@ -95136,14 +97547,14 @@
       <c r="I501" t="s">
         <v>29</v>
       </c>
-      <c r="J501" s="12">
+      <c r="J501">
         <v>89316</v>
       </c>
       <c r="K501" t="s">
         <v>30</v>
       </c>
       <c r="L501" t="s">
-        <v>2593</v>
+        <v>2678</v>
       </c>
       <c r="S501" s="3">
         <v>33604</v>
@@ -95152,7 +97563,7 @@
         <v>33604</v>
       </c>
       <c r="U501" t="s">
-        <v>2593</v>
+        <v>2678</v>
       </c>
       <c r="V501" t="s">
         <v>60</v>
@@ -95204,7 +97615,7 @@
       <c r="I502" t="s">
         <v>29</v>
       </c>
-      <c r="J502" s="12">
+      <c r="J502">
         <v>640481</v>
       </c>
       <c r="K502" t="s">
@@ -95217,10 +97628,10 @@
         <v>40</v>
       </c>
       <c r="V502" t="s">
-        <v>2529</v>
-      </c>
-      <c r="W502" s="9" t="s">
-        <v>2529</v>
+        <v>2511</v>
+      </c>
+      <c r="W502" s="8" t="s">
+        <v>2511</v>
       </c>
       <c r="X502">
         <v>34</v>
@@ -95266,11 +97677,11 @@
       <c r="I503" t="s">
         <v>196</v>
       </c>
-      <c r="J503" s="12">
+      <c r="J503">
         <v>235789</v>
       </c>
       <c r="R503" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X503">
         <v>68</v>
@@ -95316,7 +97727,7 @@
       <c r="I504" t="s">
         <v>29</v>
       </c>
-      <c r="J504" s="12">
+      <c r="J504">
         <v>79730</v>
       </c>
       <c r="K504" t="s">
@@ -95381,11 +97792,11 @@
       <c r="I505" t="s">
         <v>29</v>
       </c>
-      <c r="J505" s="12">
+      <c r="J505">
         <v>600064</v>
       </c>
       <c r="R505" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X505">
         <v>58</v>
@@ -95431,11 +97842,11 @@
       <c r="I506" t="s">
         <v>29</v>
       </c>
-      <c r="J506" s="12">
+      <c r="J506">
         <v>277820</v>
       </c>
       <c r="R506" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X506">
         <v>63</v>
@@ -95481,7 +97892,7 @@
       <c r="I507" t="s">
         <v>29</v>
       </c>
-      <c r="J507" s="12">
+      <c r="J507">
         <v>427032</v>
       </c>
       <c r="K507" t="s">
@@ -95546,11 +97957,11 @@
       <c r="I508" t="s">
         <v>29</v>
       </c>
-      <c r="J508" s="12">
+      <c r="J508">
         <v>123491</v>
       </c>
       <c r="R508" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X508">
         <v>52</v>
@@ -95596,11 +98007,11 @@
       <c r="I509" t="s">
         <v>29</v>
       </c>
-      <c r="J509" s="12">
+      <c r="J509">
         <v>477526</v>
       </c>
       <c r="R509" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X509">
         <v>49</v>
@@ -95646,7 +98057,7 @@
       <c r="I510" t="s">
         <v>29</v>
       </c>
-      <c r="J510" s="12">
+      <c r="J510">
         <v>500834</v>
       </c>
       <c r="K510" t="s">
@@ -95714,7 +98125,7 @@
       <c r="I511" t="s">
         <v>29</v>
       </c>
-      <c r="J511" s="12">
+      <c r="J511">
         <v>523346</v>
       </c>
       <c r="K511" t="s">
@@ -95779,7 +98190,7 @@
       <c r="I512" t="s">
         <v>29</v>
       </c>
-      <c r="J512" s="12">
+      <c r="J512">
         <v>65280</v>
       </c>
       <c r="K512" t="s">
@@ -95844,11 +98255,11 @@
       <c r="I513" t="s">
         <v>196</v>
       </c>
-      <c r="J513" s="12">
+      <c r="J513">
         <v>650215</v>
       </c>
       <c r="R513" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X513">
         <v>25</v>
@@ -95894,17 +98305,17 @@
       <c r="I514" t="s">
         <v>29</v>
       </c>
-      <c r="J514" s="12">
+      <c r="J514">
         <v>485293</v>
       </c>
       <c r="K514" t="s">
         <v>30</v>
       </c>
       <c r="L514" t="s">
-        <v>2593</v>
+        <v>2678</v>
       </c>
       <c r="R514" t="s">
-        <v>2596</v>
+        <v>2680</v>
       </c>
       <c r="S514" s="3">
         <v>39087</v>
@@ -95913,7 +98324,7 @@
         <v>39106</v>
       </c>
       <c r="U514" s="7" t="s">
-        <v>2593</v>
+        <v>2678</v>
       </c>
       <c r="V514" t="s">
         <v>60</v>
@@ -95965,7 +98376,7 @@
       <c r="I515" t="s">
         <v>29</v>
       </c>
-      <c r="J515" s="12">
+      <c r="J515">
         <v>756395</v>
       </c>
       <c r="K515" t="s">
@@ -96030,11 +98441,11 @@
       <c r="I516" t="s">
         <v>29</v>
       </c>
-      <c r="J516" s="12">
+      <c r="J516">
         <v>563249</v>
       </c>
       <c r="R516" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X516">
         <v>75</v>
@@ -96080,7 +98491,7 @@
       <c r="I517" t="s">
         <v>29</v>
       </c>
-      <c r="J517" s="12">
+      <c r="J517">
         <v>595661</v>
       </c>
       <c r="K517" t="s">
@@ -96090,10 +98501,10 @@
         <v>164</v>
       </c>
       <c r="M517" t="s">
-        <v>2555</v>
+        <v>2641</v>
       </c>
       <c r="R517" t="s">
-        <v>2596</v>
+        <v>2680</v>
       </c>
       <c r="S517" s="3">
         <v>40360</v>
@@ -96154,7 +98565,7 @@
       <c r="I518" t="s">
         <v>29</v>
       </c>
-      <c r="J518" s="12">
+      <c r="J518">
         <v>86428</v>
       </c>
       <c r="K518" t="s">
@@ -96219,11 +98630,11 @@
       <c r="I519" t="s">
         <v>29</v>
       </c>
-      <c r="J519" s="12">
+      <c r="J519">
         <v>130397</v>
       </c>
       <c r="R519" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X519">
         <v>45</v>
@@ -96269,7 +98680,7 @@
       <c r="I520" t="s">
         <v>29</v>
       </c>
-      <c r="J520" s="12">
+      <c r="J520">
         <v>723521</v>
       </c>
       <c r="K520" t="s">
@@ -96334,7 +98745,7 @@
       <c r="I521" t="s">
         <v>29</v>
       </c>
-      <c r="J521" s="12">
+      <c r="J521">
         <v>306125</v>
       </c>
       <c r="K521" t="s">
@@ -96399,7 +98810,7 @@
       <c r="I522" t="s">
         <v>29</v>
       </c>
-      <c r="J522" s="12">
+      <c r="J522">
         <v>93651</v>
       </c>
       <c r="K522" t="s">
@@ -96464,11 +98875,11 @@
       <c r="I523" t="s">
         <v>29</v>
       </c>
-      <c r="J523" s="12">
+      <c r="J523">
         <v>293138</v>
       </c>
       <c r="R523" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X523">
         <v>62</v>
@@ -96514,7 +98925,7 @@
       <c r="I524" t="s">
         <v>29</v>
       </c>
-      <c r="J524" s="12">
+      <c r="J524">
         <v>509136</v>
       </c>
       <c r="K524" t="s">
@@ -96579,11 +98990,11 @@
       <c r="I525" t="s">
         <v>196</v>
       </c>
-      <c r="J525" s="12">
+      <c r="J525">
         <v>682611</v>
       </c>
       <c r="R525" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="X525">
         <v>69</v>
@@ -96629,7 +99040,7 @@
       <c r="I526" t="s">
         <v>29</v>
       </c>
-      <c r="J526" s="12">
+      <c r="J526">
         <v>154372</v>
       </c>
       <c r="K526" t="s">
@@ -96697,17 +99108,17 @@
       <c r="I527" t="s">
         <v>29</v>
       </c>
-      <c r="J527" s="12">
+      <c r="J527">
         <v>249222</v>
       </c>
       <c r="K527" t="s">
         <v>30</v>
       </c>
       <c r="L527" t="s">
-        <v>2594</v>
+        <v>2579</v>
       </c>
       <c r="R527" t="s">
-        <v>2596</v>
+        <v>2680</v>
       </c>
       <c r="S527" s="3">
         <v>40909</v>
@@ -96716,7 +99127,7 @@
         <v>40917</v>
       </c>
       <c r="U527" t="s">
-        <v>2593</v>
+        <v>2678</v>
       </c>
       <c r="V527" t="s">
         <v>60</v>
@@ -96741,12 +99152,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S1 S4:S5 S7 S9:S12 S514:S1048576 S15:S229 S231:S512">
+  <conditionalFormatting sqref="S1 S4:S5 S7 S9:S12 S15:S229 S231:S269 S271:S296 T297 S298:S387 T388 S389:S512 S514:S1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>"Q:Q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T214">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>"Q:Q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T214">
+  <conditionalFormatting sqref="T252">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>"Q:Q"</formula>
     </cfRule>
@@ -96759,28 +99175,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273F87BA-0AD7-46D4-8854-FB1FAD0112B3}">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="70.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="13" t="s">
-        <v>2597</v>
+      <c r="B1" s="9" t="s">
+        <v>2681</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>2598</v>
+        <v>2682</v>
       </c>
       <c r="C2" t="s">
-        <v>2599</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -96788,7 +99204,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>2600</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -96796,15 +99212,15 @@
         <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>2601</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>2602</v>
+        <v>2686</v>
       </c>
       <c r="C5" t="s">
-        <v>2603</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -96812,40 +99228,40 @@
         <v>212</v>
       </c>
       <c r="C6" t="s">
-        <v>2604</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>2605</v>
+        <v>2689</v>
       </c>
       <c r="C7" t="s">
-        <v>2606</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="13" t="s">
-        <v>2607</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>2608</v>
+      <c r="B9" s="9" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>2692</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>2609</v>
+        <v>2693</v>
       </c>
       <c r="C10" t="s">
-        <v>2610</v>
+        <v>2694</v>
       </c>
       <c r="D10" t="s">
-        <v>2611</v>
+        <v>2695</v>
       </c>
       <c r="E10" t="s">
-        <v>2612</v>
+        <v>2696</v>
       </c>
       <c r="F10" t="s">
-        <v>2613</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -96853,30 +99269,30 @@
         <v>2440</v>
       </c>
       <c r="C11" t="s">
-        <v>2610</v>
-      </c>
-      <c r="D11" s="15">
+        <v>2694</v>
+      </c>
+      <c r="D11" s="11">
         <v>12871</v>
       </c>
       <c r="E11" t="s">
-        <v>2614</v>
+        <v>2698</v>
       </c>
       <c r="F11" t="s">
-        <v>2615</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>2616</v>
+        <v>2700</v>
       </c>
       <c r="C12" t="s">
-        <v>2617</v>
+        <v>2701</v>
       </c>
       <c r="D12" t="s">
-        <v>2618</v>
+        <v>2702</v>
       </c>
       <c r="E12" t="s">
-        <v>2619</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -96884,7 +99300,7 @@
         <v>2439</v>
       </c>
       <c r="C13" t="s">
-        <v>2613</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -96892,26 +99308,26 @@
         <v>2437</v>
       </c>
       <c r="C14" t="s">
-        <v>2617</v>
+        <v>2701</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>2566</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="13" t="s">
-        <v>2620</v>
+      <c r="B17" s="9" t="s">
+        <v>2704</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>2621</v>
+        <v>2705</v>
       </c>
       <c r="C18" t="s">
-        <v>2622</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -96919,21 +99335,21 @@
         <v>2440</v>
       </c>
       <c r="C19" t="s">
-        <v>2623</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>2624</v>
+        <v>2707</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>2708</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>2616</v>
+        <v>2700</v>
       </c>
       <c r="C20" t="s">
-        <v>2625</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>2626</v>
+        <v>2709</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>2710</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -96941,7 +99357,7 @@
         <v>2439</v>
       </c>
       <c r="C21" t="s">
-        <v>2627</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -96949,20 +99365,20 @@
         <v>2437</v>
       </c>
       <c r="C22" t="s">
-        <v>2628</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>2629</v>
+        <v>2712</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>2713</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="13" t="s">
-        <v>2630</v>
+      <c r="B25" s="9" t="s">
+        <v>2714</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>2631</v>
+        <v>2715</v>
       </c>
       <c r="D26">
         <v>36721</v>
@@ -96980,7 +99396,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>2632</v>
+        <v>2716</v>
       </c>
       <c r="D30">
         <v>741529</v>
@@ -97008,6 +99424,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7e17ebe2-ea76-4bcf-af9b-ad4b73b55788">
+      <UserInfo>
+        <DisplayName>Hefti Eva</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007C90313681D0404CA6EEE81DD4C9F0C9" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a206f6187e2cad7d4e982dfa28e7d04">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7c5cb915-ffee-4a76-a520-e563b15a0b98" xmlns:ns3="7e17ebe2-ea76-4bcf-af9b-ad4b73b55788" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f164e3b8715a45d23ef57d38676d8631" ns2:_="" ns3:_="">
     <xsd:import namespace="7c5cb915-ffee-4a76-a520-e563b15a0b98"/>
@@ -97178,39 +99617,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7e17ebe2-ea76-4bcf-af9b-ad4b73b55788">
-      <UserInfo>
-        <DisplayName>Hefti Eva</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D568A2-F3AE-4384-B390-76487FDA7C7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D72925E-D78A-4D5C-8862-2F8D4DFFE495}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D72925E-D78A-4D5C-8862-2F8D4DFFE495}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D540F89-8CFF-4EE3-BB1C-505451778312}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D540F89-8CFF-4EE3-BB1C-505451778312}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D568A2-F3AE-4384-B390-76487FDA7C7C}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/raw_data/Hypophysenpatienten.xlsx
+++ b/raw_data/Hypophysenpatienten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d3a597e08c542e1/Dokumente/Github/pro5d-classification-prolactinoma/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{9B43B7EB-3B42-487B-9586-5E4E91DBC7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0A10BB8-FD91-431E-8C83-FBD9746CCE6F}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{9B43B7EB-3B42-487B-9586-5E4E91DBC7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA3E8587-825D-4679-AC73-E40554ECDB6B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21444" uniqueCount="2707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21963" uniqueCount="2710">
   <si>
     <t>%ID</t>
   </si>
@@ -8159,6 +8159,15 @@
   </si>
   <si>
     <t>somato, hyperprolaktin</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
@@ -8299,7 +8308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8325,12 +8334,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8370,6 +8382,24 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -8425,15 +8455,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D6B9EE7-0503-4A9B-A540-B83D0898A655}" name="Table1" displayName="Table1" ref="A1:AB528" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:AB528" xr:uid="{8D6B9EE7-0503-4A9B-A540-B83D0898A655}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB527">
-    <sortCondition ref="J1:J527"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D6B9EE7-0503-4A9B-A540-B83D0898A655}" name="Table1" displayName="Table1" ref="A1:AC528" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:AC528" xr:uid="{8D6B9EE7-0503-4A9B-A540-B83D0898A655}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB528">
+    <sortCondition ref="J1:J528"/>
   </sortState>
-  <tableColumns count="28">
+  <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{61C87983-31CD-4466-AF0E-1EF6DB15768D}" name="%ID"/>
     <tableColumn id="2" xr3:uid="{0E86087D-3398-4CD2-8336-A146C3EDB007}" name="Fall Nr."/>
-    <tableColumn id="3" xr3:uid="{00E62B44-6DAF-41AE-A675-0C7325101EAD}" name="Datum/Zeit" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00E62B44-6DAF-41AE-A675-0C7325101EAD}" name="Datum/Zeit" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{67D3BE42-5D39-429F-B883-6F6B45FD6EC1}" name="Modalität"/>
     <tableColumn id="5" xr3:uid="{14D9E7BD-2376-4549-927A-5160F9F9AB4A}" name="Exam Code"/>
     <tableColumn id="6" xr3:uid="{AB240A02-4821-41FF-93B7-6A6D31D1147D}" name="Exam Name"/>
@@ -8449,7 +8479,7 @@
     <tableColumn id="16" xr3:uid="{BEB215EA-8899-4697-A7D1-E8B405CA1007}" name="fT4"/>
     <tableColumn id="17" xr3:uid="{ACE737C3-15A8-4EB9-9D87-A9965B84332B}" name="weiteres Labor"/>
     <tableColumn id="18" xr3:uid="{2CE64DA4-C356-4B61-BACE-15D4384F5F28}" name="Qualität"/>
-    <tableColumn id="19" xr3:uid="{BE7F1A15-61B3-446C-A446-F3536D905BDF}" name="ED" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{BE7F1A15-61B3-446C-A446-F3536D905BDF}" name="ED" dataDxfId="5"/>
     <tableColumn id="20" xr3:uid="{83950438-5EE3-4D2C-AB13-907C05E51C57}" name="OP Datum"/>
     <tableColumn id="21" xr3:uid="{3D8157CE-D608-4943-9020-C4C71A3C8462}" name="Ausfälle post"/>
     <tableColumn id="22" xr3:uid="{BE74240B-09B1-4431-BF38-D4112B061D1B}" name="Diagnose"/>
@@ -8459,6 +8489,7 @@
     <tableColumn id="26" xr3:uid="{4C66C499-7B28-4310-8B3E-178749F1EC78}" name="AnforderungDatum"/>
     <tableColumn id="27" xr3:uid="{A585724E-39E0-446A-A193-72A764970AE7}" name="ÜberweiserIntern.Bereich"/>
     <tableColumn id="28" xr3:uid="{B16DFAB0-0266-4D03-B4F6-88ACF5B77E8B}" name="ÜberweiserIntern.Klinik"/>
+    <tableColumn id="29" xr3:uid="{6A363A12-6CC6-47E4-A880-52429A69ADF3}" name="Gender" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -66265,12 +66296,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A15F2BD-4985-864A-B3C3-A238430793E9}">
-  <dimension ref="A1:AB528"/>
+  <dimension ref="A1:AC528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66291,7 +66322,7 @@
     <col min="29" max="29" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -66376,8 +66407,11 @@
       <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" s="19" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8548799</v>
       </c>
@@ -66428,8 +66462,11 @@
       <c r="AB2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7786984</v>
       </c>
@@ -66480,8 +66517,11 @@
       <c r="AB3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8899566</v>
       </c>
@@ -66533,8 +66573,11 @@
       <c r="AB4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8376664</v>
       </c>
@@ -66595,8 +66638,11 @@
       <c r="AB5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7430454</v>
       </c>
@@ -66660,8 +66706,11 @@
       <c r="AB6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7787029</v>
       </c>
@@ -66737,8 +66786,11 @@
       <c r="AB7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8684516</v>
       </c>
@@ -66805,8 +66857,11 @@
       <c r="AB8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8344430</v>
       </c>
@@ -66867,8 +66922,11 @@
       <c r="AB9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8323803</v>
       </c>
@@ -66932,8 +66990,11 @@
       <c r="AB10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7871497</v>
       </c>
@@ -66997,8 +67058,11 @@
       <c r="AB11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8500297</v>
       </c>
@@ -67062,8 +67126,11 @@
       <c r="AB12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC12" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7658343</v>
       </c>
@@ -67122,8 +67189,11 @@
       <c r="AB13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7944282</v>
       </c>
@@ -67174,8 +67244,11 @@
       <c r="AB14" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8529454</v>
       </c>
@@ -67242,8 +67315,11 @@
       <c r="AB15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC15" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8719661</v>
       </c>
@@ -67294,8 +67370,11 @@
       <c r="AB16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8266861</v>
       </c>
@@ -67359,8 +67438,11 @@
       <c r="AB17" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8153818</v>
       </c>
@@ -67427,8 +67509,11 @@
       <c r="AB18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8301047</v>
       </c>
@@ -67479,8 +67564,11 @@
       <c r="AB19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8440108</v>
       </c>
@@ -67547,8 +67635,11 @@
       <c r="AB20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC20" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8671278</v>
       </c>
@@ -67633,8 +67724,11 @@
       <c r="AB21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC21" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8399275</v>
       </c>
@@ -67695,8 +67789,11 @@
       <c r="AB22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8935391</v>
       </c>
@@ -67760,8 +67857,11 @@
       <c r="AB23" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC23" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7882790</v>
       </c>
@@ -67828,8 +67928,11 @@
       <c r="AB24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC24" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8245044</v>
       </c>
@@ -67893,8 +67996,11 @@
       <c r="AB25" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC25" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8311954</v>
       </c>
@@ -67961,8 +68067,11 @@
       <c r="AB26" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC26" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8550265</v>
       </c>
@@ -68026,8 +68135,11 @@
       <c r="AB27" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC27" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7848384</v>
       </c>
@@ -68079,8 +68191,9 @@
       <c r="AB28" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC28" s="12"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8046999</v>
       </c>
@@ -68147,8 +68260,11 @@
       <c r="AB29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC29" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8245124</v>
       </c>
@@ -68209,8 +68325,11 @@
       <c r="AB30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC30" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8025605</v>
       </c>
@@ -68271,8 +68390,11 @@
       <c r="AB31" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC31" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8846951</v>
       </c>
@@ -68336,8 +68458,11 @@
       <c r="AB32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC32" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7927219</v>
       </c>
@@ -68404,8 +68529,11 @@
       <c r="AB33" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC33" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8680549</v>
       </c>
@@ -68469,8 +68597,11 @@
       <c r="AB34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC34" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7687701</v>
       </c>
@@ -68543,8 +68674,11 @@
       <c r="AB35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC35" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7822942</v>
       </c>
@@ -68595,8 +68729,11 @@
       <c r="AB36" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC36" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7414126</v>
       </c>
@@ -68660,8 +68797,11 @@
       <c r="AB37" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC37" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8691375</v>
       </c>
@@ -68725,8 +68865,11 @@
       <c r="AB38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC38" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8805548</v>
       </c>
@@ -68793,8 +68936,11 @@
       <c r="AB39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC39" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8369811</v>
       </c>
@@ -68855,8 +69001,11 @@
       <c r="AB40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC40" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8655550</v>
       </c>
@@ -68907,8 +69056,11 @@
       <c r="AB41" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC41" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7490638</v>
       </c>
@@ -68972,8 +69124,11 @@
       <c r="AB42" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC42" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8741782</v>
       </c>
@@ -69040,8 +69195,11 @@
       <c r="AB43" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC43" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7617331</v>
       </c>
@@ -69117,8 +69275,11 @@
       <c r="AB44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC44" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7750168</v>
       </c>
@@ -69174,8 +69335,11 @@
       <c r="AB45" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC45" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7877450</v>
       </c>
@@ -69242,8 +69406,11 @@
       <c r="AB46" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC46" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8736203</v>
       </c>
@@ -69310,8 +69477,11 @@
       <c r="AB47" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC47" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8900476</v>
       </c>
@@ -69362,8 +69532,11 @@
       <c r="AB48" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC48" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7350279</v>
       </c>
@@ -69427,8 +69600,11 @@
       <c r="AB49" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC49" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8188626</v>
       </c>
@@ -69493,8 +69669,11 @@
       <c r="AB50" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC50" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7517325</v>
       </c>
@@ -69561,8 +69740,11 @@
       <c r="AB51" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC51" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7769302</v>
       </c>
@@ -69613,8 +69795,11 @@
       <c r="AB52" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC52" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8519249</v>
       </c>
@@ -69681,8 +69866,11 @@
       <c r="AB53" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC53" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>7336494</v>
       </c>
@@ -69746,8 +69934,11 @@
       <c r="AB54" t="s">
         <v>1814</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC54" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8471000</v>
       </c>
@@ -69811,8 +70002,11 @@
       <c r="AB55" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC55" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>8168960</v>
       </c>
@@ -69873,8 +70067,11 @@
       <c r="AB56" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC56" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>8066180</v>
       </c>
@@ -69925,8 +70122,11 @@
       <c r="AB57" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC57" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8760631</v>
       </c>
@@ -69993,8 +70193,11 @@
       <c r="AB58" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC58" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8176484</v>
       </c>
@@ -70045,8 +70248,11 @@
       <c r="AB59" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC59" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7821658</v>
       </c>
@@ -70107,8 +70313,11 @@
       <c r="AB60" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC60" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7687674</v>
       </c>
@@ -70175,8 +70384,11 @@
       <c r="AB61" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC61" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8152562</v>
       </c>
@@ -70240,8 +70452,11 @@
       <c r="AB62" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC62" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8727022</v>
       </c>
@@ -70305,8 +70520,11 @@
       <c r="AB63" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC63" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7989856</v>
       </c>
@@ -70373,8 +70591,11 @@
       <c r="AB64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC64" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8664373</v>
       </c>
@@ -70444,8 +70665,11 @@
       <c r="AB65" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC65" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>7781120</v>
       </c>
@@ -70521,8 +70745,11 @@
       <c r="AB66" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC66" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7618906</v>
       </c>
@@ -70601,8 +70828,11 @@
       <c r="AB67" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC67" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>8491359</v>
       </c>
@@ -70666,8 +70896,11 @@
       <c r="AB68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC68" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8737173</v>
       </c>
@@ -70731,8 +70964,11 @@
       <c r="AB69" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC69" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8488158</v>
       </c>
@@ -70796,8 +71032,11 @@
       <c r="AB70" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC70" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8432140</v>
       </c>
@@ -70864,8 +71103,11 @@
       <c r="AB71" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC71" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7633397</v>
       </c>
@@ -70932,8 +71174,11 @@
       <c r="AB72" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC72" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7459984</v>
       </c>
@@ -70984,8 +71229,11 @@
       <c r="AB73" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC73" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>8578318</v>
       </c>
@@ -71057,8 +71305,11 @@
       <c r="AB74" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC74" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>8580513</v>
       </c>
@@ -71119,8 +71370,11 @@
       <c r="AB75" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC75" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7351107</v>
       </c>
@@ -71171,8 +71425,11 @@
       <c r="AB76" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC76" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7871508</v>
       </c>
@@ -71239,8 +71496,11 @@
       <c r="AB77" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC77" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7751851</v>
       </c>
@@ -71291,8 +71551,11 @@
       <c r="AB78" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC78" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7751710</v>
       </c>
@@ -71365,8 +71628,11 @@
       <c r="AB79" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC79" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>8916034</v>
       </c>
@@ -71433,8 +71699,11 @@
       <c r="AB80" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC80" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8641179</v>
       </c>
@@ -71485,8 +71754,11 @@
       <c r="AB81" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC81" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8658765</v>
       </c>
@@ -71553,8 +71825,11 @@
       <c r="AB82" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC82" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8291140</v>
       </c>
@@ -71621,8 +71896,11 @@
       <c r="AB83" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC83" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7965981</v>
       </c>
@@ -71673,8 +71951,11 @@
       <c r="AB84" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC84" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>7247536</v>
       </c>
@@ -71741,8 +72022,11 @@
       <c r="AB85" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC85" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8557011</v>
       </c>
@@ -71809,8 +72093,11 @@
       <c r="AB86" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC86" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>7644228</v>
       </c>
@@ -71877,8 +72164,11 @@
       <c r="AB87" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC87" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8018132</v>
       </c>
@@ -71939,8 +72229,11 @@
       <c r="AB88" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC88" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>7707776</v>
       </c>
@@ -72019,8 +72312,11 @@
       <c r="AB89" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC89" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8805662</v>
       </c>
@@ -72087,8 +72383,11 @@
       <c r="AB90" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC90" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>7612498</v>
       </c>
@@ -72152,8 +72451,11 @@
       <c r="AB91" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC91" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>7871492</v>
       </c>
@@ -72214,8 +72516,11 @@
       <c r="AB92" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC92" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8018412</v>
       </c>
@@ -72266,8 +72571,11 @@
       <c r="AB93" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC93" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7905235</v>
       </c>
@@ -72334,8 +72642,11 @@
       <c r="AB94" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC94" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>8878130</v>
       </c>
@@ -72399,8 +72710,11 @@
       <c r="AB95" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC95" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>8791054</v>
       </c>
@@ -72464,8 +72778,11 @@
       <c r="AB96" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC96" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>8602232</v>
       </c>
@@ -72532,8 +72849,11 @@
       <c r="AB97" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC97" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7902572</v>
       </c>
@@ -72597,8 +72917,11 @@
       <c r="AB98" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC98" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7863708</v>
       </c>
@@ -72650,8 +72973,11 @@
       <c r="AB99" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC99" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>7631727</v>
       </c>
@@ -72710,8 +73036,11 @@
       <c r="AB100" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC100" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>7973846</v>
       </c>
@@ -72762,8 +73091,11 @@
       <c r="AB101" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC101" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>8033513</v>
       </c>
@@ -72827,8 +73159,11 @@
       <c r="AB102" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC102" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>7781631</v>
       </c>
@@ -72884,8 +73219,11 @@
       <c r="AB103" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC103" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>8454387</v>
       </c>
@@ -72936,8 +73274,11 @@
       <c r="AB104" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC104" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>7898657</v>
       </c>
@@ -72988,8 +73329,11 @@
       <c r="AB105" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC105" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>8818725</v>
       </c>
@@ -73056,8 +73400,11 @@
       <c r="AB106" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC106" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>8671326</v>
       </c>
@@ -73121,8 +73468,11 @@
       <c r="AB107" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC107" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>8184993</v>
       </c>
@@ -73173,8 +73523,11 @@
       <c r="AB108" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC108" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>7946741</v>
       </c>
@@ -73225,8 +73578,11 @@
       <c r="AB109" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC109" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>7841472</v>
       </c>
@@ -73277,8 +73633,11 @@
       <c r="AB110" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC110" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>8286383</v>
       </c>
@@ -73337,8 +73696,11 @@
       <c r="AB111" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC111" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>8101197</v>
       </c>
@@ -73394,8 +73756,11 @@
       <c r="AB112" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC112" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>7533851</v>
       </c>
@@ -73462,8 +73827,11 @@
       <c r="AB113" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC113" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>8692835</v>
       </c>
@@ -73530,8 +73898,11 @@
       <c r="AB114" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC114" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>7762375</v>
       </c>
@@ -73582,8 +73953,11 @@
       <c r="AB115" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC115" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>7515240</v>
       </c>
@@ -73634,8 +74008,9 @@
       <c r="AB116" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC116" s="12"/>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>7735266</v>
       </c>
@@ -73686,8 +74061,11 @@
       <c r="AB117" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC117" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>8065205</v>
       </c>
@@ -73738,8 +74116,11 @@
       <c r="AB118" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC118" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7767302</v>
       </c>
@@ -73790,8 +74171,11 @@
       <c r="AB119" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC119" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>8272895</v>
       </c>
@@ -73855,8 +74239,11 @@
       <c r="AB120" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC120" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>7763198</v>
       </c>
@@ -73935,8 +74322,11 @@
       <c r="AB121" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC121" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>7271667</v>
       </c>
@@ -74006,8 +74396,11 @@
       <c r="AB122" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC122" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>8160695</v>
       </c>
@@ -74061,8 +74454,11 @@
       <c r="AB123" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC123" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>8239530</v>
       </c>
@@ -74132,8 +74528,11 @@
       <c r="AB124" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC124" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>8651390</v>
       </c>
@@ -74200,8 +74599,11 @@
       <c r="AB125" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC125" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>8177543</v>
       </c>
@@ -74252,8 +74654,11 @@
       <c r="AB126" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC126" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>8805567</v>
       </c>
@@ -74320,8 +74725,11 @@
       <c r="AB127" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC127" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8803032</v>
       </c>
@@ -74385,8 +74793,11 @@
       <c r="AB128" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC128" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>7758547</v>
       </c>
@@ -74437,8 +74848,11 @@
       <c r="AB129" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC129" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>8828551</v>
       </c>
@@ -74505,8 +74919,11 @@
       <c r="AB130" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC130" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>8691521</v>
       </c>
@@ -74557,8 +74974,11 @@
       <c r="AB131" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC131" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>8500295</v>
       </c>
@@ -74625,8 +75045,11 @@
       <c r="AB132" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC132" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8743245</v>
       </c>
@@ -74690,8 +75113,11 @@
       <c r="AB133" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC133" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7675921</v>
       </c>
@@ -74755,8 +75181,11 @@
       <c r="AB134" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC134" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>8529717</v>
       </c>
@@ -74820,8 +75249,11 @@
       <c r="AB135" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC135" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>7788547</v>
       </c>
@@ -74891,8 +75323,11 @@
       <c r="AB136" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC136" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7487223</v>
       </c>
@@ -74943,8 +75378,11 @@
       <c r="AB137" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC137" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>7893200</v>
       </c>
@@ -74995,8 +75433,11 @@
       <c r="AB138" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC138" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>8568574</v>
       </c>
@@ -75060,8 +75501,11 @@
       <c r="AB139" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC139" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>7894938</v>
       </c>
@@ -75128,8 +75572,11 @@
       <c r="AB140" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC140" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>8805627</v>
       </c>
@@ -75193,8 +75640,11 @@
       <c r="AB141" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC141" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>7964778</v>
       </c>
@@ -75245,8 +75695,11 @@
       <c r="AB142" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC142" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>8876899</v>
       </c>
@@ -75313,8 +75766,11 @@
       <c r="AB143" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC143" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>8009694</v>
       </c>
@@ -75379,8 +75835,11 @@
       <c r="AB144" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC144" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>7332424</v>
       </c>
@@ -75431,8 +75890,11 @@
       <c r="AB145" t="s">
         <v>1814</v>
       </c>
-    </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC145" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>8710128</v>
       </c>
@@ -75496,8 +75958,11 @@
       <c r="AB146" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC146" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>7790813</v>
       </c>
@@ -75548,8 +76013,11 @@
       <c r="AB147" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC147" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>7720981</v>
       </c>
@@ -75628,8 +76096,11 @@
       <c r="AB148" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC148" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>8711147</v>
       </c>
@@ -75696,8 +76167,11 @@
       <c r="AB149" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC149" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>7710729</v>
       </c>
@@ -75756,8 +76230,11 @@
       <c r="AB150" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC150" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>7618913</v>
       </c>
@@ -75821,8 +76298,11 @@
       <c r="AB151" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC151" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>8931206</v>
       </c>
@@ -75889,8 +76369,11 @@
       <c r="AB152" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC152" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7340984</v>
       </c>
@@ -75954,8 +76437,11 @@
       <c r="AB153" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC153" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8038039</v>
       </c>
@@ -76019,8 +76505,11 @@
       <c r="AB154" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC154" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>8280974</v>
       </c>
@@ -76084,8 +76573,11 @@
       <c r="AB155" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC155" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>7895764</v>
       </c>
@@ -76152,8 +76644,11 @@
       <c r="AB156" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC156" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>8778806</v>
       </c>
@@ -76217,8 +76712,11 @@
       <c r="AB157" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC157" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>8134016</v>
       </c>
@@ -76279,8 +76777,11 @@
       <c r="AB158" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC158" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>8589819</v>
       </c>
@@ -76341,8 +76842,11 @@
       <c r="AB159" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC159" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>7911606</v>
       </c>
@@ -76393,8 +76897,11 @@
       <c r="AB160" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC160" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>8805684</v>
       </c>
@@ -76461,8 +76968,11 @@
       <c r="AB161" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC161" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>7847256</v>
       </c>
@@ -76532,8 +77042,11 @@
       <c r="AB162" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC162" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>8475097</v>
       </c>
@@ -76597,8 +77110,11 @@
       <c r="AB163" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC163" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>7747387</v>
       </c>
@@ -76649,8 +77165,11 @@
       <c r="AB164" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC164" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>7726464</v>
       </c>
@@ -76701,8 +77220,11 @@
       <c r="AB165" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC165" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>8823277</v>
       </c>
@@ -76769,8 +77291,11 @@
       <c r="AB166" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC166" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>8641651</v>
       </c>
@@ -76822,8 +77347,11 @@
       <c r="AB167" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC167" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>8700274</v>
       </c>
@@ -76887,8 +77415,11 @@
       <c r="AB168" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC168" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>8576596</v>
       </c>
@@ -76955,8 +77486,11 @@
       <c r="AB169" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC169" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7912711</v>
       </c>
@@ -77007,8 +77541,11 @@
       <c r="AB170" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC170" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7874328</v>
       </c>
@@ -77059,8 +77596,11 @@
       <c r="AB171" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC171" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>8605849</v>
       </c>
@@ -77124,8 +77664,11 @@
       <c r="AB172" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC172" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>8687660</v>
       </c>
@@ -77192,8 +77735,11 @@
       <c r="AB173" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC173" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>7568926</v>
       </c>
@@ -77244,8 +77790,9 @@
       <c r="AB174" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC174" s="12"/>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7944104</v>
       </c>
@@ -77315,8 +77862,11 @@
       <c r="AB175" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC175" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>8839545</v>
       </c>
@@ -77367,8 +77917,11 @@
       <c r="AB176" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC176" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>8647612</v>
       </c>
@@ -77435,8 +77988,11 @@
       <c r="AB177" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC177" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>7817716</v>
       </c>
@@ -77487,8 +78043,9 @@
       <c r="AB178" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC178" s="12"/>
+    </row>
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>7871510</v>
       </c>
@@ -77552,8 +78109,11 @@
       <c r="AB179" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC179" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8469713</v>
       </c>
@@ -77617,8 +78177,11 @@
       <c r="AB180" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC180" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8688141</v>
       </c>
@@ -77669,8 +78232,11 @@
       <c r="AB181" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC181" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8585730</v>
       </c>
@@ -77721,8 +78287,11 @@
       <c r="AB182" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC182" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8900526</v>
       </c>
@@ -77789,8 +78358,11 @@
       <c r="AB183" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC183" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8533524</v>
       </c>
@@ -77860,8 +78432,11 @@
       <c r="AB184" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC184" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8884433</v>
       </c>
@@ -77928,8 +78503,11 @@
       <c r="AB185" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC185" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8122463</v>
       </c>
@@ -77990,8 +78568,11 @@
       <c r="AB186" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC186" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>8768855</v>
       </c>
@@ -78042,8 +78623,11 @@
       <c r="AB187" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC187" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>8107945</v>
       </c>
@@ -78110,8 +78694,11 @@
       <c r="AB188" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC188" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8560701</v>
       </c>
@@ -78162,8 +78749,11 @@
       <c r="AB189" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC189" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>8500280</v>
       </c>
@@ -78227,8 +78817,11 @@
       <c r="AB190" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC190" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>8929870</v>
       </c>
@@ -78295,8 +78888,11 @@
       <c r="AB191" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC191" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>8838839</v>
       </c>
@@ -78363,8 +78959,11 @@
       <c r="AB192" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC192" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>8622471</v>
       </c>
@@ -78425,8 +79024,11 @@
       <c r="AB193" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC193" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8081191</v>
       </c>
@@ -78477,8 +79079,11 @@
       <c r="AB194" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC194" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>7599591</v>
       </c>
@@ -78542,8 +79147,11 @@
       <c r="AB195" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC195" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>8896866</v>
       </c>
@@ -78607,8 +79215,11 @@
       <c r="AB196" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC196" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>7947388</v>
       </c>
@@ -78675,8 +79286,11 @@
       <c r="AB197" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC197" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>7641556</v>
       </c>
@@ -78752,8 +79366,11 @@
       <c r="AB198" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC198" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>8621894</v>
       </c>
@@ -78823,8 +79440,11 @@
       <c r="AB199" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC199" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>8647722</v>
       </c>
@@ -78888,8 +79508,11 @@
       <c r="AB200" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC200" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>7794234</v>
       </c>
@@ -78956,8 +79579,11 @@
       <c r="AB201" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC201" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>8873081</v>
       </c>
@@ -79021,8 +79647,11 @@
       <c r="AB202" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC202" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>8291161</v>
       </c>
@@ -79086,8 +79715,11 @@
       <c r="AB203" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC203" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>8778022</v>
       </c>
@@ -79138,8 +79770,11 @@
       <c r="AB204" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC204" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>7479563</v>
       </c>
@@ -79203,8 +79838,11 @@
       <c r="AB205" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC205" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>7635945</v>
       </c>
@@ -79268,8 +79906,11 @@
       <c r="AB206" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC206" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>8392200</v>
       </c>
@@ -79336,8 +79977,11 @@
       <c r="AB207" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC207" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>7687666</v>
       </c>
@@ -79413,8 +80057,11 @@
       <c r="AB208" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC208" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>7719378</v>
       </c>
@@ -79481,8 +80128,11 @@
       <c r="AB209" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC209" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>8589735</v>
       </c>
@@ -79546,8 +80196,11 @@
       <c r="AB210" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC210" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>8562452</v>
       </c>
@@ -79614,8 +80267,11 @@
       <c r="AB211" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC211" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>8060666</v>
       </c>
@@ -79676,8 +80332,11 @@
       <c r="AB212" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC212" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>8354791</v>
       </c>
@@ -79744,8 +80403,11 @@
       <c r="AB213" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC213" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>8129037</v>
       </c>
@@ -79812,8 +80474,11 @@
       <c r="AB214" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC214" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>8134451</v>
       </c>
@@ -79880,8 +80545,11 @@
       <c r="AB215" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC215" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>8860297</v>
       </c>
@@ -79945,8 +80613,11 @@
       <c r="AB216" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC216" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>8117645</v>
       </c>
@@ -80010,8 +80681,11 @@
       <c r="AB217" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC217" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>8885540</v>
       </c>
@@ -80078,8 +80752,11 @@
       <c r="AB218" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC218" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>7656792</v>
       </c>
@@ -80143,8 +80820,11 @@
       <c r="AB219" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC219" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>8498791</v>
       </c>
@@ -80211,8 +80891,11 @@
       <c r="AB220" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC220" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>8382677</v>
       </c>
@@ -80263,8 +80946,11 @@
       <c r="AB221" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC221" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>7818280</v>
       </c>
@@ -80343,8 +81029,11 @@
       <c r="AB222" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC222" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>7848391</v>
       </c>
@@ -80395,8 +81084,11 @@
       <c r="AB223" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC223" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>8902667</v>
       </c>
@@ -80447,8 +81139,11 @@
       <c r="AB224" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC224" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>8615213</v>
       </c>
@@ -80512,8 +81207,11 @@
       <c r="AB225" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC225" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>8197920</v>
       </c>
@@ -80583,8 +81281,11 @@
       <c r="AB226" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC226" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>8683478</v>
       </c>
@@ -80648,8 +81349,11 @@
       <c r="AB227" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC227" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>8087955</v>
       </c>
@@ -80700,8 +81404,11 @@
       <c r="AB228" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC228" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>8962874</v>
       </c>
@@ -80752,8 +81459,11 @@
       <c r="AB229" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC229" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>7698048</v>
       </c>
@@ -80814,8 +81524,11 @@
       <c r="AB230" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC230" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>8013031</v>
       </c>
@@ -80885,8 +81598,11 @@
       <c r="AB231" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC231" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>8595652</v>
       </c>
@@ -80950,8 +81666,11 @@
       <c r="AB232" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC232" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>7407727</v>
       </c>
@@ -81002,8 +81721,11 @@
       <c r="AB233" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC233" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>8618726</v>
       </c>
@@ -81054,8 +81776,11 @@
       <c r="AB234" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC234" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>7269395</v>
       </c>
@@ -81125,8 +81850,11 @@
       <c r="AB235" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC235" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>8103774</v>
       </c>
@@ -81177,8 +81905,11 @@
       <c r="AB236" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC236" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>7914267</v>
       </c>
@@ -81239,8 +81970,11 @@
       <c r="AB237" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC237" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>8934350</v>
       </c>
@@ -81291,8 +82025,11 @@
       <c r="AB238" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC238" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>7597860</v>
       </c>
@@ -81359,8 +82096,11 @@
       <c r="AB239" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC239" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>8597540</v>
       </c>
@@ -81427,8 +82167,11 @@
       <c r="AB240" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC240" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>8079979</v>
       </c>
@@ -81479,8 +82222,11 @@
       <c r="AB241" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC241" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>8799031</v>
       </c>
@@ -81547,8 +82293,11 @@
       <c r="AB242" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC242" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>7972150</v>
       </c>
@@ -81615,8 +82364,11 @@
       <c r="AB243" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC243" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>7388378</v>
       </c>
@@ -81683,8 +82435,11 @@
       <c r="AB244" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC244" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>8188815</v>
       </c>
@@ -81748,8 +82503,11 @@
       <c r="AB245" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC245" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>7882215</v>
       </c>
@@ -81816,8 +82574,11 @@
       <c r="AB246" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC246" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>8122456</v>
       </c>
@@ -81884,8 +82645,11 @@
       <c r="AB247" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC247" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>8833089</v>
       </c>
@@ -81952,8 +82716,11 @@
       <c r="AB248" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC248" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>7346392</v>
       </c>
@@ -82017,8 +82784,11 @@
       <c r="AB249" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC249" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>7661400</v>
       </c>
@@ -82082,8 +82852,11 @@
       <c r="AB250" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC250" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>8198708</v>
       </c>
@@ -82150,8 +82923,11 @@
       <c r="AB251" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC251" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>8417620</v>
       </c>
@@ -82202,8 +82978,11 @@
       <c r="AB252" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC252" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>7799132</v>
       </c>
@@ -82259,8 +83038,11 @@
       <c r="AB253" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC253" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>8688164</v>
       </c>
@@ -82311,8 +83093,11 @@
       <c r="AB254" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC254" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>7426685</v>
       </c>
@@ -82376,8 +83161,11 @@
       <c r="AB255" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC255" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>8601893</v>
       </c>
@@ -82441,8 +83229,11 @@
       <c r="AB256" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC256" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>7895772</v>
       </c>
@@ -82503,8 +83294,11 @@
       <c r="AB257" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC257" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>8874629</v>
       </c>
@@ -82571,8 +83365,11 @@
       <c r="AB258" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC258" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>8894558</v>
       </c>
@@ -82639,8 +83436,11 @@
       <c r="AB259" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC259" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>8497911</v>
       </c>
@@ -82691,8 +83491,11 @@
       <c r="AB260" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC260" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>7887039</v>
       </c>
@@ -82762,8 +83565,11 @@
       <c r="AB261" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC261" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>8655314</v>
       </c>
@@ -82830,8 +83636,11 @@
       <c r="AB262" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC262" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>7547083</v>
       </c>
@@ -82892,8 +83701,11 @@
       <c r="AB263" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC263" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>7726236</v>
       </c>
@@ -82966,8 +83778,11 @@
       <c r="AB264" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC264" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>8930353</v>
       </c>
@@ -83034,8 +83849,11 @@
       <c r="AB265" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC265" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>8537822</v>
       </c>
@@ -83099,8 +83917,11 @@
       <c r="AB266" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC266" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>8242632</v>
       </c>
@@ -83170,8 +83991,11 @@
       <c r="AB267" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC267" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>8808564</v>
       </c>
@@ -83222,8 +84046,11 @@
       <c r="AB268" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC268" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>7764769</v>
       </c>
@@ -83290,8 +84117,11 @@
       <c r="AB269" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC269" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>7860414</v>
       </c>
@@ -83347,8 +84177,11 @@
       <c r="AB270" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC270" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>8773018</v>
       </c>
@@ -83415,8 +84248,11 @@
       <c r="AB271" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC271" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>8226852</v>
       </c>
@@ -83483,8 +84319,11 @@
       <c r="AB272" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC272" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>7786671</v>
       </c>
@@ -83560,8 +84399,11 @@
       <c r="AB273" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="274" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC273" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>7620327</v>
       </c>
@@ -83640,8 +84482,11 @@
       <c r="AB274" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC274" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>7332389</v>
       </c>
@@ -83692,8 +84537,11 @@
       <c r="AB275" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC275" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>7535353</v>
       </c>
@@ -83757,8 +84605,11 @@
       <c r="AB276" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC276" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>8719934</v>
       </c>
@@ -83825,8 +84676,11 @@
       <c r="AB277" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC277" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>8868258</v>
       </c>
@@ -83877,8 +84731,11 @@
       <c r="AB278" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC278" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>8841316</v>
       </c>
@@ -83942,8 +84799,11 @@
       <c r="AB279" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC279" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>7618131</v>
       </c>
@@ -84016,8 +84876,11 @@
       <c r="AB280" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC280" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>8602579</v>
       </c>
@@ -84081,8 +84944,11 @@
       <c r="AB281" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC281" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>8433426</v>
       </c>
@@ -84149,8 +85015,11 @@
       <c r="AB282" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC282" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>7989846</v>
       </c>
@@ -84211,8 +85080,11 @@
       <c r="AB283" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC283" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>7644280</v>
       </c>
@@ -84276,8 +85148,11 @@
       <c r="AB284" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC284" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>7787032</v>
       </c>
@@ -84350,8 +85225,11 @@
       <c r="AB285" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC285" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>8797386</v>
       </c>
@@ -84415,8 +85293,11 @@
       <c r="AB286" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC286" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>8230344</v>
       </c>
@@ -84483,8 +85364,11 @@
       <c r="AB287" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC287" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>8349775</v>
       </c>
@@ -84535,8 +85419,11 @@
       <c r="AB288" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="289" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC288" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>7747931</v>
       </c>
@@ -84606,8 +85493,11 @@
       <c r="AB289" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC289" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>8527788</v>
       </c>
@@ -84674,8 +85564,11 @@
       <c r="AB290" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="291" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC290" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>7668829</v>
       </c>
@@ -84739,8 +85632,11 @@
       <c r="AB291" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC291" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>8840816</v>
       </c>
@@ -84807,8 +85703,11 @@
       <c r="AB292" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="293" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC292" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>7359346</v>
       </c>
@@ -84881,8 +85780,11 @@
       <c r="AB293" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC293" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>7501557</v>
       </c>
@@ -84933,8 +85835,9 @@
       <c r="AB294" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="295" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC294" s="12"/>
+    </row>
+    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>7565340</v>
       </c>
@@ -84985,8 +85888,11 @@
       <c r="AB295" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC295" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>8047004</v>
       </c>
@@ -85053,8 +85959,11 @@
       <c r="AB296" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC296" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="297" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>8589542</v>
       </c>
@@ -85115,8 +86024,11 @@
       <c r="AB297" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC297" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>8808926</v>
       </c>
@@ -85180,8 +86092,11 @@
       <c r="AB298" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC298" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>8905058</v>
       </c>
@@ -85232,8 +86147,11 @@
       <c r="AB299" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC299" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>8739447</v>
       </c>
@@ -85300,8 +86218,11 @@
       <c r="AB300" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="301" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC300" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>8206762</v>
       </c>
@@ -85368,8 +86289,11 @@
       <c r="AB301" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC301" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>8312123</v>
       </c>
@@ -85430,8 +86354,11 @@
       <c r="AB302" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC302" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>8346724</v>
       </c>
@@ -85498,8 +86425,11 @@
       <c r="AB303" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="304" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC303" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>8057746</v>
       </c>
@@ -85560,8 +86490,11 @@
       <c r="AB304" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC304" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>7870158</v>
       </c>
@@ -85622,8 +86555,11 @@
       <c r="AB305" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC305" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="306" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>7976201</v>
       </c>
@@ -85693,8 +86629,11 @@
       <c r="AB306" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC306" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>7863945</v>
       </c>
@@ -85761,8 +86700,11 @@
       <c r="AB307" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC307" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="308" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>7683548</v>
       </c>
@@ -85818,8 +86760,11 @@
       <c r="AB308" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC308" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="309" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>8206768</v>
       </c>
@@ -85886,8 +86831,11 @@
       <c r="AB309" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC309" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="310" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>7769142</v>
       </c>
@@ -85938,8 +86886,11 @@
       <c r="AB310" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC310" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="311" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>8333635</v>
       </c>
@@ -85996,8 +86947,11 @@
       <c r="AB311" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC311" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="312" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>7486828</v>
       </c>
@@ -86067,8 +87021,11 @@
       <c r="AB312" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC312" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>7667192</v>
       </c>
@@ -86147,8 +87104,11 @@
       <c r="AB313" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC313" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="314" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>8279932</v>
       </c>
@@ -86209,8 +87169,11 @@
       <c r="AB314" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC314" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="315" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>8837410</v>
       </c>
@@ -86274,8 +87237,11 @@
       <c r="AB315" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC315" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="316" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>7877131</v>
       </c>
@@ -86326,8 +87292,11 @@
       <c r="AB316" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC316" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="317" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>8470948</v>
       </c>
@@ -86394,8 +87363,11 @@
       <c r="AB317" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC317" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="318" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>7510361</v>
       </c>
@@ -86456,8 +87428,11 @@
       <c r="AB318" t="s">
         <v>2093</v>
       </c>
-    </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC318" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="319" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>8500936</v>
       </c>
@@ -86521,8 +87496,11 @@
       <c r="AB319" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC319" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="320" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>8482346</v>
       </c>
@@ -86586,8 +87564,11 @@
       <c r="AB320" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC320" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="321" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>8808114</v>
       </c>
@@ -86638,8 +87619,11 @@
       <c r="AB321" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC321" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="322" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>8507271</v>
       </c>
@@ -86706,8 +87690,11 @@
       <c r="AB322" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC322" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="323" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>7426862</v>
       </c>
@@ -86758,8 +87745,11 @@
       <c r="AB323" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC323" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="324" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>8006138</v>
       </c>
@@ -86810,8 +87800,11 @@
       <c r="AB324" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC324" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="325" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>7795561</v>
       </c>
@@ -86867,8 +87860,11 @@
       <c r="AB325" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC325" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="326" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>7516460</v>
       </c>
@@ -86932,8 +87928,11 @@
       <c r="AB326" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC326" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="327" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>7700506</v>
       </c>
@@ -87012,8 +88011,11 @@
       <c r="AB327" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC327" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="328" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>7661522</v>
       </c>
@@ -87080,8 +88082,11 @@
       <c r="AB328" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC328" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>7890123</v>
       </c>
@@ -87151,8 +88156,11 @@
       <c r="AB329" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC329" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>8008748</v>
       </c>
@@ -87219,8 +88227,11 @@
       <c r="AB330" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC330" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>8246307</v>
       </c>
@@ -87290,8 +88301,11 @@
       <c r="AB331" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC331" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="332" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>8794338</v>
       </c>
@@ -87342,8 +88356,11 @@
       <c r="AB332" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC332" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>8737589</v>
       </c>
@@ -87394,8 +88411,11 @@
       <c r="AB333" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC333" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="334" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>7597734</v>
       </c>
@@ -87454,8 +88474,11 @@
       <c r="AB334" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC334" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="335" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>8046994</v>
       </c>
@@ -87522,8 +88545,11 @@
       <c r="AB335" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC335" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="336" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>8497919</v>
       </c>
@@ -87587,8 +88613,11 @@
       <c r="AB336" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="337" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC336" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="337" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>7717882</v>
       </c>
@@ -87667,8 +88696,11 @@
       <c r="AB337" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="338" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC337" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="338" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>7721115</v>
       </c>
@@ -87738,8 +88770,11 @@
       <c r="AB338" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC338" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="339" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>8768954</v>
       </c>
@@ -87803,8 +88838,11 @@
       <c r="AB339" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="340" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC339" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="340" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>8296369</v>
       </c>
@@ -87871,8 +88909,11 @@
       <c r="AB340" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC340" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>8707179</v>
       </c>
@@ -87923,8 +88964,11 @@
       <c r="AB341" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="342" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC341" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="342" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>7317245</v>
       </c>
@@ -87975,8 +89019,9 @@
       <c r="AB342" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC342" s="12"/>
+    </row>
+    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>8847114</v>
       </c>
@@ -88043,8 +89088,11 @@
       <c r="AB343" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="344" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC343" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>8501042</v>
       </c>
@@ -88111,8 +89159,11 @@
       <c r="AB344" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC344" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>8020686</v>
       </c>
@@ -88179,8 +89230,11 @@
       <c r="AB345" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="346" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC345" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>8862891</v>
       </c>
@@ -88247,8 +89301,11 @@
       <c r="AB346" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC346" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>8134464</v>
       </c>
@@ -88318,8 +89375,11 @@
       <c r="AB347" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="348" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC347" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>8103738</v>
       </c>
@@ -88389,8 +89449,11 @@
       <c r="AB348" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC348" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>8112499</v>
       </c>
@@ -88452,8 +89515,11 @@
       <c r="AB349" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="350" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC349" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>8821829</v>
       </c>
@@ -88520,8 +89586,11 @@
       <c r="AB350" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="351" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC350" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>8914399</v>
       </c>
@@ -88588,8 +89657,11 @@
       <c r="AB351" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="352" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC351" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="352" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>8220017</v>
       </c>
@@ -88643,8 +89715,11 @@
       <c r="AB352" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="353" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC352" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>7924834</v>
       </c>
@@ -88705,8 +89780,11 @@
       <c r="AB353" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="354" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC353" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>7921022</v>
       </c>
@@ -88770,8 +89848,11 @@
       <c r="AB354" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="355" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC354" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>7702972</v>
       </c>
@@ -88822,8 +89903,11 @@
       <c r="AB355" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="356" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC355" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>8697793</v>
       </c>
@@ -88890,8 +89974,11 @@
       <c r="AB356" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="357" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC356" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>8836265</v>
       </c>
@@ -88955,8 +90042,11 @@
       <c r="AB357" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="358" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC357" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>7670138</v>
       </c>
@@ -89007,8 +90097,9 @@
       <c r="AB358" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="359" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC358" s="12"/>
+    </row>
+    <row r="359" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>8569444</v>
       </c>
@@ -89059,8 +90150,11 @@
       <c r="AB359" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="360" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC359" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>8522651</v>
       </c>
@@ -89124,8 +90218,11 @@
       <c r="AB360" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="361" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC360" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>8768924</v>
       </c>
@@ -89176,8 +90273,11 @@
       <c r="AB361" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="362" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC361" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="362" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>8008742</v>
       </c>
@@ -89244,8 +90344,11 @@
       <c r="AB362" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="363" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC362" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>8769075</v>
       </c>
@@ -89296,8 +90399,11 @@
       <c r="AB363" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="364" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC363" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>8328409</v>
       </c>
@@ -89358,8 +90464,11 @@
       <c r="AB364" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="365" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC364" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>8665575</v>
       </c>
@@ -89426,8 +90535,11 @@
       <c r="AB365" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="366" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC365" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>8930512</v>
       </c>
@@ -89494,8 +90606,11 @@
       <c r="AB366" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="367" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC366" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>7621992</v>
       </c>
@@ -89559,8 +90674,11 @@
       <c r="AB367" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="368" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC367" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>8466093</v>
       </c>
@@ -89611,8 +90729,11 @@
       <c r="AB368" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="369" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC368" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>7345362</v>
       </c>
@@ -89676,8 +90797,11 @@
       <c r="AB369" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC369" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>7960071</v>
       </c>
@@ -89744,8 +90868,11 @@
       <c r="AB370" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="371" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC370" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>7847709</v>
       </c>
@@ -89796,8 +90923,11 @@
       <c r="AB371" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC371" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="372" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>7692427</v>
       </c>
@@ -89864,8 +90994,11 @@
       <c r="AB372" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC372" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="373" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>7717470</v>
       </c>
@@ -89916,8 +91049,11 @@
       <c r="AB373" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC373" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>7766019</v>
       </c>
@@ -89973,8 +91109,11 @@
       <c r="AB374" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC374" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>8402671</v>
       </c>
@@ -90025,8 +91164,11 @@
       <c r="AB375" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC375" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>8661589</v>
       </c>
@@ -90093,8 +91235,11 @@
       <c r="AB376" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC376" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>8392162</v>
       </c>
@@ -90161,8 +91306,11 @@
       <c r="AB377" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC377" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>8179477</v>
       </c>
@@ -90223,8 +91371,11 @@
       <c r="AB378" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC378" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>8871752</v>
       </c>
@@ -90276,8 +91427,11 @@
       <c r="AB379" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC379" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>7331337</v>
       </c>
@@ -90341,8 +91495,11 @@
       <c r="AB380" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="381" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC380" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>7680564</v>
       </c>
@@ -90418,8 +91575,11 @@
       <c r="AB381" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC381" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>8947649</v>
       </c>
@@ -90486,8 +91646,11 @@
       <c r="AB382" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="383" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC382" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="383" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>8601936</v>
       </c>
@@ -90551,8 +91714,11 @@
       <c r="AB383" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC383" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="384" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>8148108</v>
       </c>
@@ -90603,8 +91769,11 @@
       <c r="AB384" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="385" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC384" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="385" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>8366979</v>
       </c>
@@ -90668,8 +91837,11 @@
       <c r="AB385" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC385" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="386" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>7516217</v>
       </c>
@@ -90733,8 +91905,11 @@
       <c r="AB386" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="387" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC386" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="387" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>8738665</v>
       </c>
@@ -90785,8 +91960,11 @@
       <c r="AB387" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC387" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="388" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>7644227</v>
       </c>
@@ -90834,8 +92012,11 @@
       <c r="AB388" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="389" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC388" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="389" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>8907112</v>
       </c>
@@ -90902,8 +92083,11 @@
       <c r="AB389" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="390" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC389" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="390" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>8487777</v>
       </c>
@@ -90954,8 +92138,11 @@
       <c r="AB390" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="391" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC390" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="391" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>7849749</v>
       </c>
@@ -91019,8 +92206,11 @@
       <c r="AB391" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="392" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC391" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="392" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>8853857</v>
       </c>
@@ -91084,8 +92274,11 @@
       <c r="AB392" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="393" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC392" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="393" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>7622966</v>
       </c>
@@ -91149,8 +92342,11 @@
       <c r="AB393" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="394" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC393" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="394" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>8553935</v>
       </c>
@@ -91214,8 +92410,11 @@
       <c r="AB394" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="395" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC394" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="395" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>8595681</v>
       </c>
@@ -91285,8 +92484,11 @@
       <c r="AB395" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="396" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC395" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="396" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>7674934</v>
       </c>
@@ -91345,8 +92547,11 @@
       <c r="AB396" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="397" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC396" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="397" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>8790670</v>
       </c>
@@ -91410,8 +92615,11 @@
       <c r="AB397" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="398" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC397" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="398" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>8338833</v>
       </c>
@@ -91472,8 +92680,11 @@
       <c r="AB398" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="399" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC398" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="399" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>8111659</v>
       </c>
@@ -91537,8 +92748,11 @@
       <c r="AB399" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="400" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC399" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="400" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>8008759</v>
       </c>
@@ -91605,8 +92819,11 @@
       <c r="AB400" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="401" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC400" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="401" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>8046926</v>
       </c>
@@ -91670,8 +92887,11 @@
       <c r="AB401" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="402" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC401" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="402" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>7829665</v>
       </c>
@@ -91722,8 +92942,11 @@
       <c r="AB402" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="403" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC402" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="403" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>8847073</v>
       </c>
@@ -91790,8 +93013,11 @@
       <c r="AB403" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="404" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC403" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="404" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>8900453</v>
       </c>
@@ -91843,8 +93069,11 @@
       <c r="AB404" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="405" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC404" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="405" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>8715435</v>
       </c>
@@ -91895,8 +93124,11 @@
       <c r="AB405" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="406" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC405" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="406" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>8902886</v>
       </c>
@@ -91960,8 +93192,11 @@
       <c r="AB406" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="407" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC406" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="407" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>8922755</v>
       </c>
@@ -92028,8 +93263,11 @@
       <c r="AB407" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="408" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC407" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="408" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>8101203</v>
       </c>
@@ -92093,8 +93331,11 @@
       <c r="AB408" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="409" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC408" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="409" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>7533832</v>
       </c>
@@ -92161,8 +93402,11 @@
       <c r="AB409" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="410" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC409" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="410" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>8902780</v>
       </c>
@@ -92226,8 +93470,11 @@
       <c r="AB410" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="411" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC410" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="411" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>8245038</v>
       </c>
@@ -92288,8 +93535,11 @@
       <c r="AB411" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="412" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC411" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="412" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>8406670</v>
       </c>
@@ -92340,8 +93590,11 @@
       <c r="AB412" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="413" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC412" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="413" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>7695702</v>
       </c>
@@ -92417,8 +93670,11 @@
       <c r="AB413" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="414" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC413" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="414" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>7993515</v>
       </c>
@@ -92479,8 +93735,11 @@
       <c r="AB414" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="415" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC414" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="415" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>7927215</v>
       </c>
@@ -92550,8 +93809,11 @@
       <c r="AB415" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="416" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC415" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="416" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>8907305</v>
       </c>
@@ -92615,8 +93877,11 @@
       <c r="AB416" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="417" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC416" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="417" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>7629030</v>
       </c>
@@ -92692,8 +93957,11 @@
       <c r="AB417" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="418" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC417" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="418" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>8427156</v>
       </c>
@@ -92760,8 +94028,11 @@
       <c r="AB418" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="419" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC418" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="419" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>7697158</v>
       </c>
@@ -92812,8 +94083,11 @@
       <c r="AB419" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="420" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC419" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="420" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>8704815</v>
       </c>
@@ -92864,8 +94138,11 @@
       <c r="AB420" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="421" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC420" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="421" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>8807608</v>
       </c>
@@ -92926,8 +94203,11 @@
       <c r="AB421" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="422" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC421" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="422" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>8226833</v>
       </c>
@@ -92997,8 +94277,11 @@
       <c r="AB422" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="423" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC422" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="423" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>7807220</v>
       </c>
@@ -93054,8 +94337,11 @@
       <c r="AB423" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="424" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC423" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="424" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>7622516</v>
       </c>
@@ -93106,8 +94392,11 @@
       <c r="AB424" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="425" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC424" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="425" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>8206753</v>
       </c>
@@ -93171,8 +94460,11 @@
       <c r="AB425" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="426" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC425" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="426" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>7780075</v>
       </c>
@@ -93245,8 +94537,11 @@
       <c r="AB426" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="427" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC426" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="427" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>8231386</v>
       </c>
@@ -93297,8 +94592,11 @@
       <c r="AB427" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="428" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC427" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="428" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>7618491</v>
       </c>
@@ -93380,8 +94678,11 @@
       <c r="AB428" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="429" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC428" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="429" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>8724699</v>
       </c>
@@ -93448,8 +94749,11 @@
       <c r="AB429" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="430" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC429" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="430" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>8005631</v>
       </c>
@@ -93513,8 +94817,11 @@
       <c r="AB430" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="431" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC430" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="431" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>7599077</v>
       </c>
@@ -93565,8 +94872,9 @@
       <c r="AB431" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="432" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC431" s="12"/>
+    </row>
+    <row r="432" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>7605303</v>
       </c>
@@ -93636,8 +94944,11 @@
       <c r="AB432" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="433" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC432" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="433" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>8438152</v>
       </c>
@@ -93701,8 +95012,11 @@
       <c r="AB433" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="434" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC433" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="434" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>7696563</v>
       </c>
@@ -93753,8 +95067,11 @@
       <c r="AB434" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="435" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC434" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="435" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>8562438</v>
       </c>
@@ -93821,8 +95138,11 @@
       <c r="AB435" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="436" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC435" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="436" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>7797723</v>
       </c>
@@ -93873,8 +95193,11 @@
       <c r="AB436" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="437" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC436" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="437" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>7806818</v>
       </c>
@@ -93944,8 +95267,11 @@
       <c r="AB437" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="438" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC437" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="438" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>8163107</v>
       </c>
@@ -93996,8 +95322,11 @@
       <c r="AB438" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="439" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC438" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="439" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>8838569</v>
       </c>
@@ -94061,8 +95390,11 @@
       <c r="AB439" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="440" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC439" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="440" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>8678573</v>
       </c>
@@ -94126,8 +95458,11 @@
       <c r="AB440" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="441" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC440" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="441" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>7997637</v>
       </c>
@@ -94178,8 +95513,11 @@
       <c r="AB441" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="442" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC441" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="442" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>8245010</v>
       </c>
@@ -94240,8 +95578,11 @@
       <c r="AB442" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="443" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC442" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="443" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>8291133</v>
       </c>
@@ -94308,8 +95649,11 @@
       <c r="AB443" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="444" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC443" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="444" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>8497886</v>
       </c>
@@ -94373,8 +95717,11 @@
       <c r="AB444" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="445" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC444" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="445" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>8686850</v>
       </c>
@@ -94441,8 +95788,11 @@
       <c r="AB445" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="446" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC445" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="446" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>8595685</v>
       </c>
@@ -94515,8 +95865,11 @@
       <c r="AB446" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="447" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC446" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="447" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>7650043</v>
       </c>
@@ -94578,8 +95931,11 @@
       <c r="AB447" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="448" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC447" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="448" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>8569507</v>
       </c>
@@ -94646,8 +96002,11 @@
       <c r="AB448" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="449" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC448" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="449" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>8423601</v>
       </c>
@@ -94698,8 +96057,11 @@
       <c r="AB449" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="450" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC449" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="450" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>8122447</v>
       </c>
@@ -94755,8 +96117,11 @@
       <c r="AB450" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="451" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC450" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="451" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>8779116</v>
       </c>
@@ -94820,8 +96185,11 @@
       <c r="AB451" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="452" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC451" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="452" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>8896593</v>
       </c>
@@ -94888,8 +96256,11 @@
       <c r="AB452" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="453" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC452" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="453" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>7845502</v>
       </c>
@@ -94948,8 +96319,11 @@
       <c r="AB453" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="454" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC453" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="454" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>8810845</v>
       </c>
@@ -95013,8 +96387,11 @@
       <c r="AB454" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="455" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC454" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="455" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>7896469</v>
       </c>
@@ -95075,8 +96452,11 @@
       <c r="AB455" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="456" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC455" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="456" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>7728919</v>
       </c>
@@ -95132,8 +96512,11 @@
       <c r="AB456" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="457" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC456" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="457" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>7711467</v>
       </c>
@@ -95189,8 +96572,11 @@
       <c r="AB457" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="458" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC457" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="458" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>8018089</v>
       </c>
@@ -95251,8 +96637,11 @@
       <c r="AB458" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="459" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC458" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="459" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>8081681</v>
       </c>
@@ -95317,8 +96706,11 @@
       <c r="AB459" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="460" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC459" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="460" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>8892520</v>
       </c>
@@ -95382,8 +96774,11 @@
       <c r="AB460" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="461" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC460" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="461" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>8147148</v>
       </c>
@@ -95444,8 +96839,11 @@
       <c r="AB461" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="462" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC461" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="462" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>7966109</v>
       </c>
@@ -95496,8 +96894,11 @@
       <c r="AB462" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="463" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC462" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="463" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>8392184</v>
       </c>
@@ -95564,8 +96965,11 @@
       <c r="AB463" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="464" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC463" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="464" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>8799835</v>
       </c>
@@ -95632,8 +97036,11 @@
       <c r="AB464" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="465" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC464" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="465" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>8265333</v>
       </c>
@@ -95687,8 +97094,11 @@
       <c r="AB465" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="466" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC465" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="466" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>7802807</v>
       </c>
@@ -95744,8 +97154,11 @@
       <c r="AB466" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="467" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC466" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="467" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>7979932</v>
       </c>
@@ -95812,8 +97225,11 @@
       <c r="AB467" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="468" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC467" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="468" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>8291112</v>
       </c>
@@ -95883,8 +97299,11 @@
       <c r="AB468" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="469" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC468" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="469" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>8897840</v>
       </c>
@@ -95951,8 +97370,11 @@
       <c r="AB469" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="470" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC469" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="470" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>7927231</v>
       </c>
@@ -96003,8 +97425,11 @@
       <c r="AB470" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="471" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC470" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="471" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>8126630</v>
       </c>
@@ -96055,8 +97480,11 @@
       <c r="AB471" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="472" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC471" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="472" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>7832377</v>
       </c>
@@ -96107,8 +97535,11 @@
       <c r="AB472" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="473" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC472" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="473" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>8142821</v>
       </c>
@@ -96162,8 +97593,11 @@
       <c r="AB473" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="474" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC473" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="474" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>7865631</v>
       </c>
@@ -96224,8 +97658,11 @@
       <c r="AB474" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="475" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC474" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="475" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>7843592</v>
       </c>
@@ -96292,8 +97729,11 @@
       <c r="AB475" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="476" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC475" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="476" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>7838249</v>
       </c>
@@ -96344,8 +97784,11 @@
       <c r="AB476" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="477" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC476" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="477" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>7843978</v>
       </c>
@@ -96396,8 +97839,11 @@
       <c r="AB477" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="478" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC477" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="478" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>8818609</v>
       </c>
@@ -96464,8 +97910,11 @@
       <c r="AB478" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="479" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC478" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="479" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>8427170</v>
       </c>
@@ -96535,8 +97984,11 @@
       <c r="AB479" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="480" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC479" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="480" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>8792957</v>
       </c>
@@ -96603,8 +98055,11 @@
       <c r="AB480" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="481" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC480" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="481" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>8585663</v>
       </c>
@@ -96668,8 +98123,11 @@
       <c r="AB481" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="482" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC481" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="482" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>8301738</v>
       </c>
@@ -96730,8 +98188,11 @@
       <c r="AB482" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="483" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC482" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="483" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>8921949</v>
       </c>
@@ -96798,8 +98259,11 @@
       <c r="AB483" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="484" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC483" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="484" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>8760567</v>
       </c>
@@ -96866,8 +98330,11 @@
       <c r="AB484" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="485" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC484" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="485" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>8030486</v>
       </c>
@@ -96918,8 +98385,11 @@
       <c r="AB485" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="486" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC485" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="486" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>8449365</v>
       </c>
@@ -96973,8 +98443,11 @@
       <c r="AB486" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="487" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC486" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="487" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>8001528</v>
       </c>
@@ -97041,8 +98514,11 @@
       <c r="AB487" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="488" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC487" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="488" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>8291121</v>
       </c>
@@ -97112,8 +98588,11 @@
       <c r="AB488" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="489" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC488" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="489" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>8133267</v>
       </c>
@@ -97177,8 +98656,11 @@
       <c r="AB489" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="490" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC489" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="490" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>8599093</v>
       </c>
@@ -97242,8 +98724,11 @@
       <c r="AB490" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="491" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC490" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="491" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>8884597</v>
       </c>
@@ -97310,8 +98795,11 @@
       <c r="AB491" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="492" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC491" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="492" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>8818721</v>
       </c>
@@ -97378,8 +98866,11 @@
       <c r="AB492" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="493" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC492" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="493" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>8645158</v>
       </c>
@@ -97430,8 +98921,11 @@
       <c r="AB493" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="494" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC493" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="494" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>8698980</v>
       </c>
@@ -97495,8 +98989,11 @@
       <c r="AB494" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="495" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC494" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="495" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>8631367</v>
       </c>
@@ -97560,8 +99057,11 @@
       <c r="AB495" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="496" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC495" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="496" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>8291129</v>
       </c>
@@ -97622,8 +99122,11 @@
       <c r="AB496" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="497" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC496" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="497" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>8067699</v>
       </c>
@@ -97674,8 +99177,11 @@
       <c r="AB497" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="498" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC497" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="498" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>8334857</v>
       </c>
@@ -97726,8 +99232,11 @@
       <c r="AB498" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="499" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC498" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="499" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>8134434</v>
       </c>
@@ -97794,8 +99303,11 @@
       <c r="AB499" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="500" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC499" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="500" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>8084968</v>
       </c>
@@ -97856,8 +99368,11 @@
       <c r="AB500" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="501" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC500" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="501" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>8113949</v>
       </c>
@@ -97908,8 +99423,11 @@
       <c r="AB501" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="502" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC501" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="502" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>8323797</v>
       </c>
@@ -97963,8 +99481,11 @@
       <c r="AB502" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="503" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC502" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="503" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>8738746</v>
       </c>
@@ -98028,8 +99549,11 @@
       <c r="AB503" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="504" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC503" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="504" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>8366028</v>
       </c>
@@ -98086,8 +99610,11 @@
       <c r="AB504" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="505" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC504" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="505" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>8397203</v>
       </c>
@@ -98138,8 +99665,11 @@
       <c r="AB505" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="506" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC505" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="506" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>8411979</v>
       </c>
@@ -98192,8 +99722,11 @@
       <c r="AB506" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="507" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC506" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="507" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>8271203</v>
       </c>
@@ -98260,8 +99793,11 @@
       <c r="AB507" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="508" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC507" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="508" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>8736124</v>
       </c>
@@ -98312,8 +99848,11 @@
       <c r="AB508" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="509" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC508" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="509" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>8796837</v>
       </c>
@@ -98398,8 +99937,11 @@
       <c r="AB509" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="510" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC509" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="510" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>8351050</v>
       </c>
@@ -98460,8 +100002,11 @@
       <c r="AB510" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="511" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC510" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="511" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>8764068</v>
       </c>
@@ -98528,8 +100073,11 @@
       <c r="AB511" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="512" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC511" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="512" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>8715222</v>
       </c>
@@ -98596,8 +100144,11 @@
       <c r="AB512" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="513" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC512" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="513" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>8470936</v>
       </c>
@@ -98676,8 +100227,11 @@
       <c r="AB513" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="514" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC513" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="514" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>8884694</v>
       </c>
@@ -98741,8 +100295,11 @@
       <c r="AB514" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="515" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC514" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="515" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>8501247</v>
       </c>
@@ -98806,8 +100363,11 @@
       <c r="AB515" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="516" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC515" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="516" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>8930425</v>
       </c>
@@ -98874,8 +100434,11 @@
       <c r="AB516" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="517" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC516" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="517" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>8807962</v>
       </c>
@@ -98939,8 +100502,11 @@
       <c r="AB517" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="518" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC517" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="518" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>8480786</v>
       </c>
@@ -98991,8 +100557,11 @@
       <c r="AB518" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="519" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC518" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="519" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>8769939</v>
       </c>
@@ -99062,8 +100631,11 @@
       <c r="AB519" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="520" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC519" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="520" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>8769776</v>
       </c>
@@ -99139,8 +100711,11 @@
       <c r="AB520" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="521" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC520" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="521" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>8798605</v>
       </c>
@@ -99191,8 +100766,11 @@
       <c r="AB521" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="522" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC521" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="522" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>8807963</v>
       </c>
@@ -99243,8 +100821,11 @@
       <c r="AB522" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="523" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC522" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="523" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>8711158</v>
       </c>
@@ -99311,8 +100892,11 @@
       <c r="AB523" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="524" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC523" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="524" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>8686428</v>
       </c>
@@ -99363,8 +100947,11 @@
       <c r="AB524" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="525" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC524" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="525" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>8760431</v>
       </c>
@@ -99428,8 +101015,11 @@
       <c r="AB525" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="526" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC525" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="526" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>8884823</v>
       </c>
@@ -99480,8 +101070,11 @@
       <c r="AB526" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="527" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC526" s="12" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="527" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>8251904</v>
       </c>
@@ -99532,12 +101125,16 @@
       <c r="AB527" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="528" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC527" s="12" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="528" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C528" s="2"/>
       <c r="L528" s="12"/>
       <c r="S528" s="3"/>
       <c r="V528" s="12"/>
+      <c r="AC528" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1 S4:S5 S7 S9:S12 S15:S229 S231:S269 S271:S296 T297 S298:S387 T388 S389:S512 S514:S1048576">
